--- a/data/performance_sheets_option3/window2/BA11 Overall Model Peformance Results.xlsx
+++ b/data/performance_sheets_option3/window2/BA11 Overall Model Peformance Results.xlsx
@@ -1673,25 +1673,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.03151838108897209</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.1363878399133682</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.2260972857475281</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.1775341687928611</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>18.95786076784134</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.02410987392067909</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.1116794943809509</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.1857597678899765</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.1552735454630926</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>15.93302935361862</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2772,25 +2808,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>2.128341436386108</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>1.325620532035828</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.6515308022499084</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>1.458883626745502</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>41.6856050491333</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>1.262267708778381</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.9447163939476013</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.4775902032852173</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>1.123506879720094</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>32.00440406799316</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3868,25 +3940,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.4457042515277863</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.503180980682373</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.2266048341989517</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.6676108533627851</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>19.03840154409409</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.7081848978996277</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.7552050948143005</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.3201269507408142</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.8415372231218461</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>25.63884854316711</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4964,25 +5072,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.7653989195823669</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.8189190626144409</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.2993795871734619</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.8748708016515164</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>25.56194663047791</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.2763006687164307</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.4604345858097076</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.1755501627922058</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.5256431001320484</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>15.67378044128418</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6058,25 +6202,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.1499541103839874</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.3304429054260254</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>1.751888275146484</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.3872390868494391</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>57.30572938919067</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.2207126617431641</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.378178209066391</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>1.637555718421936</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.4698006617100108</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>81.45126104354858</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7152,25 +7332,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.1373451203107834</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.2995595633983612</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>1.037133812904358</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.3706010257821521</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>69.31431293487549</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.4019961655139923</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.4909730851650238</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>1.709623575210571</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.63403167548159</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>102.9409527778625</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8246,25 +8462,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.211284339427948</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.3532521426677704</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>1.900981426239014</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.4596567626261447</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>59.61050391197205</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.147938996553421</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.3211243152618408</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>1.986990809440613</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.3846283876073385</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>74.2469847202301</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9340,25 +9592,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>1.364910125732422</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.8449112772941589</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.848641037940979</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>1.168293681285841</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>33.27194154262543</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>2.795578479766846</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>1.246936082839966</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>1.160380601882935</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>1.671998349211758</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>42.36205518245697</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10434,25 +10722,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>18032.556640625</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>102.9871215820312</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>55.03953552246094</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>134.2853552723639</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>190.6471610069275</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>1.185359835624695</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.5942708849906921</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.8395446538925171</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>1.088742318285045</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>24.64695870876312</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11528,25 +11852,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>1.307309627532959</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.669297456741333</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.5270439982414246</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>1.143376415504955</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>26.53790712356567</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>457.4133605957031</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>20.65665054321289</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>9.371065139770508</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>21.38722423774771</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>199.4966626167297</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12442,13 +12802,31 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.02427484840154648</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.1275786757469177</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.217550054192543</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.15580387800548</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>18.47050935029984</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
@@ -13536,25 +13914,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.04869785532355309</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.1483878940343857</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.5465924143791199</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.2206759056253153</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>25.25945901870728</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.05207160115242004</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.1827035993337631</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.5035958886146545</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.2281920269256138</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>30.72723150253296</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14450,13 +14864,31 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.06241292506456375</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.1845928281545639</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.3549875617027283</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.2498257894304824</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>29.52780723571777</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
@@ -15364,13 +15796,31 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.1050829589366913</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.2661109566688538</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.7806707620620728</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.3241650180643977</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>38.91502022743225</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
@@ -16278,13 +16728,31 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.2717530727386475</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.4614175260066986</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.1755777299404144</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.5212994079592336</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>15.71516245603561</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
@@ -17192,13 +17660,31 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.462984561920166</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.5554538369178772</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.2475636303424835</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.680429689181892</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>19.82118785381317</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
@@ -18106,13 +18592,31 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>1.897419810295105</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>1.180916666984558</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.5936133861541748</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>1.377468624069204</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>37.42516934871674</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
@@ -19200,25 +19704,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.08385860919952393</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.2390426248311996</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.3527773320674896</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.2895835098888124</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>42.24332273006439</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.06242863833904266</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.2018183618783951</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.3259696066379547</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.2498572359149173</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>32.97978043556213</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20294,25 +20834,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.04444194585084915</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.1771867126226425</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.06685834378004074</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.2108125846595719</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>6.420348584651947</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.1887424737215042</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.3885239064693451</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.1473887711763382</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.434445018065007</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>13.4431391954422</v>
+      </c>
     </row>
     <row r="25" ht="30.75" customHeight="1"/>
   </sheetData>
@@ -21389,25 +21965,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.4348834753036499</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.3932926058769226</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.2561008334159851</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.6594569548527409</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>15.99346250295639</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.4595024585723877</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.4388295114040375</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.2731629610061646</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.6778661066703274</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>17.53084808588028</v>
+      </c>
     </row>
     <row r="25" ht="30.75" customHeight="1"/>
   </sheetData>
@@ -22484,25 +23096,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.4261731505393982</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.5075079202651978</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.2288466244935989</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.6528193858483357</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>18.27011704444885</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>1.38353705406189</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>1.122266292572021</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.4067129492759705</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>1.176238519205135</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>51.76253914833069</v>
+      </c>
     </row>
     <row r="25" ht="30.75" customHeight="1"/>
   </sheetData>
@@ -23581,25 +24229,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.02376392856240273</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.1297431439161301</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.1893208920955658</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.1541555336742821</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>18.57181787490845</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.04227783158421516</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.1664275825023651</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.2328312247991562</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.2056157376861391</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>24.08504039049149</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24679,25 +25363,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.05404449999332428</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.1858496814966202</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.5529400110244751</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.232474729795142</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>30.83342611789703</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.04989935085177422</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.1785750836133957</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.4980261623859406</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.2233816260388804</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>30.10327219963074</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25775,25 +26495,61 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="5" t="n"/>
-      <c r="E24" s="5" t="n"/>
-      <c r="F24" s="5" t="n"/>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.03746729344129562</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.1533079892396927</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.3401889204978943</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.1935647009175372</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>24.58840012550354</v>
+      </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="8" t="n"/>
-      <c r="L24" s="8" t="n"/>
-      <c r="M24" s="8" t="n"/>
-      <c r="N24" s="8" t="n"/>
-      <c r="O24" s="8" t="n"/>
-      <c r="P24" s="8" t="n"/>
+      <c r="J24" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K24" s="8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" s="8" t="n">
+        <v>0.04493201151490211</v>
+      </c>
+      <c r="M24" s="8" t="n">
+        <v>0.1624083817005157</v>
+      </c>
+      <c r="N24" s="8" t="n">
+        <v>0.3988806009292603</v>
+      </c>
+      <c r="O24" s="8" t="n">
+        <v>0.2119717233852245</v>
+      </c>
+      <c r="P24" s="8" t="n">
+        <v>25.63239932060242</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/performance_sheets_option3/window2/BA11 Overall Model Peformance Results.xlsx
+++ b/data/performance_sheets_option3/window2/BA11 Overall Model Peformance Results.xlsx
@@ -770,19 +770,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.04013377971308677</v>
+        <v>0.04013377971308682</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.1765909113985987</v>
+        <v>0.1765909113985989</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.253444189684931</v>
+        <v>0.2534441896849312</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.2003341701085633</v>
+        <v>0.2003341701085634</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>30.28024968208252</v>
+        <v>30.28024968208256</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -800,19 +800,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.0258335205584427</v>
+        <v>0.02583352055844251</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.1450452969345188</v>
+        <v>0.1450452969345183</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.2103740095220688</v>
+        <v>0.2103740095220681</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.160728095112344</v>
+        <v>0.1607280951123434</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>24.13098328090337</v>
+        <v>24.13098328090329</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -920,13 +920,13 @@
         </is>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.01071547026786994</v>
+        <v>0.01071547026786995</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.08171546815685965</v>
+        <v>0.08171546815685971</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.115314565213782</v>
+        <v>0.1153145652137821</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.1035155556806316</v>
@@ -950,16 +950,16 @@
         </is>
       </c>
       <c r="L10" s="8" t="n">
-        <v>0.007651330338168624</v>
+        <v>0.007651330338168634</v>
       </c>
       <c r="M10" s="8" t="n">
-        <v>0.07118780250851478</v>
+        <v>0.07118780250851479</v>
       </c>
       <c r="N10" s="8" t="n">
-        <v>0.104825272541409</v>
+        <v>0.1048252725414091</v>
       </c>
       <c r="O10" s="8" t="n">
-        <v>0.08747188312920115</v>
+        <v>0.08747188312920121</v>
       </c>
       <c r="P10" s="8" t="n">
         <v>10.91461027263853</v>
@@ -1338,19 +1338,19 @@
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01298034693971986</v>
+        <v>0.01223340026734024</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.08686850952309262</v>
+        <v>0.08319559550522956</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1161282919378124</v>
+        <v>0.1099151724683935</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1139313255418362</v>
+        <v>0.1106047027360963</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>11.7613810457297</v>
+        <v>11.14356743470291</v>
       </c>
       <c r="I17" s="9" t="inlineStr">
         <is>
@@ -1621,25 +1621,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.02560087293386459</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1340344101190567</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.1995363533496857</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.1600027278950724</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>19.156214594841</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.02823320962488651</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.1427037715911865</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.2109133452177048</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.1680274073622708</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>20.38903683423996</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -1647,25 +1683,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.01997424103319645</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1275647133588791</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.1784268170595169</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.1413302551939833</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>17.07337498664856</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.02163079380989075</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.1314417123794556</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.1868498176336288</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.1470741099238433</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>17.58998185396194</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -1905,19 +1977,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>6.657316089017456e-07</v>
+        <v>6.657316089042568e-07</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.0006366240890465609</v>
+        <v>0.0006366240890463253</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.0002809603274548841</v>
+        <v>0.0002809603274555764</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.0008159237764042335</v>
+        <v>0.0008159237764057723</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.02809044448080371</v>
+        <v>0.02809044448087277</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -1935,19 +2007,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>5.936094272306802e-07</v>
+        <v>5.936094272324533e-07</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.000617791265769529</v>
+        <v>0.0006177912657695381</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.0002863792901531191</v>
+        <v>0.0002863792901536884</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.0007704605293139164</v>
+        <v>0.0007704605293150671</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>0.02862922458849905</v>
+        <v>0.0286292245885558</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -2088,7 +2160,7 @@
         <v>0.3462836564331935</v>
       </c>
       <c r="M10" s="8" t="n">
-        <v>0.4826875118081807</v>
+        <v>0.4826875118081808</v>
       </c>
       <c r="N10" s="8" t="n">
         <v>0.2458888968451792</v>
@@ -2535,19 +2607,19 @@
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.287481357878539</v>
+        <v>1.293116394497196</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9899786125515105</v>
+        <v>0.9925050323435813</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.4024794763415417</v>
+        <v>0.4037769259368721</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.134672357061077</v>
+        <v>1.137152757767045</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>47.86519053808858</v>
+        <v>47.98436168595377</v>
       </c>
       <c r="I18" s="9" t="inlineStr">
         <is>
@@ -2565,19 +2637,19 @@
         </is>
       </c>
       <c r="L18" s="8" t="n">
-        <v>1.502403318127565</v>
+        <v>1.512573658315686</v>
       </c>
       <c r="M18" s="8" t="n">
-        <v>1.084254198418175</v>
+        <v>1.089478781705125</v>
       </c>
       <c r="N18" s="8" t="n">
-        <v>0.4368409932389483</v>
+        <v>0.4383122318404221</v>
       </c>
       <c r="O18" s="8" t="n">
-        <v>1.225725629220326</v>
+        <v>1.229867333624113</v>
       </c>
       <c r="P18" s="8" t="n">
-        <v>53.99504044875276</v>
+        <v>54.29578962929629</v>
       </c>
     </row>
     <row r="19" ht="27.95" customHeight="1">
@@ -2756,25 +2828,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.05}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.2736490964889526</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.3488356471061707</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.2104970067739487</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.5231148023990074</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>14.8612380027771</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.2433565109968185</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.3125642538070679</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.1961694061756134</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.4933117786925613</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>13.5432630777359</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -2782,25 +2890,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.1186034604907036</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.2895462214946747</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.1101884916424751</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.3443885312996116</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>10.75297519564629</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.1236900761723518</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.2628098130226135</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.09651543945074081</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.3516959996536097</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>9.863892942667007</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -3037,19 +3181,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>1.106157101634838e-07</v>
+        <v>1.106157101681326e-07</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.0002800858585860951</v>
+        <v>0.0002800858585922013</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.0001116599322023858</v>
+        <v>0.0001116599322055066</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.0003325894017606151</v>
+        <v>0.0003325894017676038</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.01116531596755852</v>
+        <v>0.01116531596787048</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -3067,19 +3211,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>9.006054712789847e-08</v>
+        <v>9.006054712453201e-08</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.0002490674116670008</v>
+        <v>0.0002490674116625167</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.0001017542298626693</v>
+        <v>0.0001017542298601994</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.0003001008949135248</v>
+        <v>0.000300100894907916</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>0.01017473235919973</v>
+        <v>0.01017473235895283</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -3187,7 +3331,7 @@
         </is>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.5575666805372499</v>
+        <v>0.5575666805372498</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.5282776246056025</v>
@@ -3196,7 +3340,7 @@
         <v>0.2156919375983851</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.7467038774087422</v>
+        <v>0.7467038774087421</v>
       </c>
       <c r="H10" s="5" t="n">
         <v>23.4285941752759</v>
@@ -3220,7 +3364,7 @@
         <v>0.1948917141574102</v>
       </c>
       <c r="M10" s="8" t="n">
-        <v>0.3472032292528525</v>
+        <v>0.3472032292528526</v>
       </c>
       <c r="N10" s="8" t="n">
         <v>0.1439797972368623</v>
@@ -3667,19 +3811,19 @@
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9280207309566129</v>
+        <v>0.9340873999686359</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8979572773992017</v>
+        <v>0.9000100251026808</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3267565286105862</v>
+        <v>0.3272540924233358</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9633383263197893</v>
+        <v>0.9664819708451037</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>40.16274883897127</v>
+        <v>40.25170197621827</v>
       </c>
       <c r="I18" s="9" t="inlineStr">
         <is>
@@ -3697,19 +3841,19 @@
         </is>
       </c>
       <c r="L18" s="8" t="n">
-        <v>1.048634097809625</v>
+        <v>1.04063082813715</v>
       </c>
       <c r="M18" s="8" t="n">
-        <v>0.9264310293140934</v>
+        <v>0.9229077159500348</v>
       </c>
       <c r="N18" s="8" t="n">
-        <v>0.3398527335553549</v>
+        <v>0.3379734362589187</v>
       </c>
       <c r="O18" s="8" t="n">
-        <v>1.024028367678174</v>
+        <v>1.02011314477226</v>
       </c>
       <c r="P18" s="8" t="n">
-        <v>42.64855943256138</v>
+        <v>42.32987737073587</v>
       </c>
     </row>
     <row r="19" ht="56.1" customHeight="1">
@@ -3888,25 +4032,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.1584402918815613</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.2872012555599213</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.1307718753814697</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.3980455902048926</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>11.35638952255249</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.1549153923988342</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.2736420631408691</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.1252449154853821</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.3935929272723714</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>10.88819950819016</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -3914,25 +4094,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.09143923223018646</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.2608467638492584</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.09782345592975616</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.3023892065371819</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>9.353099763393402</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.07501263171434402</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.2312817871570587</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.08305084705352783</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.273884340031233</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>8.377616852521896</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -4169,19 +4385,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>4.935730032276824e-08</v>
+        <v>4.935730032380501e-08</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.0001684037564218717</v>
+        <v>0.0001684037564235424</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5.999019545054513e-05</v>
+        <v>5.999019545106699e-05</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.0002221650294775671</v>
+        <v>0.0002221650294799004</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.005999170534396135</v>
+        <v>0.005999170534448317</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -4199,19 +4415,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>5.662069483622516e-08</v>
+        <v>5.662069483530299e-08</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.0001758697266273038</v>
+        <v>0.000175869726623751</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>6.429463981884144e-05</v>
+        <v>6.42946398174093e-05</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.0002379510345348916</v>
+        <v>0.0002379510345329538</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>0.006429733170968918</v>
+        <v>0.0064297331708257</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -4349,19 +4565,19 @@
         </is>
       </c>
       <c r="L10" s="8" t="n">
-        <v>0.7340914156498538</v>
+        <v>0.7340914156498537</v>
       </c>
       <c r="M10" s="8" t="n">
-        <v>0.6000621913062676</v>
+        <v>0.6000621913062675</v>
       </c>
       <c r="N10" s="8" t="n">
-        <v>0.2059276560348049</v>
+        <v>0.2059276560348048</v>
       </c>
       <c r="O10" s="8" t="n">
-        <v>0.8567913489583411</v>
+        <v>0.856791348958341</v>
       </c>
       <c r="P10" s="8" t="n">
-        <v>25.90902032631941</v>
+        <v>25.9090203263194</v>
       </c>
     </row>
     <row r="11" ht="30.75" customHeight="1">
@@ -4763,23 +4979,23 @@
       </c>
       <c r="K17" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 400, 'loss': 'square', 'learning_rate': 1.0}</t>
+          <t>{'n_estimators': 50, 'loss': 'exponential', 'learning_rate': 0.01}</t>
         </is>
       </c>
       <c r="L17" s="8" t="n">
-        <v>0.5191353844860557</v>
+        <v>1.635643057676222</v>
       </c>
       <c r="M17" s="8" t="n">
-        <v>0.5604738536396561</v>
+        <v>0.8055137870793881</v>
       </c>
       <c r="N17" s="8" t="n">
-        <v>0.1944215616391301</v>
+        <v>0.2769307483756802</v>
       </c>
       <c r="O17" s="8" t="n">
-        <v>0.7205105026896247</v>
+        <v>1.278922615984338</v>
       </c>
       <c r="P17" s="8" t="n">
-        <v>23.07716917402265</v>
+        <v>40.37652826904156</v>
       </c>
     </row>
     <row r="18" ht="56.1" customHeight="1">
@@ -4799,19 +5015,19 @@
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.510607816563914</v>
+        <v>1.526758091406499</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.158407423419209</v>
+        <v>1.163653357321766</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.4097188599937408</v>
+        <v>0.4114696812958976</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.22906786491386</v>
+        <v>1.235620528886801</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>52.95408763695726</v>
+        <v>53.26933174488106</v>
       </c>
       <c r="I18" s="9" t="inlineStr">
         <is>
@@ -4829,19 +5045,19 @@
         </is>
       </c>
       <c r="L18" s="8" t="n">
-        <v>1.287615318976726</v>
+        <v>1.294075812550042</v>
       </c>
       <c r="M18" s="8" t="n">
-        <v>0.9891242229699118</v>
+        <v>0.9905898392108554</v>
       </c>
       <c r="N18" s="8" t="n">
-        <v>0.3477321284905955</v>
+        <v>0.3481958615897672</v>
       </c>
       <c r="O18" s="8" t="n">
-        <v>1.13473138626581</v>
+        <v>1.137574530547358</v>
       </c>
       <c r="P18" s="8" t="n">
-        <v>45.06421072084878</v>
+        <v>45.17354210719138</v>
       </c>
     </row>
     <row r="19" ht="56.1" customHeight="1">
@@ -5020,25 +5236,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.05908412486314774</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1979682296514511</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.07296625524759293</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.2430722626363357</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>7.185422629117966</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.06254935264587402</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.2209117561578751</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.08064696192741394</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.2500986858139683</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>8.02217572927475</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -5046,25 +5298,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.05566629394888878</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.200692743062973</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.07059188187122345</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.2359370550568282</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>7.104390114545822</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.05509833618998528</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.209350049495697</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.07434586435556412</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.2347303478248718</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>7.393669337034225</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -5299,10 +5587,10 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.0585489643538261</v>
+        <v>0.05854896435382612</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.1504337584544821</v>
+        <v>0.1504337584544822</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>1.563736616924342</v>
@@ -5329,10 +5617,10 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.06062813976968671</v>
+        <v>0.06062813976968673</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.1577757013446735</v>
+        <v>0.1577757013446736</v>
       </c>
       <c r="N7" s="8" t="n">
         <v>1.547082418582096</v>
@@ -5867,19 +6155,19 @@
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.04810814862034717</v>
+        <v>0.04775911221387683</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1444279390359208</v>
+        <v>0.1432473917706942</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1.394307395598848</v>
+        <v>1.38955644733162</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2193356984632168</v>
+        <v>0.2185385828952792</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>30.18499599637724</v>
+        <v>30.01671913369656</v>
       </c>
       <c r="I17" s="9" t="inlineStr">
         <is>
@@ -5897,19 +6185,19 @@
         </is>
       </c>
       <c r="L17" s="8" t="n">
-        <v>0.04902175184541113</v>
+        <v>0.04891386908414043</v>
       </c>
       <c r="M17" s="8" t="n">
-        <v>0.1450301738525491</v>
+        <v>0.1445761028724285</v>
       </c>
       <c r="N17" s="8" t="n">
-        <v>1.423307273858902</v>
+        <v>1.422350209470125</v>
       </c>
       <c r="O17" s="8" t="n">
-        <v>0.2214085631709197</v>
+        <v>0.2211648007349733</v>
       </c>
       <c r="P17" s="8" t="n">
-        <v>30.20391428455931</v>
+        <v>30.12342350642012</v>
       </c>
     </row>
     <row r="18" ht="42" customHeight="1">
@@ -5929,19 +6217,19 @@
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.05763055153280801</v>
+        <v>0.05766939709911429</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1585465803359672</v>
+        <v>0.1585192997758736</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.524268471827221</v>
+        <v>1.525013420356589</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2400636405889238</v>
+        <v>0.2401445337689665</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>31.91332437270195</v>
+        <v>31.90855244846482</v>
       </c>
       <c r="I18" s="9" t="inlineStr">
         <is>
@@ -6150,25 +6438,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.1001380607485771</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.2388554960489273</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>1.817062616348267</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.3164459839349792</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>41.66390299797058</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.01}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.2549079358577728</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.4139675796031952</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>2.06303882598877</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.5048840816046519</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>60.62313914299011</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -6176,25 +6500,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.0760728120803833</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1792284697294235</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.8630043864250183</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.2758130020147406</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>30.5320531129837</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.06591489166021347</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.1781501173973083</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.7815937995910645</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.2567389562575447</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>32.10572302341461</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -6429,7 +6789,7 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.06533963309697408</v>
+        <v>0.06533963309697409</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.1981818339094041</v>
@@ -6997,19 +7357,19 @@
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.06803340212970788</v>
+        <v>0.06783333515721365</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2024850367519931</v>
+        <v>0.2016731070615313</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1.617078101737945</v>
+        <v>1.616226799234721</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2608321340052024</v>
+        <v>0.2604483349096585</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>38.71214904180858</v>
+        <v>38.59023449688407</v>
       </c>
       <c r="I17" s="9" t="inlineStr">
         <is>
@@ -7280,25 +7640,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.0889023169875145</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.2334314733743668</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>1.88642942905426</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.2981649157555504</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>41.9963926076889</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.09734447300434113</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.2494940608739853</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>1.829852938652039</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.3120007580188566</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>44.43391859531403</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -7306,25 +7702,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.07425031065940857</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.2183295041322708</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.7939708232879639</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.2724891019094315</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>37.73702383041382</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.09585510939359665</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.2435127794742584</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.8518258333206177</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.3096047631959118</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>41.21223986148834</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -7559,7 +7991,7 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.05982650818473094</v>
+        <v>0.05982650818473093</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.1821038539522136</v>
@@ -7571,7 +8003,7 @@
         <v>0.2445945792218849</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>35.10461296013558</v>
+        <v>35.10461296013557</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -7601,7 +8033,7 @@
         <v>0.2327465904821105</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>31.49818256875865</v>
+        <v>31.49818256875866</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -7715,7 +8147,7 @@
         <v>0.162623931387729</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1.498635835891163</v>
+        <v>1.498635835891164</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.2224945822810039</v>
@@ -8189,19 +8621,19 @@
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.05375912052910792</v>
+        <v>0.05383525571655731</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1630384211028768</v>
+        <v>0.1629585133608069</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.610776767613377</v>
+        <v>1.610479159052396</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2318601313919837</v>
+        <v>0.2320242567417409</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>32.57519641799434</v>
+        <v>32.56112522674956</v>
       </c>
       <c r="I18" s="9" t="inlineStr">
         <is>
@@ -8219,19 +8651,19 @@
         </is>
       </c>
       <c r="L18" s="8" t="n">
-        <v>0.05676947693684564</v>
+        <v>0.05675529917554636</v>
       </c>
       <c r="M18" s="8" t="n">
-        <v>0.1586595910308773</v>
+        <v>0.1585903302803584</v>
       </c>
       <c r="N18" s="8" t="n">
-        <v>1.655337213052087</v>
+        <v>1.655366693598129</v>
       </c>
       <c r="O18" s="8" t="n">
-        <v>0.2382634611870768</v>
+        <v>0.2382337070515975</v>
       </c>
       <c r="P18" s="8" t="n">
-        <v>31.49166536334834</v>
+        <v>31.49484755743143</v>
       </c>
     </row>
     <row r="19" ht="56.1" customHeight="1">
@@ -8410,25 +8842,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.0685180202126503</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.18748939037323</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>1.800038695335388</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.2617594701489333</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>37.52506971359253</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 10, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.07101105898618698</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.21351657807827</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>1.269214034080505</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.266479002899266</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>47.6929783821106</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -8436,25 +8904,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.04238777980208397</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1435152590274811</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.5089753866195679</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.2058829274177049</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>27.83540487289429</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.04447593167424202</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.1361175328493118</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.5239936709403992</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.2108931759783659</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>25.39217472076416</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -8689,16 +9193,16 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.6409578441700228</v>
+        <v>0.6409578441700227</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.3784147080785781</v>
+        <v>0.3784147080785782</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>0.6128064460613207</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.8005984287831339</v>
+        <v>0.8005984287831338</v>
       </c>
       <c r="H7" s="5" t="n">
         <v>18.9265252526226</v>
@@ -8719,19 +9223,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.6409591119778916</v>
+        <v>0.6409591119778913</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.37842063865383</v>
+        <v>0.3784206386538301</v>
       </c>
       <c r="N7" s="8" t="n">
         <v>0.6128067459754239</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.8005992205703748</v>
+        <v>0.8005992205703746</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>18.92674032005259</v>
+        <v>18.9267403200526</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -9540,25 +10044,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.5497907400131226</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.4125489890575409</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.5649086833000183</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.7414787522330782</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>20.58187276124954</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.6825843453407288</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.4643343985080719</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.6161564588546753</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.8261866286383052</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>22.15951830148697</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -9566,25 +10106,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.3978931307792664</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.4303617179393768</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.4551495611667633</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.6307877065853982</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>20.19952833652496</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.4250817000865936</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.4095300734043121</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.5574740171432495</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.6519828986151351</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>18.27426552772522</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -9975,7 +10551,7 @@
         <v>0.3183032443895281</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.6336903005238251</v>
+        <v>0.6336903005238252</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.7931355227576365</v>
@@ -9999,7 +10575,7 @@
         </is>
       </c>
       <c r="L10" s="8" t="n">
-        <v>0.634641847588658</v>
+        <v>0.6346418475886582</v>
       </c>
       <c r="M10" s="8" t="n">
         <v>0.3190872234254452</v>
@@ -10417,19 +10993,19 @@
         </is>
       </c>
       <c r="L17" s="8" t="n">
-        <v>0.5389376716038305</v>
+        <v>0.5254763952084737</v>
       </c>
       <c r="M17" s="8" t="n">
-        <v>0.2887913695329944</v>
+        <v>0.2866414895758142</v>
       </c>
       <c r="N17" s="8" t="n">
-        <v>0.5795979173976888</v>
+        <v>0.5726530912408232</v>
       </c>
       <c r="O17" s="8" t="n">
-        <v>0.7341237440675996</v>
+        <v>0.7248975066921348</v>
       </c>
       <c r="P17" s="8" t="n">
-        <v>14.8219198702341</v>
+        <v>14.82241151498319</v>
       </c>
     </row>
     <row r="18" ht="42" customHeight="1">
@@ -10670,25 +11246,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.6687113642692566</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.4256868958473206</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.6586707830429077</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.8177477387735514</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>20.70137858390808</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.8182780146598816</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.5030049681663513</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.7401229739189148</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.9045872067743836</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>22.8481337428093</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -10696,25 +11308,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>531.2828369140625</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>14.89285087585449</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>6.415177345275879</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>23.04957346490521</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>180.7121634483337</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.3776726722717285</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.3096204698085785</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.5147974491119385</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.6145507890091172</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>14.29843157529831</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -10949,19 +11597,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.4311107554624221</v>
+        <v>0.4311107554624222</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.3228374115895111</v>
+        <v>0.3228374115895112</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.2780952933198894</v>
+        <v>0.2780952933198895</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.656590249289785</v>
+        <v>0.6565902492897852</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>16.68838113885283</v>
+        <v>16.68838113885284</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -10979,16 +11627,16 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.4523736129680387</v>
+        <v>0.4523736129680394</v>
       </c>
       <c r="M7" s="8" t="n">
         <v>0.3407161193180728</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.2898386750359591</v>
+        <v>0.2898386750359592</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.6725872530520027</v>
+        <v>0.6725872530520032</v>
       </c>
       <c r="P7" s="8" t="n">
         <v>17.43279782743416</v>
@@ -11513,23 +12161,23 @@
       </c>
       <c r="C17" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 400, 'loss': 'square', 'learning_rate': 1.0}</t>
+          <t>{'n_estimators': 50, 'loss': 'exponential', 'learning_rate': 0.01}</t>
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.4412188012180575</v>
+        <v>0.5025663605453822</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2584103077004701</v>
+        <v>0.2879504361591386</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2461875937807302</v>
+        <v>0.2687925294937119</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.664243028731245</v>
+        <v>0.7089191495123983</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>13.5923609677684</v>
+        <v>14.2380160262805</v>
       </c>
       <c r="I17" s="9" t="inlineStr">
         <is>
@@ -11609,19 +12257,19 @@
         </is>
       </c>
       <c r="L18" s="8" t="n">
-        <v>0.4807934344792604</v>
+        <v>0.4797710446670495</v>
       </c>
       <c r="M18" s="8" t="n">
-        <v>0.2856411893207361</v>
+        <v>0.2838295893553337</v>
       </c>
       <c r="N18" s="8" t="n">
-        <v>0.2797047845410238</v>
+        <v>0.2786578656364007</v>
       </c>
       <c r="O18" s="8" t="n">
-        <v>0.6933926986053865</v>
+        <v>0.6926550690401749</v>
       </c>
       <c r="P18" s="8" t="n">
-        <v>14.92133771693254</v>
+        <v>14.83183889131402</v>
       </c>
     </row>
     <row r="19" ht="56.1" customHeight="1">
@@ -11800,25 +12448,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.6056213974952698</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.3557443916797638</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.3340782523155212</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.7782168062277182</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>17.64209121465683</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.5039163827896118</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.3495173156261444</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.3093168139457703</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.7098706803281931</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>17.92156398296356</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -11826,25 +12510,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.2404628098011017</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.2426860928535461</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.1705424785614014</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.4903700743327448</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>11.14168837666512</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.25334632396698</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.3606849908828735</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.1907774060964584</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.5033352004052369</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>15.84290117025375</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -12079,19 +12799,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.1357200749464784</v>
+        <v>0.1357200749464795</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.2762345214070315</v>
+        <v>0.2762345214070325</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.4198577276960171</v>
+        <v>0.4198577276960186</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.3684020561105468</v>
+        <v>0.3684020561105482</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>40.06765138804796</v>
+        <v>40.06765138804802</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -12196,10 +12916,10 @@
         <v>0.01095847700064517</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.07965794013228582</v>
+        <v>0.07965794013228586</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.1030798099228124</v>
+        <v>0.1030798099228125</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.1046827445219372</v>
@@ -12565,19 +13285,19 @@
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.03699533893230224</v>
+        <v>0.03675016727169679</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1357631733785367</v>
+        <v>0.1354363896842757</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1816542743617611</v>
+        <v>0.1812685921406988</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1923417243665613</v>
+        <v>0.1917033314047953</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>20.92566819743742</v>
+        <v>20.85699770943153</v>
       </c>
       <c r="I18" s="9" t="inlineStr">
         <is>
@@ -12750,13 +13470,31 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.02334370836615562</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1209671273827553</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.189068466424942</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.1527864796575784</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>17.13345050811768</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
@@ -12776,13 +13514,31 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.0170481912791729</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1146156117320061</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.1547948718070984</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.1305687224383118</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>15.32871574163437</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
@@ -13011,19 +13767,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.03453163449567629</v>
+        <v>0.03453163449567626</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.1555163764795248</v>
+        <v>0.1555163764795247</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.3176912643493772</v>
+        <v>0.3176912643493771</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.1858268938977249</v>
+        <v>0.1858268938977247</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>27.23486374584008</v>
+        <v>27.23486374584007</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -13041,19 +13797,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.03273183217864818</v>
+        <v>0.03273183217864816</v>
       </c>
       <c r="M7" s="8" t="n">
         <v>0.1496102370682928</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.3141920619635196</v>
+        <v>0.3141920619635194</v>
       </c>
       <c r="O7" s="8" t="n">
         <v>0.180919407965669</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>26.30008287814768</v>
+        <v>26.30008287814766</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -13197,7 +13953,7 @@
         <v>0.149986141466457</v>
       </c>
       <c r="N10" s="8" t="n">
-        <v>0.3852889657514276</v>
+        <v>0.3852889657514275</v>
       </c>
       <c r="O10" s="8" t="n">
         <v>0.1968250790343679</v>
@@ -13641,19 +14397,19 @@
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.02635552690138399</v>
+        <v>0.02633017241707904</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1191524632606468</v>
+        <v>0.1190202071327628</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3663472999473498</v>
+        <v>0.3668122619598919</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1623438539070204</v>
+        <v>0.1622657462839248</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>20.96964571994519</v>
+        <v>20.95856405228659</v>
       </c>
       <c r="I18" s="9" t="inlineStr">
         <is>
@@ -13671,19 +14427,19 @@
         </is>
       </c>
       <c r="L18" s="8" t="n">
-        <v>0.02594902000478074</v>
+        <v>0.02598853615479666</v>
       </c>
       <c r="M18" s="8" t="n">
-        <v>0.120490000885347</v>
+        <v>0.1204999140947722</v>
       </c>
       <c r="N18" s="8" t="n">
-        <v>0.3655472022087645</v>
+        <v>0.3654554920073918</v>
       </c>
       <c r="O18" s="8" t="n">
-        <v>0.1610869951447998</v>
+        <v>0.161209603171761</v>
       </c>
       <c r="P18" s="8" t="n">
-        <v>21.13833473879824</v>
+        <v>21.13406532819672</v>
       </c>
     </row>
     <row r="19" ht="121.5" customHeight="1">
@@ -13862,25 +14618,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.05284873396158218</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1800126880407333</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.5547915101051331</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.2298885250759206</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>29.93873059749603</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.05288932099938393</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.1796399354934692</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.5557022094726562</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.2299767836095286</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>29.86891865730286</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -13888,25 +14680,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.03226504102349281</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1525837033987045</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.2672915160655975</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.1796247227513318</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>22.44773507118225</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.03417089581489563</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.157896026968956</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.273131400346756</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.1848537146364542</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>23.16350340843201</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -14141,19 +14969,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.2707010536202166</v>
+        <v>0.2707010536202223</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.4282595712591148</v>
+        <v>0.4282595712591182</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.6630355071055346</v>
+        <v>0.6630355071055392</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.5202893941069879</v>
+        <v>0.5202893941069934</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>78.97475010663268</v>
+        <v>78.97475010663327</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -14812,13 +15640,31 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.03785674646496773</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1544671356678009</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.3333182334899902</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.1945681023831186</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>24.63697344064713</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
@@ -14838,13 +15684,31 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.049577496945858</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1800204664468765</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.2685602009296417</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.2226600479337459</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>26.00626647472382</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
@@ -15073,19 +15937,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>5.261798357621153</v>
+        <v>5.261798357621111</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1.545981378406001</v>
+        <v>1.545981378405995</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>2.454039263522625</v>
+        <v>2.454039263522616</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>2.293861015323543</v>
+        <v>2.293861015323533</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>111.0350009936198</v>
+        <v>111.0350009936197</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -15515,19 +16379,19 @@
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.03509140531838064</v>
+        <v>0.03507957623520656</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1283465268051563</v>
+        <v>0.1268142858012303</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.4648285531545203</v>
+        <v>0.460492747288701</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1873270010393073</v>
+        <v>0.1872954250247628</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>22.03191516923334</v>
+        <v>21.71793332858604</v>
       </c>
       <c r="I17" s="9" t="inlineStr">
         <is>
@@ -15559,19 +16423,19 @@
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.04248333247411983</v>
+        <v>0.04246611175298202</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1553295389942406</v>
+        <v>0.1551327027029465</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.4380387964650321</v>
+        <v>0.4399007860669175</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2061148526286251</v>
+        <v>0.2060730738184444</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>26.5354280731084</v>
+        <v>26.47018212636854</v>
       </c>
       <c r="I18" s="9" t="inlineStr">
         <is>
@@ -15744,13 +16608,31 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.05020279437303543</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1754578948020935</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.5461426377296448</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.224059800885914</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>29.29931879043579</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
@@ -15770,13 +16652,31 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.03516076877713203</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1622574329376221</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.2605380117893219</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.1875120496851657</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>23.59862923622131</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
@@ -16005,19 +16905,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>1.411499133476325</v>
+        <v>1.411499133476328</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.9969020456077008</v>
+        <v>0.9969020456077027</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.3717921286784316</v>
+        <v>0.3717921286784323</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>1.188065290073035</v>
+        <v>1.188065290073036</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>39.87150844420502</v>
+        <v>39.87150844420512</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -16443,23 +17343,23 @@
       </c>
       <c r="C17" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'loss': 'square', 'learning_rate': 0.01}</t>
+          <t>{'n_estimators': 400, 'loss': 'square', 'learning_rate': 1.0}</t>
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.06721289463153875</v>
+        <v>0.08495346418961613</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2100964702530001</v>
+        <v>0.2425576307829293</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.07480457215258458</v>
+        <v>0.08994296561531782</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2592544978038737</v>
+        <v>0.2914677755595224</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>7.858021591050226</v>
+        <v>9.467135883642658</v>
       </c>
       <c r="I17" s="9" t="inlineStr">
         <is>
@@ -16676,13 +17576,31 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.05862651020288467</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.2024001628160477</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.07363590598106384</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.2421291188661221</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>7.348831743001938</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
@@ -16702,13 +17620,31 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.06588702648878098</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.2245190888643265</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.07803742587566376</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.2566846830038383</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>7.948312908411026</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
@@ -16937,19 +17873,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>3.292202107244362</v>
+        <v>3.292202107244389</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1.317806767841799</v>
+        <v>1.317806767841804</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.4941589558865436</v>
+        <v>0.4941589558865458</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>1.814442643690994</v>
+        <v>1.814442643691001</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>42.55044220587806</v>
+        <v>42.55044220587825</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -17379,19 +18315,19 @@
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.08644601948157329</v>
+        <v>0.1017388217250838</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2271359362798529</v>
+        <v>0.2421495007896185</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.09779829674429666</v>
+        <v>0.1066014619090171</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2940170394408686</v>
+        <v>0.3189652359193456</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>9.110743077592476</v>
+        <v>9.706678206727139</v>
       </c>
       <c r="I17" s="9" t="inlineStr">
         <is>
@@ -17608,13 +18544,31 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.1678353250026703</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.2712681293487549</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.1282829940319061</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.4096770984600803</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>10.75261682271957</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
@@ -17634,13 +18588,31 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.05428285896778107</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1978787034749985</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.07361196726560593</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.2329868214465811</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>7.176338136196136</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
@@ -17869,19 +18841,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>1.482975404958893</v>
+        <v>1.482975404958883</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.9919540534564515</v>
+        <v>0.9919540534564476</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.434441255701347</v>
+        <v>0.4344412557013452</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>1.217774775957727</v>
+        <v>1.217774775957723</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>46.202488186386</v>
+        <v>46.20248818638586</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -17983,7 +18955,7 @@
         </is>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.2606594611230345</v>
+        <v>0.2606594611230344</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.318393763949794</v>
@@ -18540,13 +19512,31 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.2605650126934052</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.3128326237201691</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.2004737854003906</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.5104556912146295</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>13.51592242717743</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
@@ -18566,13 +19556,31 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.08464360237121582</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.2263454347848892</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.08918438106775284</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.2909357358098448</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>8.456171303987503</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
@@ -18801,19 +19809,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.05540346944606855</v>
+        <v>0.05540346944606857</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.1797238506197312</v>
+        <v>0.1797238506197313</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.3049372555243392</v>
+        <v>0.3049372555243393</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.2353794159353544</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>30.63544785432967</v>
+        <v>30.63544785432969</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -18831,19 +19839,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.07076709657957025</v>
+        <v>0.07076709657957019</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.2048923875001729</v>
+        <v>0.2048923875001728</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.3111728351249646</v>
+        <v>0.3111728351249645</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.2660208574145461</v>
+        <v>0.266020857414546</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>34.8455531977655</v>
+        <v>34.84555319776549</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -19431,19 +20439,19 @@
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.04412034439057358</v>
+        <v>0.04400064850280602</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1759202587693595</v>
+        <v>0.1758374121413118</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3304794563236962</v>
+        <v>0.3304060387118304</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2100484334399416</v>
+        <v>0.2097633154362459</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>28.50888709524717</v>
+        <v>28.48894423451433</v>
       </c>
       <c r="I18" s="9" t="inlineStr">
         <is>
@@ -19461,19 +20469,19 @@
         </is>
       </c>
       <c r="L18" s="8" t="n">
-        <v>0.04288585388611553</v>
+        <v>0.04288909035520642</v>
       </c>
       <c r="M18" s="8" t="n">
-        <v>0.1699973199825726</v>
+        <v>0.1701482802379038</v>
       </c>
       <c r="N18" s="8" t="n">
-        <v>0.3156558455146852</v>
+        <v>0.3163084393683587</v>
       </c>
       <c r="O18" s="8" t="n">
-        <v>0.2070889999157742</v>
+        <v>0.207096813966817</v>
       </c>
       <c r="P18" s="8" t="n">
-        <v>27.54688500505675</v>
+        <v>27.56241186943729</v>
       </c>
     </row>
     <row r="19" ht="121.5" customHeight="1">
@@ -19652,25 +20660,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.04214794188737869</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1648400127887726</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.3703151047229767</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.2052996392772737</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>26.16528570652008</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.04460851475596428</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.1691661179065704</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.3804062902927399</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.2112072791263698</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>26.72876715660095</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -19678,25 +20722,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.03743215277791023</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1663001477718353</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.2631760537624359</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.1934739072275903</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>23.27722162008286</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.02993064187467098</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.1532144397497177</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.2456365972757339</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.1730047452374384</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>21.66588306427002</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -19931,7 +21011,7 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.1675967823640964</v>
+        <v>0.1675967823640966</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.3446347064254013</v>
@@ -19940,7 +21020,7 @@
         <v>0.1264639223015057</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.4093858599953062</v>
+        <v>0.4093858599953064</v>
       </c>
       <c r="H7" s="5" t="n">
         <v>13.75666586778244</v>
@@ -19961,19 +21041,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.2284517442447556</v>
+        <v>0.228451744244756</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.415061364347806</v>
+        <v>0.4150613643478064</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.1512621243420675</v>
+        <v>0.1512621243420676</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.4779662584793571</v>
+        <v>0.4779662584793575</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>16.50057377626895</v>
+        <v>16.50057377626897</v>
       </c>
     </row>
     <row r="8" ht="28.5" customHeight="1">
@@ -20495,23 +21575,23 @@
       </c>
       <c r="C17" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 250, 'loss': 'linear', 'learning_rate': 0.1}</t>
+          <t>{'n_estimators': 400, 'loss': 'square', 'learning_rate': 1.0}</t>
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1070625099984102</v>
+        <v>0.08387775598890265</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2360909657568807</v>
+        <v>0.2001938675499825</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.08864386375404162</v>
+        <v>0.0740253598142139</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.327204080045482</v>
+        <v>0.2896165671865176</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>9.770539888336945</v>
+        <v>8.128166850116271</v>
       </c>
       <c r="I17" s="9" t="inlineStr">
         <is>
@@ -20782,25 +21862,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.03310940787196159</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1478424370288849</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.05517856776714325</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.181959907320161</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>5.409407615661621</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.05464796349406242</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.1847440004348755</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.06822469085454941</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.2337690387841436</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>6.713789701461792</v>
+      </c>
     </row>
     <row r="23" ht="57" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -20808,25 +21924,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.03751705586910248</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1710387915372849</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.06049731746315956</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.1936932003687855</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>6.044291704893112</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.03722192719578743</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.1686329692602158</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.05990629643201828</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.1929298504529235</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>5.959617346525192</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -21062,16 +22214,16 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.19677148321869</v>
+        <v>0.1967714832186902</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.3369411563237637</v>
+        <v>0.3369411563237639</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.1535105040497561</v>
+        <v>0.1535105040497562</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.4435893181972375</v>
+        <v>0.4435893181972377</v>
       </c>
       <c r="H7" s="5" t="n">
         <v>14.45822045978878</v>
@@ -21095,10 +22247,10 @@
         <v>0.2409572460250274</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.3968553343750301</v>
+        <v>0.3968553343750303</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.1625842727405393</v>
+        <v>0.1625842727405394</v>
       </c>
       <c r="O7" s="8" t="n">
         <v>0.490873961445326</v>
@@ -21626,23 +22778,23 @@
       </c>
       <c r="C17" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 250, 'loss': 'linear', 'learning_rate': 0.1}</t>
+          <t>{'n_estimators': 200, 'loss': 'linear', 'learning_rate': 0.1}</t>
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1357327604795232</v>
+        <v>0.1362078541150487</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2033854113161821</v>
+        <v>0.2045608670831117</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.09443600683860266</v>
+        <v>0.09525866631734194</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.3684192726765569</v>
+        <v>0.3690634825000283</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>9.235702509541948</v>
+        <v>9.301736450577245</v>
       </c>
       <c r="I17" s="9" t="inlineStr">
         <is>
@@ -21660,19 +22812,19 @@
         </is>
       </c>
       <c r="L17" s="8" t="n">
-        <v>0.1134979631651643</v>
+        <v>0.113600341528677</v>
       </c>
       <c r="M17" s="8" t="n">
-        <v>0.2207272035864595</v>
+        <v>0.2212409680584256</v>
       </c>
       <c r="N17" s="8" t="n">
-        <v>0.1356953234947152</v>
+        <v>0.1359583168752181</v>
       </c>
       <c r="O17" s="8" t="n">
-        <v>0.3368945876163111</v>
+        <v>0.3370464975766356</v>
       </c>
       <c r="P17" s="8" t="n">
-        <v>10.16524680769297</v>
+        <v>10.1883696278757</v>
       </c>
     </row>
     <row r="18" ht="42.75" customHeight="1">
@@ -21913,25 +23065,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.2773611545562744</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.3356100618839264</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.2092296630144119</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.5266508848908111</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>14.34251815080643</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 100, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.2765039503574371</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.3111501932144165</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.2041652500629425</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.5258364292795215</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>13.41318339109421</v>
+      </c>
     </row>
     <row r="23" ht="57" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -21939,25 +23127,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.08711761981248856</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.2347029149532318</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.09199409186840057</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.2951569409864667</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>8.757185935974121</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.08796011656522751</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.2321853041648865</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.09153851121664047</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.2965807083497298</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>8.66498202085495</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -22193,16 +23417,16 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.1895363614506785</v>
+        <v>0.1895363614506787</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.3272579801304239</v>
+        <v>0.3272579801304241</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>0.1238857122072029</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.4353577396241837</v>
+        <v>0.4353577396241839</v>
       </c>
       <c r="H7" s="5" t="n">
         <v>13.33152973079576</v>
@@ -22223,19 +23447,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.2420500523364548</v>
+        <v>0.2420500523364545</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.4113480464183404</v>
+        <v>0.4113480464183403</v>
       </c>
       <c r="N7" s="8" t="n">
         <v>0.1555430089152881</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.4919858253409897</v>
+        <v>0.4919858253409893</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>17.14203581828942</v>
+        <v>17.14203581828941</v>
       </c>
     </row>
     <row r="8" ht="28.5" customHeight="1">
@@ -23044,25 +24268,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.1561637222766876</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.2712725400924683</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.1261898726224899</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.3951755588048022</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>10.76577454805374</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.1559211164712906</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.2517024278640747</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.1207747608423233</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.3948684799667993</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>10.05422323942184</v>
+      </c>
     </row>
     <row r="23" ht="57" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -23070,25 +24330,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.05945241823792458</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.20913927257061</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.07747793197631836</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.2438286657428215</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>7.575899362564087</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.0562649592757225</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.2027804255485535</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.07521405816078186</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.2372023593384402</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>7.349696010351181</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -23326,19 +24622,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>5.932774946115339e-05</v>
+        <v>5.932774946114917e-05</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.006269820781953388</v>
+        <v>0.006269820781953594</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.00868613329770568</v>
+        <v>0.008686133297706074</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.007702450873660499</v>
+        <v>0.007702450873660225</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.8718769459411675</v>
+        <v>0.8718769459412057</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -23356,19 +24652,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>5.670395575259744e-05</v>
+        <v>5.670395575259629e-05</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.00618587635115599</v>
+        <v>0.006185876351155362</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.008568299228267604</v>
+        <v>0.008568299228266721</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.00753020290248526</v>
+        <v>0.007530202902485184</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>0.8604615176124008</v>
+        <v>0.8604615176123129</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -23479,7 +24775,7 @@
         <v>0.07033336608072496</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.1751797956242483</v>
+        <v>0.1751797956242484</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.2424841148339408</v>
@@ -23956,19 +25252,19 @@
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.0643585996661451</v>
+        <v>0.06403664800371064</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2077548194465676</v>
+        <v>0.2080093130706869</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.262358210023709</v>
+        <v>0.2631303341760309</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2536899676103592</v>
+        <v>0.2530546344244868</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>31.71072132595922</v>
+        <v>31.76897777136475</v>
       </c>
       <c r="I18" s="9" t="inlineStr">
         <is>
@@ -23986,19 +25282,19 @@
         </is>
       </c>
       <c r="L18" s="8" t="n">
-        <v>0.05830589815394549</v>
+        <v>0.05785452535819534</v>
       </c>
       <c r="M18" s="8" t="n">
-        <v>0.1888842392989653</v>
+        <v>0.1887632223580488</v>
       </c>
       <c r="N18" s="8" t="n">
-        <v>0.237228430697542</v>
+        <v>0.2374979811417851</v>
       </c>
       <c r="O18" s="8" t="n">
-        <v>0.2414661428729616</v>
+        <v>0.2405296766683798</v>
       </c>
       <c r="P18" s="8" t="n">
-        <v>28.29756164749539</v>
+        <v>28.29774166340068</v>
       </c>
     </row>
     <row r="19" ht="56.1" customHeight="1">
@@ -24177,25 +25473,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.02820780500769615</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1404275596141815</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.2084714770317078</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.1679517937019315</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>20.05009204149246</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.02800553478300571</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.1386025696992874</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.2076441198587418</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.1673485428170969</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>19.80292648077011</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -24203,25 +25535,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.01448011584579945</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1117385253310204</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.1627785563468933</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.120333353006552</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>15.10408520698547</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.02096231281757355</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.120079904794693</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.1776959449052811</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.1447836759361135</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>16.08323603868484</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -24460,19 +25828,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.0004682832780754565</v>
+        <v>0.0004682832780754544</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.01723844801676632</v>
+        <v>0.0172384480167663</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.03360090530299893</v>
+        <v>0.03360090530299804</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.02163985392916173</v>
+        <v>0.02163985392916169</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>3.219820764876216</v>
+        <v>3.219820764876148</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -24490,19 +25858,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.0004076799351637765</v>
+        <v>0.0004076799351637655</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.0161501185034989</v>
+        <v>0.01615011850349853</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.03321079986018184</v>
+        <v>0.03321079986018127</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.02019108553703283</v>
+        <v>0.02019108553703256</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>3.160393079014774</v>
+        <v>3.160393079014726</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -24613,7 +25981,7 @@
         <v>0.03854533270663513</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.1589996521905535</v>
+        <v>0.1589996521905534</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.3730134840794588</v>
@@ -25024,23 +26392,23 @@
       </c>
       <c r="C17" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'loss': 'square', 'learning_rate': 0.01}</t>
+          <t>{'n_estimators': 400, 'loss': 'square', 'learning_rate': 1.0}</t>
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.04773314342169161</v>
+        <v>0.04345641177394117</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1776766311604168</v>
+        <v>0.1775250667295885</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.4499557626145157</v>
+        <v>0.3944725177474886</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2184791601542161</v>
+        <v>0.2084620151824816</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>30.30434186013029</v>
+        <v>30.80864515570144</v>
       </c>
       <c r="I17" s="9" t="inlineStr">
         <is>
@@ -25120,19 +26488,19 @@
         </is>
       </c>
       <c r="L18" s="8" t="n">
-        <v>0.05658199787257185</v>
+        <v>0.0564852856211961</v>
       </c>
       <c r="M18" s="8" t="n">
-        <v>0.200578408014906</v>
+        <v>0.199895347865534</v>
       </c>
       <c r="N18" s="8" t="n">
-        <v>0.4623986262516975</v>
+        <v>0.4620863744873491</v>
       </c>
       <c r="O18" s="8" t="n">
-        <v>0.237869707765768</v>
+        <v>0.2376663325361758</v>
       </c>
       <c r="P18" s="8" t="n">
-        <v>34.36483712622028</v>
+        <v>34.24756605728629</v>
       </c>
     </row>
     <row r="19" ht="27.95" customHeight="1">
@@ -25311,25 +26679,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.05216126516461372</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1798149794340134</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.5510806441307068</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.2283884085600968</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>29.93515133857727</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.05403232574462891</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.1814347058534622</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.559013843536377</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.2324485442944931</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>30.09811341762543</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -25337,25 +26741,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.03308797627687454</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1552262902259827</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.2735105454921722</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.1819010068055549</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>22.80937731266022</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.0351092740893364</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.1585556864738464</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.2819537818431854</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.1873746890306596</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>23.21616858243942</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -25592,19 +27032,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.01047935899218161</v>
+        <v>0.0104793589921816</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.08278383381960103</v>
+        <v>0.08278383381960094</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.1331724182618593</v>
+        <v>0.1331724182618591</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.1023687403076819</v>
+        <v>0.1023687403076818</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>13.5509751797605</v>
+        <v>13.55097517976048</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -25622,19 +27062,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.01194696306905495</v>
+        <v>0.01194696306905514</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.08793627522453093</v>
+        <v>0.08793627522453143</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.1448751092024821</v>
+        <v>0.1448751092024832</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.1093021640639148</v>
+        <v>0.1093021640639157</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>14.71217012680058</v>
+        <v>14.71217012680068</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -26186,23 +27626,23 @@
       </c>
       <c r="K17" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 50, 'loss': 'exponential', 'learning_rate': 0.01}</t>
+          <t>{'n_estimators': 100, 'loss': 'square', 'learning_rate': 0.01}</t>
         </is>
       </c>
       <c r="L17" s="8" t="n">
-        <v>0.06615107813504956</v>
+        <v>0.05510630038881517</v>
       </c>
       <c r="M17" s="8" t="n">
-        <v>0.2086896496413869</v>
+        <v>0.1897642257667529</v>
       </c>
       <c r="N17" s="8" t="n">
-        <v>0.3820916824823284</v>
+        <v>0.334427496486072</v>
       </c>
       <c r="O17" s="8" t="n">
-        <v>0.2571985189207931</v>
+        <v>0.2347473117818715</v>
       </c>
       <c r="P17" s="8" t="n">
-        <v>34.0972615112352</v>
+        <v>30.85531771576979</v>
       </c>
     </row>
     <row r="18" ht="56.1" customHeight="1">
@@ -26222,19 +27662,19 @@
         </is>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.04483113914110648</v>
+        <v>0.04457297689312256</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1695182162588499</v>
+        <v>0.1694821910409553</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3283681519410152</v>
+        <v>0.327154992235052</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2117336514140029</v>
+        <v>0.2111231320654432</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>27.22813108755653</v>
+        <v>27.23587656973552</v>
       </c>
       <c r="I18" s="9" t="inlineStr">
         <is>
@@ -26252,19 +27692,19 @@
         </is>
       </c>
       <c r="L18" s="8" t="n">
-        <v>0.06560648978887386</v>
+        <v>0.06496825895277046</v>
       </c>
       <c r="M18" s="8" t="n">
-        <v>0.2122580878725457</v>
+        <v>0.2115722008015181</v>
       </c>
       <c r="N18" s="8" t="n">
-        <v>0.366796571685221</v>
+        <v>0.3649174101940079</v>
       </c>
       <c r="O18" s="8" t="n">
-        <v>0.2561376383682684</v>
+        <v>0.2548887187632486</v>
       </c>
       <c r="P18" s="8" t="n">
-        <v>34.75114042007809</v>
+        <v>34.6363306594108</v>
       </c>
     </row>
     <row r="19" ht="56.1" customHeight="1">
@@ -26443,25 +27883,61 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="5" t="n"/>
-      <c r="E22" s="5" t="n"/>
-      <c r="F22" s="5" t="n"/>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.04150478169322014</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1641702651977539</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.3699603080749512</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.2037272237410115</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>26.05748772621155</v>
+      </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="J22" s="8" t="n"/>
-      <c r="K22" s="8" t="n"/>
-      <c r="L22" s="8" t="n"/>
-      <c r="M22" s="8" t="n"/>
-      <c r="N22" s="8" t="n"/>
-      <c r="O22" s="8" t="n"/>
-      <c r="P22" s="8" t="n"/>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="L22" s="8" t="n">
+        <v>0.04205326735973358</v>
+      </c>
+      <c r="M22" s="8" t="n">
+        <v>0.1648367494344711</v>
+      </c>
+      <c r="N22" s="8" t="n">
+        <v>0.3695317506790161</v>
+      </c>
+      <c r="O22" s="8" t="n">
+        <v>0.2050689331901192</v>
+      </c>
+      <c r="P22" s="8" t="n">
+        <v>26.16690397262573</v>
+      </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
@@ -26469,25 +27945,61 @@
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="5" t="n"/>
-      <c r="E23" s="5" t="n"/>
-      <c r="F23" s="5" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.0279746986925602</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1438409239053726</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.2305315434932709</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.1672563861039697</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>20.42447775602341</v>
+      </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
           <t>Long Short-Term Memory Network</t>
         </is>
       </c>
-      <c r="J23" s="8" t="n"/>
-      <c r="K23" s="8" t="n"/>
-      <c r="L23" s="8" t="n"/>
-      <c r="M23" s="8" t="n"/>
-      <c r="N23" s="8" t="n"/>
-      <c r="O23" s="8" t="n"/>
-      <c r="P23" s="8" t="n"/>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="L23" s="8" t="n">
+        <v>0.02914202399551868</v>
+      </c>
+      <c r="M23" s="8" t="n">
+        <v>0.1438574492931366</v>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>0.2290571331977844</v>
+      </c>
+      <c r="O23" s="8" t="n">
+        <v>0.1707103511668777</v>
+      </c>
+      <c r="P23" s="8" t="n">
+        <v>20.41173726320267</v>
+      </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
       <c r="A24" s="6" t="inlineStr">

--- a/data/performance_sheets_option3/window2/BA11 Overall Model Peformance Results.xlsx
+++ b/data/performance_sheets_option3/window2/BA11 Overall Model Peformance Results.xlsx
@@ -832,19 +832,19 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.07291231959903428</v>
+        <v>0.07291231959903108</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2255781553352232</v>
+        <v>0.2255781553352178</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.3560053607591544</v>
+        <v>0.3560053607591495</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2700228131085118</v>
+        <v>0.2700228131085058</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>49.50564503108825</v>
+        <v>49.50564503108708</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -862,19 +862,19 @@
         </is>
       </c>
       <c r="L8" s="8" t="n">
-        <v>0.01979364143418397</v>
+        <v>0.01979364143422309</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>0.1022710317392704</v>
+        <v>0.1022710317394158</v>
       </c>
       <c r="N8" s="8" t="n">
-        <v>0.1285565497108457</v>
+        <v>0.1285565497110664</v>
       </c>
       <c r="O8" s="8" t="n">
-        <v>0.1406898768006567</v>
+        <v>0.1406898768007958</v>
       </c>
       <c r="P8" s="8" t="n">
-        <v>13.93612931795578</v>
+        <v>13.9361293179789</v>
       </c>
     </row>
     <row r="9" ht="30.75" customHeight="1">
@@ -883,25 +883,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="18" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.03482935701157479</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.1492761775508428</v>
+      </c>
+      <c r="F9" s="18" t="n">
+        <v>0.2009338563891563</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.1866262495244835</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>21.40085768363254</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.03482935701157479</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.1492761775508428</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.2009338563891563</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.1866262495244835</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>21.40085768363254</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -971,25 +1007,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.02318331095108384</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.126011857003465</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.1700459852835665</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.1522606677743265</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>18.87119865997597</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.02249837693077362</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.1245823260858609</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.1685735607921824</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.1499945896716732</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>18.67385691817612</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -1513,25 +1585,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.02725143300886463</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.1243487007791708</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.155569476543128</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.1650800805938276</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>17.37361433185083</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.02729919383240875</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.1246947185145159</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.1564297233484333</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.1652246768264618</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>17.44701164538177</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -2042,16 +2150,16 @@
         <v>0.260268384085423</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3349564814279351</v>
+        <v>0.3349564814279352</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2024597073474115</v>
+        <v>0.2024597073474116</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>0.5101650557274803</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>14.3718929787635</v>
+        <v>14.37189297876351</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -2090,25 +2198,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.2616953232759602</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.3308489167878408</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.2031787550172416</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.5115616514907663</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>14.2017972742216</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.2616953232759602</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.3308489167878408</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.2031787550172416</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.5115616514907663</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>14.2017972742216</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="6" t="inlineStr">
@@ -2178,25 +2322,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': True, 'eta0': 0.1, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.1166351266428194</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.294273898863055</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.1172543513233082</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.3415188525437788</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>11.84145850273955</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': True, 'eta0': 0.1, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.3221512795485805</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.4828767413201455</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.1999495023996234</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.567583720299112</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>23.06696884657088</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -2483,19 +2663,19 @@
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>2.099177800194902</v>
+        <v>2.099346211124968</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1.167284707205117</v>
+        <v>1.16802752133893</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.465786118141171</v>
+        <v>0.4661045575172175</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>1.448853960961871</v>
+        <v>1.448912078466105</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>64.99203854610201</v>
+        <v>65.02571542938878</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -2513,19 +2693,19 @@
         </is>
       </c>
       <c r="L16" s="8" t="n">
-        <v>2.451686205305074</v>
+        <v>2.453840060415861</v>
       </c>
       <c r="M16" s="8" t="n">
-        <v>1.316488285076792</v>
+        <v>1.318179319476725</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>0.521224015981773</v>
+        <v>0.5218406029134268</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>1.565786130129231</v>
+        <v>1.566473766271195</v>
       </c>
       <c r="P16" s="8" t="n">
-        <v>77.22415354339962</v>
+        <v>77.30480498786314</v>
       </c>
     </row>
     <row r="17">
@@ -2720,25 +2900,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.4918385339437786</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.6072024786095941</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.2560156264504031</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.7013120089830051</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>26.17968208576268</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.4223242730392235</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.5440973911090728</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.2618009694039464</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.6498648113563493</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>23.13544585237133</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -3294,25 +3510,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.1529578787043435</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.2777347546232478</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.1255895264380591</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.3910982980074746</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>11.02166239305382</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.1529578787043435</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.2777347546232478</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.1255895264380591</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.3910982980074746</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>11.02166239305382</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -3382,25 +3634,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': True, 'eta0': 0.1, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.09577698601752702</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.2535640237679083</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.09962893677961866</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.3094785711766277</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>9.983106744119862</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': True, 'eta0': 0.1, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.3244698801213782</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.5243664404787421</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.2097728806926168</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.5696225769063039</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>18.83568397962643</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -3687,19 +3975,19 @@
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>1.309682888667886</v>
+        <v>1.305818678824053</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1.048922680975198</v>
+        <v>1.047784859618395</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.3874317261610983</v>
+        <v>0.3870372228401693</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>1.144413775112781</v>
+        <v>1.142724235685956</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>50.79139008146822</v>
+        <v>50.71226640597223</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -3717,19 +4005,19 @@
         </is>
       </c>
       <c r="L16" s="8" t="n">
-        <v>1.107877798973016</v>
+        <v>1.109447388875667</v>
       </c>
       <c r="M16" s="8" t="n">
-        <v>0.9419785562481172</v>
+        <v>0.9429424557763755</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>0.3480793264342093</v>
+        <v>0.3484774988195936</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>1.052557741396174</v>
+        <v>1.053303085002445</v>
       </c>
       <c r="P16" s="8" t="n">
-        <v>44.6152313727948</v>
+        <v>44.67396800755213</v>
       </c>
     </row>
     <row r="17" ht="42.75" customHeight="1">
@@ -3924,25 +4212,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.7, 'reg_lambda': 0.1, 'reg_alpha': 0.1, 'n_estimators': 100, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.3, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>3.448031133808566</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>1.762762464226574</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.6697102916457255</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>1.856887485500553</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>108.9417073176851</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.5351578309451028</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.6086255203792399</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.2239545785246477</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.7315448249732226</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>25.92465214837999</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -4447,19 +4771,19 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.07167366202143077</v>
+        <v>0.07167366202143047</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2203323774994979</v>
+        <v>0.2203323774994976</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.07778278096128684</v>
+        <v>0.07778278096128673</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2677193717709475</v>
+        <v>0.2677193717709469</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>8.014716629044704</v>
+        <v>8.01471662904469</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -4498,25 +4822,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.06726084144585461</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.2155105058152709</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.0765684654293943</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.2593469518730741</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>7.834417109646166</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.06726084144585461</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.2155105058152709</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.0765684654293943</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.2593469518730741</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>7.834417109646166</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -4586,25 +4946,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': True, 'eta0': 0.1, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.1398609966205653</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.3309292676638445</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.1206694606400988</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.3739799414682093</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>12.05976936983561</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': True, 'eta0': 0.1, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.4211746373077975</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.5511626155500322</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.2020045767401579</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.6489796894416631</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>21.02238310973943</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -4921,19 +5317,19 @@
         </is>
       </c>
       <c r="L16" s="8" t="n">
-        <v>1.415891419934718</v>
+        <v>1.413936728030948</v>
       </c>
       <c r="M16" s="8" t="n">
-        <v>1.013366638065617</v>
+        <v>1.012271279994132</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>0.3556225423928273</v>
+        <v>0.3551871860937922</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>1.189912358089753</v>
+        <v>1.1890907148031</v>
       </c>
       <c r="P16" s="8" t="n">
-        <v>47.38110078879298</v>
+        <v>47.31059507481214</v>
       </c>
     </row>
     <row r="17" ht="42.75" customHeight="1">
@@ -5128,25 +5524,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 1.0, 'n_estimators': 300, 'min_child_weight': 1, 'max_depth': 6, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>1.051507692166143</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.9430657860965671</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.337396102404538</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>1.02543049114318</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>42.26774941869939</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.5795407135326099</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.6607600196164908</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.2319212772378637</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.7612757145296374</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>27.32094146922273</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -5700,25 +6132,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.05474586346482115</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.1561035865899559</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>1.463725255094422</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.2339783397343035</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>31.84971423703507</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.05474586346482117</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.1561035865899559</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>1.463725255094422</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.2339783397343035</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>31.84971423703508</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -5788,25 +6256,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.75, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'huber', 'learning_rate': 'optimal', 'l1_ratio': 1, 'fit_intercept': False, 'eta0': 0.001, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.4193856260152439</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.5973340539100465</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.647599896552836</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>200</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'adaptive', 'l1_ratio': 0.15, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.001}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.1073574393420992</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.3062505288213078</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>1.141868221620253</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.3276544511251133</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>68.24577305780217</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -6093,19 +6597,19 @@
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.05056985998177118</v>
+        <v>0.05044438720308553</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.1481708714460356</v>
+        <v>0.1479087493970099</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1.427886624832849</v>
+        <v>1.427012025793487</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.2248774332425803</v>
+        <v>0.2245982796084723</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>30.83099162936402</v>
+        <v>30.79413346480893</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -6119,23 +6623,23 @@
       </c>
       <c r="K16" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 200, 'min_samples_split': 5, 'min_samples_leaf': 2, 'max_depth': None}</t>
+          <t>{'n_estimators': 100, 'min_samples_split': 5, 'min_samples_leaf': 2, 'max_depth': None}</t>
         </is>
       </c>
       <c r="L16" s="8" t="n">
-        <v>0.04922915251502441</v>
+        <v>0.05011254800735591</v>
       </c>
       <c r="M16" s="8" t="n">
-        <v>0.1459715172343293</v>
+        <v>0.1484084149387941</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>1.419616624243026</v>
+        <v>1.426642645894353</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>0.2218764352404834</v>
+        <v>0.2238583212823591</v>
       </c>
       <c r="P16" s="8" t="n">
-        <v>30.48905058353255</v>
+        <v>30.8738679860536</v>
       </c>
     </row>
     <row r="17">
@@ -6330,25 +6834,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.07484681951638376</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.2134170232314372</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>1.644640430905179</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.2735814677868071</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>39.618228844836</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.07484681951638376</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.2134170232314372</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>1.644640430905179</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.2735814677868071</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>39.618228844836</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -6851,7 +7391,7 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.06360369710377985</v>
+        <v>0.06360369710377989</v>
       </c>
       <c r="E8" s="5" t="n">
         <v>0.2021052436302872</v>
@@ -6860,7 +7400,7 @@
         <v>1.465043544807044</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2521977341368868</v>
+        <v>0.2521977341368869</v>
       </c>
       <c r="H8" s="5" t="n">
         <v>39.35165674120407</v>
@@ -6881,19 +7421,19 @@
         </is>
       </c>
       <c r="L8" s="8" t="n">
-        <v>0.08850481577720608</v>
+        <v>0.08850481577720597</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>0.2451993174552201</v>
+        <v>0.2451993174552198</v>
       </c>
       <c r="N8" s="8" t="n">
-        <v>0.9982609754837219</v>
+        <v>0.9982609754837191</v>
       </c>
       <c r="O8" s="8" t="n">
-        <v>0.2974975895317575</v>
+        <v>0.2974975895317573</v>
       </c>
       <c r="P8" s="8" t="n">
-        <v>53.27599929992212</v>
+        <v>53.27599929992204</v>
       </c>
     </row>
     <row r="9" ht="30.75" customHeight="1">
@@ -6902,25 +7442,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.06834122026298313</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.2053780216200532</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>1.630610378209952</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.2614215374887523</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>39.10374295068142</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.06834122026298313</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.2053780216200532</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>1.630610378209952</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.2614215374887523</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>39.10374295068142</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -6990,25 +7566,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.75, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'invscaling', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.01, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.3695468301054595</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.5390761035744012</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.9662536122922788</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.6079036355422293</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>148.1846251715514</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.75, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'invscaling', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.01, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.3668478790984426</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.5350891956954033</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.9252062080302907</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.6056796835774192</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>145.5814372590731</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -7532,25 +8144,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.06928202500348928</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.2066823920894507</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>1.647302078191616</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.2632147887248915</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>39.22953113949018</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.06928202500348928</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.2066823920894507</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>1.647302078191616</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.2632147887248915</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>39.22953113949018</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -8053,19 +8701,19 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.07294999499138202</v>
+        <v>0.07292862967418501</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2012798177479664</v>
+        <v>0.2012682980181926</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1.416592018419972</v>
+        <v>1.415852978070019</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2700925674493506</v>
+        <v>0.2700530127108102</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>43.09376894623782</v>
+        <v>43.09310232139574</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -8083,19 +8731,19 @@
         </is>
       </c>
       <c r="L8" s="8" t="n">
-        <v>0.06030334666734707</v>
+        <v>0.06030334666734695</v>
       </c>
       <c r="M8" s="8" t="n">
         <v>0.1696524606389002</v>
       </c>
       <c r="N8" s="8" t="n">
-        <v>1.708291791267467</v>
+        <v>1.708291791267466</v>
       </c>
       <c r="O8" s="8" t="n">
-        <v>0.2455673974031306</v>
+        <v>0.2455673974031304</v>
       </c>
       <c r="P8" s="8" t="n">
-        <v>32.91532453738345</v>
+        <v>32.91532453738344</v>
       </c>
     </row>
     <row r="9" ht="30.75" customHeight="1">
@@ -8104,25 +8752,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.06725661757062271</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.2043817523455964</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>1.63073141865021</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.2593388084545441</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>38.48364041756974</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.06725661757062271</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.2043817523455964</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>1.63073141865021</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.2593388084545441</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>38.48364041756974</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -8192,25 +8876,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.75, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'invscaling', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.01, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.3636460835014859</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.5433862837107105</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>1.153687256827076</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.6030307483880784</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>145.3117323786315</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.75, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'invscaling', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.01, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.3811066101387294</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.5654800677733564</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.9194424797842633</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.617338327126001</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>169.9676409235431</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -8734,25 +9454,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.0519997465116185</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.1765658199330702</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>1.565787712229261</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.2280345292091057</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>34.93645250746249</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.05076459136673969</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.165781046382461</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>1.609008414117752</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.2253099894961155</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>33.02909247010019</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -9306,25 +10062,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.6257662666205206</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.4011180826469165</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.6062875802904727</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.7910538961540614</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>19.94247866720976</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.6257662666205206</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.4011180826469165</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.6062875802904727</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.7910538961540614</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>19.94247866720976</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -9394,25 +10186,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.75, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'invscaling', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.01, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>6.295713890119815</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>2.431295883350943</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.992299362089084</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>2.509126120807764</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>178.1484440362642</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.75, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'invscaling', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.01, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>6.285490447960541</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>2.38178129814785</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>1.023485959863586</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>2.507088041525575</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>157.9175449834099</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -9699,19 +10527,19 @@
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.583105492403013</v>
+        <v>0.5837697654674108</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.3648344555671862</v>
+        <v>0.3648936265166778</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.5849206585358249</v>
+        <v>0.5850594880146285</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.7636134443571649</v>
+        <v>0.7640482743043209</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>18.65425158211593</v>
+        <v>18.65392516928312</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -9729,19 +10557,19 @@
         </is>
       </c>
       <c r="L16" s="8" t="n">
-        <v>0.5832024019777156</v>
+        <v>0.5838666750421133</v>
       </c>
       <c r="M16" s="8" t="n">
-        <v>0.364991965206159</v>
+        <v>0.3650511361556505</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>0.5849733196066663</v>
+        <v>0.5851121490854699</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>0.7636768963231214</v>
+        <v>0.7641116901619248</v>
       </c>
       <c r="P16" s="8" t="n">
-        <v>18.66009226507458</v>
+        <v>18.65976585224177</v>
       </c>
     </row>
     <row r="17">
@@ -9936,25 +10764,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.6095355198610305</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.3980523559641109</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.6010302407195709</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.780727558025865</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>19.82705586314702</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.6095355198610305</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.3980523559641109</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.6010302407195709</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.780727558025865</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>19.82705586314702</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -10487,19 +11351,19 @@
         </is>
       </c>
       <c r="L8" s="8" t="n">
-        <v>0.5762335743747308</v>
+        <v>0.5762647328335214</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>0.3043446356431257</v>
+        <v>0.3043509738517815</v>
       </c>
       <c r="N8" s="8" t="n">
-        <v>0.6006350768673151</v>
+        <v>0.6006442905131616</v>
       </c>
       <c r="O8" s="8" t="n">
-        <v>0.759100503474165</v>
+        <v>0.759121026473066</v>
       </c>
       <c r="P8" s="8" t="n">
-        <v>16.26467078830073</v>
+        <v>16.2645717921659</v>
       </c>
     </row>
     <row r="9" ht="30.75" customHeight="1">
@@ -10508,25 +11372,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 2, 'min_samples_leaf': 1, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': 7, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.5440884572019422</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.3692349391290017</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.5433468036089538</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.7376235199625498</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>19.04856062020076</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 2, 'min_samples_leaf': 1, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': 7, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.6116727752708141</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.3656294005741575</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.6331239977022973</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.7820951190685275</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>18.07711154836788</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -10596,25 +11496,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.001, 'power_t': 0.25, 'penalty': 'none', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'adaptive', 'l1_ratio': 0.7, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>14.92498321868537</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>3.458798460102136</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>1.875973305701093</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>3.863286582520817</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>168.0941857611412</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'adaptive', 'l1_ratio': 0.15, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.001}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.4908834688505802</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.3175909028417379</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.5572312294355426</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.7006307649900768</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>16.89848048975398</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -11138,25 +12074,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.5, 'reg_alpha': 0.5, 'n_estimators': 1000, 'min_child_weight': 1, 'max_depth': 8, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.5574278639508986</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.3712980419430403</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.5870638477573765</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.7466109187193143</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>18.94271014353479</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.5, 'reg_alpha': 0.5, 'n_estimators': 1000, 'min_child_weight': 1, 'max_depth': 8, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.5449610828260236</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.3717322086586705</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.5884222293653868</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.7382147945049757</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>18.99667420468428</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -11659,16 +12631,16 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.6384364408462848</v>
+        <v>0.6384364408462857</v>
       </c>
       <c r="E8" s="5" t="n">
         <v>0.3572842802755635</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.3441083994931386</v>
+        <v>0.3441083994931388</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.7990221779439447</v>
+        <v>0.7990221779439453</v>
       </c>
       <c r="H8" s="5" t="n">
         <v>17.68138743677362</v>
@@ -11710,25 +12682,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.672366185836622</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.4596657211954301</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.3795317704553525</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.8199793813484715</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>21.56715269209275</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 2, 'min_samples_leaf': 1, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': 7, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.5168298178044743</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.3040068211799011</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.27068719169026</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.7189087687630986</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>15.07905309422617</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -11798,25 +12806,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.4279686905369617</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.3296554870268785</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.2793522747435711</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.6541931599588624</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>17.06941590666621</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 0.001, 'power_t': 0.25, 'penalty': 'none', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'adaptive', 'l1_ratio': 0.7, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>7.970073025314451</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>2.493961793300526</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>1.12517321792414</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>2.823131776115747</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>143.1482387871324</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -12133,19 +13177,19 @@
         </is>
       </c>
       <c r="L16" s="8" t="n">
-        <v>0.4504279628732788</v>
+        <v>0.4504340477511066</v>
       </c>
       <c r="M16" s="8" t="n">
-        <v>0.265455051307216</v>
+        <v>0.265442021528167</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>0.2534865826428019</v>
+        <v>0.2534821320528154</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>0.6711393021372529</v>
+        <v>0.671143835366985</v>
       </c>
       <c r="P16" s="8" t="n">
-        <v>13.80527810663471</v>
+        <v>13.8047696098939</v>
       </c>
     </row>
     <row r="17">
@@ -12340,25 +13384,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.4786908779573188</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.2795385896733029</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.2668195377649311</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.6918749005111536</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>14.27741534493625</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.4762061613332538</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.2754554591345393</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.2646774928451864</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.6900769242144341</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>14.11667554390949</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -12843,19 +13923,19 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01671935275625308</v>
+        <v>0.01672256388120801</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1034175528204979</v>
+        <v>0.1034371135486251</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.143015830502018</v>
+        <v>0.1430280898527195</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1293033362147051</v>
+        <v>0.1293157526413855</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>14.54925211121829</v>
+        <v>14.55232463643405</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -12876,13 +13956,31 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.03482935701157479</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.1492761775508428</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.2009338563891563</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.1866262495244835</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>21.40085768363254</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
@@ -12946,13 +14044,31 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.02038857403987366</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.1112476956031913</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.1472504280743567</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.1427885641074721</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>15.73993630831041</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
@@ -13197,19 +14313,19 @@
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.04339385383221278</v>
+        <v>0.04338994128407029</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.1329234674492823</v>
+        <v>0.1326089766297376</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.1786775929531769</v>
+        <v>0.178038502497573</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.208311914762965</v>
+        <v>0.208302523470241</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>22.08488508979352</v>
+        <v>22.0201679155055</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -13362,13 +14478,31 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.03637772233756317</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.1414468720063614</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.1854988636491001</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.1907294480083324</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>20.95490596653418</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
@@ -13829,19 +14963,19 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03789176113075692</v>
+        <v>0.03789176113075701</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1613223533906912</v>
+        <v>0.1613223533906915</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.317872627479254</v>
+        <v>0.3178726274792546</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1946580620749033</v>
+        <v>0.1946580620749035</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>28.70789718862306</v>
+        <v>28.70789718862315</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -13859,19 +14993,19 @@
         </is>
       </c>
       <c r="L8" s="8" t="n">
-        <v>0.03456579025240816</v>
+        <v>0.03456579025240818</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>0.1516349190849319</v>
+        <v>0.151634919084932</v>
       </c>
       <c r="N8" s="8" t="n">
-        <v>0.3194376025267691</v>
+        <v>0.3194376025267688</v>
       </c>
       <c r="O8" s="8" t="n">
-        <v>0.1859187732651228</v>
+        <v>0.1859187732651229</v>
       </c>
       <c r="P8" s="8" t="n">
-        <v>27.42948791856237</v>
+        <v>27.42948791856236</v>
       </c>
     </row>
     <row r="9" ht="30.75" customHeight="1">
@@ -13880,25 +15014,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="18" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.04377285395872856</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.1627441219951585</v>
+      </c>
+      <c r="F9" s="18" t="n">
+        <v>0.4327899107172457</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.2092196309114624</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>31.17291429381028</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.04448949684801774</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.1618196904100054</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.4334278238972956</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.2109253347704295</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>30.58235742064967</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -13968,25 +15138,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.03276839407877064</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.1369327250871655</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.3537244566174633</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.1810204244795892</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>24.05781496995306</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.03247456093675517</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.1363984822108544</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.3527569988919325</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.1802069946943103</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>23.97285563833515</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -14510,25 +15716,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.03000538776448996</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.1268096081058513</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.3784154479694666</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.1732206331950382</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>22.68708325465058</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 0, 'reg_alpha': 0.1, 'n_estimators': 400, 'min_child_weight': 5, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.2, 'colsample_bytree': 0.9}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.02907409505069043</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.12620542137573</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.3792767129468217</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.1705112754356451</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>21.92473990054418</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -15013,19 +16255,19 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.04222236170776843</v>
+        <v>0.04222236170776827</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1656196836728877</v>
+        <v>0.1656196836728875</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.3328031903989869</v>
+        <v>0.3328031903989866</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2054808061785052</v>
+        <v>0.2054808061785048</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>26.51739627082637</v>
+        <v>26.51739627082633</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -15046,13 +16288,31 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.04391648603357255</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.1679726000896552</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.3390046768527005</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.2095626064773307</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>26.8385981240602</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
@@ -15116,13 +16376,31 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.07706938012820704</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.2376623906410265</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.4190958201555056</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.2776137246755049</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>41.16945627450897</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
@@ -15367,19 +16645,19 @@
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.04628749569219074</v>
+        <v>0.04635060850514713</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.1716505105180013</v>
+        <v>0.1717532622647557</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.3248261130808422</v>
+        <v>0.3249439937327015</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.2151452897281061</v>
+        <v>0.2152919146302228</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>27.74166900546006</v>
+        <v>27.7577851609321</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -15532,13 +16810,31 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.04857253880210374</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.1759669053103863</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.3354370410745176</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.2203917847881444</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>28.18623365217133</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
@@ -15981,19 +17277,19 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1133886820512435</v>
+        <v>0.1133886820512422</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2708239193586375</v>
+        <v>0.2708239193586337</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.5238386060213486</v>
+        <v>0.5238386060213798</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.3367323596734408</v>
+        <v>0.336732359673439</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>47.81065928508386</v>
+        <v>47.81065928508394</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -16014,13 +17310,31 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.05396811629456583</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.1842442790310237</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.5103780368010534</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.2323103878318097</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>30.89228775050308</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
@@ -16084,13 +17398,31 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.05416642155735302</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.1825288370776698</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.4705924783213175</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.2327368074829442</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>30.95162101447211</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
@@ -16500,13 +17832,31 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.03929444588778564</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.1523308860440497</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.4647336214802634</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.1982282671260223</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>26.0928436266239</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
@@ -16949,19 +18299,19 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03858821196506058</v>
+        <v>0.03858821196506043</v>
       </c>
       <c r="E8" s="5" t="n">
         <v>0.1503143527994431</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.05274002064261478</v>
+        <v>0.05274002064261482</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1964388249940948</v>
+        <v>0.1964388249940944</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>5.420354311138619</v>
+        <v>5.42035431113862</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -16982,13 +18332,31 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.06726084144585461</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.2155105058152709</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.0765684654293943</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.2593469518730741</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>7.834417109646166</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
@@ -17052,13 +18420,31 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.1751885660158428</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.3463950500272504</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.1190325399000632</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.4185553320838749</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>12.99439137621602</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
@@ -17468,13 +18854,31 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.5322012600901121</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.495291168116549</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.1812055603391162</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.7295212540359</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>23.67131647433326</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
@@ -17917,19 +19321,19 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1304783798699847</v>
+        <v>0.130478379869951</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2420470801750289</v>
+        <v>0.2420470801749102</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1121723932902718</v>
+        <v>0.1121723932902322</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.361217911889741</v>
+        <v>0.3612179118896944</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>9.709427778451534</v>
+        <v>9.70942777844709</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -17950,13 +19354,31 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.1529578787043435</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.2777347546232478</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.1255895264380591</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.3910982980074746</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>11.02166239305382</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
@@ -18020,13 +19442,31 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.2309588002972173</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.3931306295245982</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.1572899000354111</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.4805817311313626</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>15.64433005854967</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
@@ -18271,19 +19711,19 @@
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.1942305250845044</v>
+        <v>0.194911037062978</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.3504794369347881</v>
+        <v>0.3527227899809388</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.1326021643004159</v>
+        <v>0.1334777064771012</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.4407159233389513</v>
+        <v>0.4414873011344472</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>14.45794990974336</v>
+        <v>14.54747849913764</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -18436,13 +19876,31 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.19740052038159</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.3095634707177017</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.1275721064097398</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.4442977834533839</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>12.71144712028139</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
@@ -18885,19 +20343,19 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1866553979363277</v>
+        <v>0.1866543951391505</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2462039741001616</v>
+        <v>0.24620336932478</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1624602190778928</v>
+        <v>0.162460147410048</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.4320363386757272</v>
+        <v>0.4320351781269096</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>11.10550564488411</v>
+        <v>11.10555765925128</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -18918,13 +20376,31 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.2616953232759602</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.3308489167878408</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.2031787550172416</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.5115616514907663</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>14.2017972742216</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
@@ -18988,13 +20464,31 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.2944677060769736</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.4241657950751955</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.2180843184261853</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.5426487870409126</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>18.02626723375442</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
@@ -19404,13 +20898,31 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.5782381896765529</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.4536291520444006</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.1818892323184358</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.7604197457171618</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>22.50211539043995</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
@@ -19922,25 +21434,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="13" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="13" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.04391648603357255</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.1679726000896552</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.3390046768527005</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.2095626064773307</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>26.8385981240602</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.04391648603357255</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.1679726000896552</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.3390046768527005</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.2095626064773307</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>26.8385981240602</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -20010,25 +21558,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.04619804345421116</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.1715089432531207</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.3238217884906093</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.2149373012164505</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>27.54603370766135</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.04609618785696456</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.1714818523700614</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.3223886288484603</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.2147002278922045</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>27.56010209213641</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -20345,19 +21929,19 @@
         </is>
       </c>
       <c r="L16" s="8" t="n">
-        <v>0.04583168807808734</v>
+        <v>0.04572987347021987</v>
       </c>
       <c r="M16" s="8" t="n">
-        <v>0.176126577689647</v>
+        <v>0.1759273165971867</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>0.3313792430075503</v>
+        <v>0.3311483659203169</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>0.2140833671215196</v>
+        <v>0.2138454429493878</v>
       </c>
       <c r="P16" s="8" t="n">
-        <v>28.59511762341207</v>
+        <v>28.56331136093859</v>
       </c>
     </row>
     <row r="17" ht="42.75" customHeight="1">
@@ -20552,25 +22136,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.8, 'reg_lambda': 0.5, 'reg_alpha': 1.0, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 8, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.04387523153841396</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.1724603259434599</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.3000942229919964</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.2094641533494788</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>28.09666716501996</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.0472843860773027</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.1818993507458713</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.3322440771122023</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.2174497322999104</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>29.78480364067566</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -21073,19 +22693,19 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02360791903750022</v>
+        <v>0.02360791903749374</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1179156434496772</v>
+        <v>0.117915643449651</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.04071239968593851</v>
+        <v>0.040712399685929</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1536486870672842</v>
+        <v>0.1536486870672631</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>4.186511104782546</v>
+        <v>4.186511104781572</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -21103,19 +22723,19 @@
         </is>
       </c>
       <c r="L8" s="8" t="n">
-        <v>0.02331946631178669</v>
+        <v>0.02332119081731488</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>0.1169909547058122</v>
+        <v>0.1169974789011418</v>
       </c>
       <c r="N8" s="8" t="n">
-        <v>0.04040096849703107</v>
+        <v>0.04040321572562629</v>
       </c>
       <c r="O8" s="8" t="n">
-        <v>0.152707125936502</v>
+        <v>0.1527127722795801</v>
       </c>
       <c r="P8" s="8" t="n">
-        <v>4.152049882652218</v>
+        <v>4.15228704694563</v>
       </c>
     </row>
     <row r="9" ht="30.75" customHeight="1">
@@ -21124,25 +22744,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.06726084144585461</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.2155105058152709</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.0765684654293943</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.2593469518730741</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>7.834417109646166</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.06726084144585461</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.2155105058152709</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.0765684654293943</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.2593469518730741</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>7.834417109646166</v>
+      </c>
     </row>
     <row r="10" ht="30.75" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -21212,25 +22868,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.160509145848194</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.3348745707319975</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.1150879177305153</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.4006359268066133</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>12.48990898356738</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.1606501950079543</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.3349886415953258</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.115124928707643</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.4008119197428568</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>12.49452809079979</v>
+      </c>
     </row>
     <row r="12" ht="30.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -21517,19 +23209,19 @@
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.1015474846745831</v>
+        <v>0.1015528064746487</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.2349963180252319</v>
+        <v>0.2348253250288414</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.08788703348966244</v>
+        <v>0.08782511341377937</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.318665160748054</v>
+        <v>0.318673510782821</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>9.533933341646932</v>
+        <v>9.527935532709748</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -21547,19 +23239,19 @@
         </is>
       </c>
       <c r="L16" s="8" t="n">
-        <v>0.05508965285291868</v>
+        <v>0.0552611645277933</v>
       </c>
       <c r="M16" s="8" t="n">
-        <v>0.2016506933555495</v>
+        <v>0.2020623719199134</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>0.07449536683189763</v>
+        <v>0.07462389552131193</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>0.2347118506870045</v>
+        <v>0.2350769332107965</v>
       </c>
       <c r="P16" s="8" t="n">
-        <v>7.735631895811645</v>
+        <v>7.749715203914957</v>
       </c>
     </row>
     <row r="17" ht="60.75" customHeight="1">
@@ -21754,25 +23446,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.8, 'reg_lambda': 0.5, 'reg_alpha': 1.0, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 8, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.3186605641361788</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.4090326955428265</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.1517426230707524</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.5645002782427824</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>17.6966677078583</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.1124350077656455</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.2671712818916681</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.09416030860282913</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.3353132979254558</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>10.08582053450142</v>
+      </c>
     </row>
     <row r="21" ht="128.25" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -22276,19 +24004,19 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1660067610217069</v>
+        <v>0.1660135483087976</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2325311623511458</v>
+        <v>0.2325493540391082</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1540213028007383</v>
+        <v>0.1540262867156648</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.4074392728023489</v>
+        <v>0.4074476019180842</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>10.61294628552512</v>
+        <v>10.61375338804016</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -22306,16 +24034,16 @@
         </is>
       </c>
       <c r="L8" s="8" t="n">
-        <v>0.1655800546056853</v>
+        <v>0.1655800546056834</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>0.2319098254256185</v>
+        <v>0.2319098254256184</v>
       </c>
       <c r="N8" s="8" t="n">
-        <v>0.153287643255578</v>
+        <v>0.1532876432555766</v>
       </c>
       <c r="O8" s="8" t="n">
-        <v>0.4069152916832757</v>
+        <v>0.4069152916832733</v>
       </c>
       <c r="P8" s="8" t="n">
         <v>10.58211880426607</v>
@@ -22327,25 +24055,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.2616953232759602</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.3308489167878408</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.2031787550172416</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.5115616514907663</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>14.2017972742216</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.2616953232759602</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.3308489167878408</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.2031787550172416</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.5115616514907663</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>14.2017972742216</v>
+      </c>
     </row>
     <row r="10" ht="30.75" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -22415,25 +24179,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.2928382017919841</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.4207793667483262</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.2183144020605171</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.5411452686589656</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>17.85517622793126</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.2926112817361877</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.420691824321363</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.2182230586478696</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.5409355615377748</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>17.85208857633551</v>
+      </c>
     </row>
     <row r="12" ht="30.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -22750,19 +24550,19 @@
         </is>
       </c>
       <c r="L16" s="8" t="n">
-        <v>0.08193561993892631</v>
+        <v>0.08223873373018116</v>
       </c>
       <c r="M16" s="8" t="n">
-        <v>0.1863179766232587</v>
+        <v>0.1865536070312113</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>0.1137194176123772</v>
+        <v>0.1139151870140945</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>0.2862439867297238</v>
+        <v>0.2867729654799789</v>
       </c>
       <c r="P16" s="8" t="n">
-        <v>8.728651783008521</v>
+        <v>8.740576913326272</v>
       </c>
     </row>
     <row r="17" ht="60.75" customHeight="1">
@@ -22957,25 +24757,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.8, 'reg_lambda': 0.5, 'reg_alpha': 1.0, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 8, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.2348382144694545</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.3320368954250486</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.1378258751700163</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.484601087977993</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>14.52819954531807</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.09239490537452606</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.2053374182081956</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.1213766016836443</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.3039653029122338</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>9.472087660808329</v>
+      </c>
     </row>
     <row r="21" ht="128.25" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -23479,19 +25315,19 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.08487502410804852</v>
+        <v>0.08487651088560245</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1875067786519957</v>
+        <v>0.1875095814329809</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.08658472019425077</v>
+        <v>0.08658616048582066</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2913331840145378</v>
+        <v>0.2913357356823952</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>7.643233340734165</v>
+        <v>7.643352320541716</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -23509,19 +25345,19 @@
         </is>
       </c>
       <c r="L8" s="8" t="n">
-        <v>0.08577166684231619</v>
+        <v>0.08577166684231358</v>
       </c>
       <c r="M8" s="8" t="n">
-        <v>0.1884852499894996</v>
+        <v>0.1884852499895077</v>
       </c>
       <c r="N8" s="8" t="n">
-        <v>0.08680080488967558</v>
+        <v>0.08680080488967769</v>
       </c>
       <c r="O8" s="8" t="n">
-        <v>0.2928680024214256</v>
+        <v>0.2928680024214212</v>
       </c>
       <c r="P8" s="8" t="n">
-        <v>7.675044338477402</v>
+        <v>7.675044338477688</v>
       </c>
     </row>
     <row r="9" ht="30.75" customHeight="1">
@@ -23530,25 +25366,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.1529578787043435</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.2777347546232478</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.1255895264380591</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.3910982980074746</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>11.02166239305382</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.1529578787043435</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.2777347546232478</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.1255895264380591</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.3910982980074746</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>11.02166239305382</v>
+      </c>
     </row>
     <row r="10" ht="30.75" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -23618,25 +25490,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.2157629917290099</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.3801237274004825</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.1530360154757276</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.4645029512597417</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>15.07446127817528</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.2156698420281371</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.3799722444292625</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.1529694628003872</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.4644026722878941</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>15.06829461468616</v>
+      </c>
     </row>
     <row r="12" ht="30.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -23949,23 +25857,23 @@
       </c>
       <c r="K16" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'min_samples_split': 5, 'min_samples_leaf': 4, 'max_depth': 10}</t>
+          <t>{'n_estimators': 50, 'min_samples_split': 2, 'min_samples_leaf': 4, 'max_depth': 20}</t>
         </is>
       </c>
       <c r="L16" s="8" t="n">
-        <v>0.0665391433978673</v>
+        <v>0.06300927394923278</v>
       </c>
       <c r="M16" s="8" t="n">
-        <v>0.2099994632575332</v>
+        <v>0.201653230529976</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>0.08714590675000417</v>
+        <v>0.0834404659244971</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>0.2579518237924813</v>
+        <v>0.2510164814294726</v>
       </c>
       <c r="P16" s="8" t="n">
-        <v>8.709389126844624</v>
+        <v>8.393164009069192</v>
       </c>
     </row>
     <row r="17" ht="60.75" customHeight="1">
@@ -24160,25 +26068,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.5, 'reg_alpha': 0.5, 'n_estimators': 1000, 'min_child_weight': 1, 'max_depth': 8, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.1298915258340236</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.2721829094486415</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.1080886636538588</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.3604046695508031</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>11.16135612882968</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.8, 'reg_lambda': 0.5, 'reg_alpha': 1.0, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 8, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.1927025606490088</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.3407909673480084</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.1339241211713496</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.4389789979589101</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>14.62322872628163</v>
+      </c>
     </row>
     <row r="21" ht="128.25" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -24735,25 +26679,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="18" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.03482935701157479</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.1492761775508428</v>
+      </c>
+      <c r="F9" s="18" t="n">
+        <v>0.2009338563891563</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.1866262495244835</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>21.40085768363254</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.03482935701157479</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.1492761775508428</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.2009338563891563</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.1866262495244835</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>21.40085768363254</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -24823,25 +26803,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.0394029245394985</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.1553672034602652</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.2025301968251367</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.198501699084664</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>22.35446255634172</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.0394128379638916</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.1554027336487668</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.202575806150061</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.1985266681428256</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>22.36032204438795</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -25158,19 +27174,19 @@
         </is>
       </c>
       <c r="L16" s="8" t="n">
-        <v>0.05603602229157228</v>
+        <v>0.05422716234779949</v>
       </c>
       <c r="M16" s="8" t="n">
-        <v>0.1986650409618215</v>
+        <v>0.1935222228616811</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>0.2561283884336885</v>
+        <v>0.2486015847552564</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>0.2367192900706917</v>
+        <v>0.2328672633664927</v>
       </c>
       <c r="P16" s="8" t="n">
-        <v>30.53199898315845</v>
+        <v>29.56249256952647</v>
       </c>
     </row>
     <row r="17" ht="42.75" customHeight="1">
@@ -25365,25 +27381,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.05638819324270751</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.1856548707940683</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.2375059150275168</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.2374619827313575</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>28.60793417389799</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 200, 'min_child_weight': 1, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.3, 'colsample_bytree': 0.9}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.04373629355561719</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.1743710838840376</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.2241161587233222</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.2091322393979876</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>25.98459741655872</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -25941,25 +27993,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="18" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.05396811629456583</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.1842442790310237</v>
+      </c>
+      <c r="F9" s="18" t="n">
+        <v>0.5103780368010534</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.2323103878318097</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>30.89228775050308</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="15" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="15" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.05396811629456583</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.1842442790310237</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.5103780368010534</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.2323103878318097</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>30.89228775050308</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="6" t="inlineStr">
@@ -26029,25 +28117,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.05626324212185002</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.1884870638701841</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.4888207441301031</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.2371987397138737</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>31.72864779380419</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.05626095339637213</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.1884903352075292</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.4888339704692396</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.2371939151756894</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>31.72922097135746</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -26334,19 +28458,19 @@
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.06014709565509984</v>
+        <v>0.06015941908657323</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.2044169267063242</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.4496777048084005</v>
+        <v>0.4496620111593212</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.2452490482246564</v>
+        <v>0.2452741712585596</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>34.98932567077193</v>
+        <v>34.98720525889255</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -26364,19 +28488,19 @@
         </is>
       </c>
       <c r="L16" s="8" t="n">
-        <v>0.05144243791672563</v>
+        <v>0.05520564333564189</v>
       </c>
       <c r="M16" s="8" t="n">
-        <v>0.1870754062322125</v>
+        <v>0.1911205546891447</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>0.4723457683991711</v>
+        <v>0.4928661302876957</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>0.2268092544776902</v>
+        <v>0.2349588119982775</v>
       </c>
       <c r="P16" s="8" t="n">
-        <v>32.0439467795828</v>
+        <v>32.57182962675292</v>
       </c>
     </row>
     <row r="17">
@@ -26571,25 +28695,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.05747767375307843</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.1905682672574251</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.4941894224957669</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.2397450182028366</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>32.04034218100848</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.05736143367135827</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.197073069506045</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.4807838088990477</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.239502471117436</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>33.66008423986911</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">
@@ -27094,19 +29254,19 @@
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.04450407609545769</v>
+        <v>0.04450407609545782</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1688661953099932</v>
+        <v>0.1688661953099934</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.3372474036618386</v>
+        <v>0.3372474036618389</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2109598921488577</v>
+        <v>0.210959892148858</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>26.9912138303011</v>
+        <v>26.99121383030113</v>
       </c>
       <c r="I8" s="9" t="inlineStr">
         <is>
@@ -27145,25 +29305,61 @@
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="18" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.04391648603357255</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.1679726000896552</v>
+      </c>
+      <c r="F9" s="18" t="n">
+        <v>0.3390046768527005</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.2095626064773307</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>26.8385981240602</v>
+      </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
           <t>Decision Tree Regressor</t>
         </is>
       </c>
-      <c r="J9" s="8" t="n"/>
-      <c r="K9" s="8" t="n"/>
-      <c r="L9" s="8" t="n"/>
-      <c r="M9" s="8" t="n"/>
-      <c r="N9" s="8" t="n"/>
-      <c r="O9" s="8" t="n"/>
-      <c r="P9" s="8" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.04391648603357255</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0.1679726000896552</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0.3390046768527005</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.2095626064773307</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>26.8385981240602</v>
+      </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
@@ -27233,25 +29429,61 @@
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.04713234420459114</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.1729975236222779</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.3304899975288136</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0.2170998484674532</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>27.70830762497317</v>
+      </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
           <t>Stochastic Gradient Descent Regressor</t>
         </is>
       </c>
-      <c r="J11" s="8" t="n"/>
-      <c r="K11" s="8" t="n"/>
-      <c r="L11" s="8" t="n"/>
-      <c r="M11" s="8" t="n"/>
-      <c r="N11" s="8" t="n"/>
-      <c r="O11" s="8" t="n"/>
-      <c r="P11" s="8" t="n"/>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.04711803653268334</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0.1729564404713406</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0.330463864485848</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0.2170668941425277</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>27.70121266654575</v>
+      </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
       <c r="A12" s="12" t="inlineStr">
@@ -27538,19 +29770,19 @@
         </is>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.05782555336262696</v>
+        <v>0.05764541655507923</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.1938911197758668</v>
+        <v>0.1936563739821381</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.3297760015382228</v>
+        <v>0.3302399859928969</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.2404694437192114</v>
+        <v>0.2400945991793219</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>31.48825970093149</v>
+        <v>31.44336904315271</v>
       </c>
       <c r="I16" s="9" t="inlineStr">
         <is>
@@ -27564,23 +29796,23 @@
       </c>
       <c r="K16" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 200, 'min_samples_split': 5, 'min_samples_leaf': 2, 'max_depth': None}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 2, 'max_depth': None}</t>
         </is>
       </c>
       <c r="L16" s="8" t="n">
-        <v>0.07619303547748699</v>
+        <v>0.08084213355683469</v>
       </c>
       <c r="M16" s="8" t="n">
-        <v>0.2297953433320534</v>
+        <v>0.2423403379488812</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>0.3758211664415049</v>
+        <v>0.3742938974933809</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>0.2760308596470456</v>
+        <v>0.2843275110798016</v>
       </c>
       <c r="P16" s="8" t="n">
-        <v>38.48434674769498</v>
+        <v>42.10487918059835</v>
       </c>
     </row>
     <row r="17" ht="42.75" customHeight="1">
@@ -27775,25 +30007,61 @@
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="5" t="n"/>
-      <c r="E20" s="5" t="n"/>
-      <c r="F20" s="5" t="n"/>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.04782404615145833</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.1742824912945103</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.3331198320609985</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.2186870964448025</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>27.90827569288556</v>
+      </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
           <t>XGBoost Regressor</t>
         </is>
       </c>
-      <c r="J20" s="8" t="n"/>
-      <c r="K20" s="8" t="n"/>
-      <c r="L20" s="8" t="n"/>
-      <c r="M20" s="8" t="n"/>
-      <c r="N20" s="8" t="n"/>
-      <c r="O20" s="8" t="n"/>
-      <c r="P20" s="8" t="n"/>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>0.04782404615145833</v>
+      </c>
+      <c r="M20" s="8" t="n">
+        <v>0.1742824912945103</v>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>0.3331198320609985</v>
+      </c>
+      <c r="O20" s="8" t="n">
+        <v>0.2186870964448025</v>
+      </c>
+      <c r="P20" s="8" t="n">
+        <v>27.90827569288556</v>
+      </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
       <c r="A21" s="12" t="inlineStr">

--- a/data/performance_sheets_option3/window2/BA11 Overall Model Peformance Results.xlsx
+++ b/data/performance_sheets_option3/window2/BA11 Overall Model Peformance Results.xlsx
@@ -1162,19 +1162,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.02061920317897045</v>
+        <v>0.02061972183678094</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.115638898524872</v>
+        <v>0.1156758971424813</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.1540831205517132</v>
+        <v>0.1541570567249339</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.1435938828048411</v>
+        <v>0.1435956887820137</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>17.04902302240803</v>
+        <v>17.05652129946752</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -1192,19 +1192,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.01363413596151771</v>
+        <v>0.01350174326799376</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.09507203496361528</v>
+        <v>0.09480741307147325</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.1293520876093035</v>
+        <v>0.1291377381064139</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.1167653029008092</v>
+        <v>0.1161970019750671</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>13.99588129861773</v>
+        <v>13.96612692927005</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -1224,19 +1224,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1553557703400491</v>
+        <v>0.1559816127361606</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2714937838947279</v>
+        <v>0.2721326507264147</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.3491939744911818</v>
+        <v>0.348748584085838</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3941519635115993</v>
+        <v>0.3949450755942661</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>47.61333881052487</v>
+        <v>47.82438036373956</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -1250,23 +1250,23 @@
       </c>
       <c r="K14" s="8" t="inlineStr">
         <is>
-          <t>{'final_estimator': LinearRegression()}</t>
+          <t>{'final_estimator': GradientBoostingRegressor(random_state=42)}</t>
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.126677745722433</v>
+        <v>0.1836052703651568</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.3011636687993314</v>
+        <v>0.3040446696198132</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.4123341234690375</v>
+        <v>0.3928307613110703</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.3559181727903662</v>
+        <v>0.4284918556579073</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>48.01488789374195</v>
+        <v>54.89482771137566</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -2477,19 +2477,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.8554616616626499</v>
+        <v>0.8550852744787322</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.7362438579093024</v>
+        <v>0.736575730059092</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.301356471496377</v>
+        <v>0.3015276950333479</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.9249117047927602</v>
+        <v>0.9247082104527526</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>35.0372510756816</v>
+        <v>35.05209171092217</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -2507,19 +2507,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>1.042277896782832</v>
+        <v>1.042228391729612</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.831754019554262</v>
+        <v>0.8316353738706613</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.3318867253619764</v>
+        <v>0.3318432602412029</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>1.020920122626071</v>
+        <v>1.020895877026454</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>41.17224425811697</v>
+        <v>41.16754547385458</v>
       </c>
     </row>
     <row r="14">
@@ -2539,19 +2539,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>2.082036019702415</v>
+        <v>2.108988459036716</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.160616433586375</v>
+        <v>1.167119003262681</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.5360210675248666</v>
+        <v>0.5388456228323402</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>1.442926200365914</v>
+        <v>1.452235676134117</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>56.74539941719001</v>
+        <v>57.26330231166268</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -2565,23 +2565,23 @@
       </c>
       <c r="K14" s="8" t="inlineStr">
         <is>
-          <t>{'final_estimator': RandomForestRegressor(random_state=42)}</t>
+          <t>{'final_estimator': GradientBoostingRegressor(random_state=42)}</t>
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.8681970357677352</v>
+        <v>0.8901728738538101</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.8195636361931472</v>
+        <v>0.8202631033457219</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.3944972655031734</v>
+        <v>0.3983330473461031</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.9317709137807078</v>
+        <v>0.9434897317161486</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>34.01184812087521</v>
+        <v>33.88554025933859</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -2601,16 +2601,16 @@
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2610999236534355</v>
+        <v>0.2610999236534356</v>
       </c>
       <c r="E15" s="5" t="n">
         <v>0.4443350089634933</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2102012016701212</v>
+        <v>0.2102012016701213</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.5109793769355427</v>
+        <v>0.5109793769355429</v>
       </c>
       <c r="H15" s="5" t="n">
         <v>19.10371756220558</v>
@@ -3789,19 +3789,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.4874908987169001</v>
+        <v>0.4826461350798301</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.6334938335079747</v>
+        <v>0.6306921606976756</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.2362706168421813</v>
+        <v>0.2349438338808827</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.6982054845938265</v>
+        <v>0.6947273818411291</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>27.67329916954014</v>
+        <v>27.49418881541505</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -3819,19 +3819,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.3163236553508835</v>
+        <v>0.3156059778964267</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.4912617339449671</v>
+        <v>0.4903192041284283</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.1787583835280962</v>
+        <v>0.1784568393725265</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.5624265777422716</v>
+        <v>0.5617881966510393</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>20.19662778031858</v>
+        <v>20.16462236457654</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -3851,19 +3851,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3711197108090089</v>
+        <v>0.3549874258472867</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5582253575429657</v>
+        <v>0.5438524789745666</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2143780073694503</v>
+        <v>0.2091796415962875</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.6091959543603428</v>
+        <v>0.5958082123026559</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>23.18625052149395</v>
+        <v>22.54119935319778</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -3877,23 +3877,23 @@
       </c>
       <c r="K14" s="8" t="inlineStr">
         <is>
-          <t>{'final_estimator': RandomForestRegressor(random_state=42)}</t>
+          <t>{'final_estimator': GradientBoostingRegressor(random_state=42)}</t>
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.8187631465432532</v>
+        <v>0.6310629618338508</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.808360335136744</v>
+        <v>0.7010926396179371</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.3203640350417885</v>
+        <v>0.2839846058519607</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.9048553180167829</v>
+        <v>0.7943947141275871</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>33.33451229552573</v>
+        <v>28.23047933580794</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -5101,19 +5101,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.6653384465270461</v>
+        <v>0.6653384465270452</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.7333508454972635</v>
+        <v>0.7333508454972628</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.262269662349037</v>
+        <v>0.2622696623490367</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.8156828099984982</v>
+        <v>0.8156828099984976</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>31.41991859432951</v>
+        <v>31.41991859432947</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -5131,19 +5131,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.5179684684792027</v>
+        <v>0.5178397135997408</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.6149776344501243</v>
+        <v>0.6144773614882745</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.21661106577027</v>
+        <v>0.216438372982741</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.7197002629422909</v>
+        <v>0.7196108070337331</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>25.41380587112264</v>
+        <v>25.39576898532613</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -5163,19 +5163,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.840619286973586e-06</v>
+        <v>1.964954054329882e-06</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.001099555014638209</v>
+        <v>0.001142099724960826</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.0003797115121071513</v>
+        <v>0.0003947560461896825</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.001356694249627965</v>
+        <v>0.001401768188514022</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.03798162966522754</v>
+        <v>0.03948685261226999</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -5193,19 +5193,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.01750727338447727</v>
+        <v>0.1752409237857833</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.1155047591091947</v>
+        <v>0.3693397678361349</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.04075066075043859</v>
+        <v>0.1292502939203634</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.1323150535066863</v>
+        <v>0.4186178732278202</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>4.141451631016062</v>
+        <v>13.90542404433424</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -6411,19 +6411,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.05239773743067454</v>
+        <v>0.05239688425648457</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.147724835288517</v>
+        <v>0.1477533610148353</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1.480488551401143</v>
+        <v>1.480382723901162</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.2289055207518476</v>
+        <v>0.2289036571496501</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>30.36474456184222</v>
+        <v>30.36996036523015</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -6441,19 +6441,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.05303339742865416</v>
+        <v>0.05300154820529458</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.1497846637544888</v>
+        <v>0.1497342581853615</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>1.471463815256967</v>
+        <v>1.471137153358005</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.2302898118212227</v>
+        <v>0.2302206511269017</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>30.66673472526134</v>
+        <v>30.66054982888381</v>
       </c>
     </row>
     <row r="14">
@@ -6473,19 +6473,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.06373133453222532</v>
+        <v>0.06406559199052776</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1835692148826776</v>
+        <v>0.1840026696475577</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1.536952412409611</v>
+        <v>1.539587417664469</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2524506576189203</v>
+        <v>0.2531118171688705</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>36.02457604585157</v>
+        <v>36.06895590226188</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -6503,19 +6503,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.08002992920840604</v>
+        <v>0.08132375707931379</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.2196914083719862</v>
+        <v>0.2216891387956368</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>1.62084074604504</v>
+        <v>1.635648037879196</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.2828956153926852</v>
+        <v>0.2851732054021096</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>40.45426062776902</v>
+        <v>40.69050485136712</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -6561,23 +6561,23 @@
       </c>
       <c r="K15" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 50, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 15, 'max_features': 'log2', 'max_depth': 20, 'learning_rate': 0.05}</t>
+          <t>{'n_estimators': 100, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 20, 'max_features': 'sqrt', 'max_depth': 30, 'learning_rate': 0.5}</t>
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.06629671029253757</v>
+        <v>0.08680102305074396</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.1746452707027393</v>
+        <v>0.2154823152412335</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>1.617664623442309</v>
+        <v>1.68030615340433</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.2574814756298743</v>
+        <v>0.2946201334782536</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>33.71293930298705</v>
+        <v>39.08030218391181</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -7721,19 +7721,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.0684625589685162</v>
+        <v>0.06864670512430829</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.2027612016384219</v>
+        <v>0.2029408872036805</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1.638768774221303</v>
+        <v>1.648398075783146</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.2616535093755026</v>
+        <v>0.2620051624001105</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>38.70169925328647</v>
+        <v>38.69512332265152</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -7757,7 +7757,7 @@
         <v>0.2016819568557996</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>1.651545647125465</v>
+        <v>1.651545647125464</v>
       </c>
       <c r="O13" s="8" t="n">
         <v>0.2593108015411286</v>
@@ -7783,19 +7783,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.08315471487003338</v>
+        <v>0.0823487673937616</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2327420647248215</v>
+        <v>0.2313171136800351</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1.575387933769977</v>
+        <v>1.562122570536153</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2883655923823669</v>
+        <v>0.2869647493922583</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>43.61345538882354</v>
+        <v>43.42962401447488</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -7813,19 +7813,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.08972651171007877</v>
+        <v>0.08764648218087842</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.2399090718243688</v>
+        <v>0.2361244055658301</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>1.668467260522615</v>
+        <v>1.644893443330021</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.2995438393792781</v>
+        <v>0.2960514856927396</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>43.94745947293549</v>
+        <v>43.50740160470259</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -9031,19 +9031,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.04952995686279477</v>
+        <v>0.04953096965786798</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1624592549256533</v>
+        <v>0.1624593270060048</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1.549333924888908</v>
+        <v>1.549359341430703</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.2225532674727441</v>
+        <v>0.2225555428603565</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>32.66643610770479</v>
+        <v>32.66634686369157</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -9061,19 +9061,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.05524857250095484</v>
+        <v>0.05525218198664162</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.1616579110993048</v>
+        <v>0.1616531569096374</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>1.680838386825721</v>
+        <v>1.680694753898131</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.2350501489064724</v>
+        <v>0.2350578268993433</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>32.20264943320063</v>
+        <v>32.20366298136532</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -9093,19 +9093,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.08980679218101073</v>
+        <v>0.08855382718340014</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2383088910839852</v>
+        <v>0.2366412627080382</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1.74904368258196</v>
+        <v>1.752965751202191</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.299677813961946</v>
+        <v>0.2975799509096675</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>42.96231467466968</v>
+        <v>42.64556112724231</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -9123,19 +9123,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.06157623596087547</v>
+        <v>0.06157862064226972</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.1741182694024899</v>
+        <v>0.174196957304019</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>1.724194332751933</v>
+        <v>1.72381391696957</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.2481455942806067</v>
+        <v>0.2481503992385862</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>33.66082148404238</v>
+        <v>33.67128655618781</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -9185,19 +9185,19 @@
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.05584016101190994</v>
+        <v>0.05584292542138956</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.1562686528473034</v>
+        <v>0.156280950622196</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>1.647756346525456</v>
+        <v>1.647780820957233</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.2363052284904207</v>
+        <v>0.2363110776527194</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>31.73739385350515</v>
+        <v>31.7392372545474</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -10341,19 +10341,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.6125460079309865</v>
+        <v>0.6127388713418348</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.3771077282121402</v>
+        <v>0.3771753673191374</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.5997051644053244</v>
+        <v>0.5997578494805386</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.7826531849618875</v>
+        <v>0.7827763865509964</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>19.02895143756001</v>
+        <v>19.03072663531954</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -10371,19 +10371,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.6125779007817931</v>
+        <v>0.6127707641177247</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.3771709551149952</v>
+        <v>0.3772385942219923</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.5997257609095743</v>
+        <v>0.5997784459847881</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.7826735595264434</v>
+        <v>0.7827967578610202</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>19.03126042730517</v>
+        <v>19.03303562763848</v>
       </c>
     </row>
     <row r="14">
@@ -10403,19 +10403,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.6763649350515083</v>
+        <v>0.6716307952178908</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4079559110146901</v>
+        <v>0.4045203005874325</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.6337149351299227</v>
+        <v>0.6313205737478074</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.8224140897695688</v>
+        <v>0.8195308384788768</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>19.90845328518005</v>
+        <v>19.7939883006615</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -10433,19 +10433,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.670753471200298</v>
+        <v>0.6660988221298357</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.4060916885612063</v>
+        <v>0.4026541412629686</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.6313644066278878</v>
+        <v>0.6290053058427061</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.8189954036502879</v>
+        <v>0.8161487745073417</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>19.85632837515633</v>
+        <v>19.74113471015777</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -10465,19 +10465,19 @@
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.620240824586037</v>
+        <v>0.6202408245860371</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3899528588428665</v>
+        <v>0.3899528588428667</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.5945365024931535</v>
+        <v>0.5945365024931536</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.7875536963192015</v>
+        <v>0.7875536963192016</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>19.47941485530625</v>
+        <v>19.47941485530626</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -10495,19 +10495,19 @@
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.6202493722550677</v>
+        <v>0.6202493722550678</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.3900636459926877</v>
+        <v>0.3900636459926879</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.5945759719051726</v>
+        <v>0.5945759719051728</v>
       </c>
       <c r="O15" s="8" t="n">
         <v>0.7875591230219277</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>19.48341661128927</v>
+        <v>19.48341661128928</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -11651,19 +11651,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.4874370777475975</v>
+        <v>0.4874372658748156</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.2877321338146063</v>
+        <v>0.2877349022029558</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.5387593932815522</v>
+        <v>0.5387603277932552</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.6981669411735258</v>
+        <v>0.6981670759029071</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>15.55847356116951</v>
+        <v>15.55856810355466</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -11684,13 +11684,13 @@
         <v>0.4935597793225935</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.2829334190634643</v>
+        <v>0.2829334190634644</v>
       </c>
       <c r="N13" s="8" t="n">
         <v>0.5588649386635517</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.7025380981289154</v>
+        <v>0.7025380981289153</v>
       </c>
       <c r="P13" s="8" t="n">
         <v>15.37498608636262</v>
@@ -11709,53 +11709,53 @@
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
+          <t>{'final_estimator': LinearRegression()}</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0.5108047326900721</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.3771341274882028</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0.5664258348178982</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>0.7147060463505763</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>19.54909854730963</v>
+      </c>
+      <c r="I14" s="9" t="inlineStr">
+        <is>
+          <t>Stacking Regressor</t>
+        </is>
+      </c>
+      <c r="J14" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K14" s="8" t="inlineStr">
+        <is>
           <t>{'final_estimator': LinearSVR(random_state=42)}</t>
         </is>
       </c>
-      <c r="D14" s="5" t="n">
-        <v>0.4793771133372543</v>
-      </c>
-      <c r="E14" s="5" t="n">
-        <v>0.2965198832575792</v>
-      </c>
-      <c r="F14" s="5" t="n">
-        <v>0.5357926260323025</v>
-      </c>
-      <c r="G14" s="5" t="n">
-        <v>0.6923706473683401</v>
-      </c>
-      <c r="H14" s="5" t="n">
-        <v>16.03066934470132</v>
-      </c>
-      <c r="I14" s="9" t="inlineStr">
-        <is>
-          <t>Stacking Regressor</t>
-        </is>
-      </c>
-      <c r="J14" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K14" s="8" t="inlineStr">
-        <is>
-          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
-        </is>
-      </c>
       <c r="L14" s="8" t="n">
-        <v>0.5366906785161305</v>
+        <v>0.5294061357648537</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.313041837543528</v>
+        <v>0.3121098129998992</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.5819023651453337</v>
+        <v>0.5776714062800919</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.7325917543326095</v>
+        <v>0.7276030069789801</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>16.76876395760205</v>
+        <v>16.74308250004104</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -12961,19 +12961,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.4297497739767338</v>
+        <v>0.4296963169690864</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.2622301348060922</v>
+        <v>0.2621958603793499</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.2568222736977658</v>
+        <v>0.2567977700483795</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.6555530291110963</v>
+        <v>0.6555122553919845</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>14.01298085559051</v>
+        <v>14.01156065267283</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -12991,19 +12991,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.4309633851583357</v>
+        <v>0.4290757142148509</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.2615491230577069</v>
+        <v>0.2603651920244077</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.255156934410369</v>
+        <v>0.2538282932565333</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.6564780157464039</v>
+        <v>0.6550387119971237</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>14.01603117774219</v>
+        <v>13.95384628181033</v>
       </c>
     </row>
     <row r="14">
@@ -13023,19 +13023,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4620405358467248</v>
+        <v>0.4571252687557569</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3099744792126155</v>
+        <v>0.315005237146702</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2814825272112323</v>
+        <v>0.2811871878458465</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.6797356367344034</v>
+        <v>0.6761103968700355</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>15.99490344953501</v>
+        <v>16.19090887204745</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -13053,19 +13053,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.6041152898568851</v>
+        <v>0.6072019104404536</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.3745876136675506</v>
+        <v>0.37693194216596</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.3325234153024137</v>
+        <v>0.3334467924926329</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.7772485380217097</v>
+        <v>0.7792316154010011</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>18.48605938464332</v>
+        <v>18.58126864899904</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -14181,19 +14181,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.04245271744265806</v>
+        <v>0.04244250149182267</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1735571114464515</v>
+        <v>0.1736402084069633</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.2499485496879179</v>
+        <v>0.2501551707893966</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.2060405723217106</v>
+        <v>0.2060157797155904</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>26.21012384639788</v>
+        <v>26.23076930077156</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -14225,19 +14225,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01203266941476821</v>
+        <v>0.01201330296904105</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.0809597985350516</v>
+        <v>0.08120029740788394</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.111521354380044</v>
+        <v>0.1120042088572003</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1096935249445846</v>
+        <v>0.1096052141507924</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>11.55579356372299</v>
+        <v>11.5986544819102</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -15293,19 +15293,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.02608969341738513</v>
+        <v>0.02610235998495529</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1300037993479323</v>
+        <v>0.1300374483712728</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.3452742189558127</v>
+        <v>0.3455651606897785</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.161523042991968</v>
+        <v>0.1615622480190075</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>22.80080772343004</v>
+        <v>22.84320500598412</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -15323,19 +15323,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.02588101106851629</v>
+        <v>0.02588588014674344</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.1288117138613507</v>
+        <v>0.1285429091379359</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.348963375506684</v>
+        <v>0.3494349419859617</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.1608757628374029</v>
+        <v>0.1608908951642181</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>22.90249875432692</v>
+        <v>22.86897472558533</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -15355,19 +15355,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03960639168117325</v>
+        <v>0.03970583904666562</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1530186513025285</v>
+        <v>0.1530867248582445</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.4140367520386905</v>
+        <v>0.413943102961804</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1990135464765483</v>
+        <v>0.1992632405805587</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>26.31958824631906</v>
+        <v>26.32732097364434</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -15385,19 +15385,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.0361050729074457</v>
+        <v>0.03600015765862889</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.1490420324648992</v>
+        <v>0.1488880943250141</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.3898896047117373</v>
+        <v>0.3895511931443143</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.1900133492874795</v>
+        <v>0.1897370750766146</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>25.79250440142166</v>
+        <v>25.7668295592659</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -15417,7 +15417,7 @@
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.02358595546962176</v>
+        <v>0.02358595546962175</v>
       </c>
       <c r="E15" s="5" t="n">
         <v>0.1202975834822276</v>
@@ -16513,19 +16513,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.08455987457048406</v>
+        <v>0.08456342359858986</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.2377493852347353</v>
+        <v>0.2378514323056523</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.4076139571417075</v>
+        <v>0.4077838186913352</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.2907918062299625</v>
+        <v>0.2907979085182523</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>39.92679110241822</v>
+        <v>39.94428875030007</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -16557,19 +16557,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.08020423878727953</v>
+        <v>0.07645575184963037</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2120204703746846</v>
+        <v>0.2080054016544297</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.3930595633666671</v>
+        <v>0.3878903403890721</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2832035289103572</v>
+        <v>0.2765063323861325</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>35.27676263253187</v>
+        <v>34.4497471676126</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -17535,19 +17535,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.6453265942754173</v>
+        <v>0.6460086897664358</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.5934116075065233</v>
+        <v>0.5937176151403116</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1.067248642888109</v>
+        <v>1.067914905382262</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.8033222231927966</v>
+        <v>0.8037466577015644</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>79.78219375509667</v>
+        <v>79.77573839953618</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -17579,19 +17579,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.05638022945451865</v>
+        <v>0.05695553686091414</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1915145726028762</v>
+        <v>0.19296316452377</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.5450511029378764</v>
+        <v>0.5489708885809773</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2374452135851945</v>
+        <v>0.2386535917620226</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>31.58978138297257</v>
+        <v>31.78084823401541</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -17623,7 +17623,7 @@
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.05203225424249499</v>
+        <v>0.05203225424249501</v>
       </c>
       <c r="E15" s="5" t="n">
         <v>0.1776171154806623</v>
@@ -17635,7 +17635,7 @@
         <v>0.2281057961615509</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>30.6884674277964</v>
+        <v>30.68846742779641</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -18557,19 +18557,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.441680583531078</v>
+        <v>0.4170320747969057</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.5532081803402884</v>
+        <v>0.5432340116961305</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.2042043096426209</v>
+        <v>0.2002310470418897</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.6645905382497391</v>
+        <v>0.6457802062597658</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>23.50486664720259</v>
+        <v>22.80177874602377</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -18601,19 +18601,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.06196416313458827</v>
+        <v>0.0571528048080576</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1939492512535947</v>
+        <v>0.1877124892317221</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.07026415422668218</v>
+        <v>0.0679878683034883</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2489260194005204</v>
+        <v>0.2390665279959903</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>7.0248931815971</v>
+        <v>6.813650190636364</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -19579,19 +19579,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.420996652305161</v>
+        <v>0.4197963719361477</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.534337525034205</v>
+        <v>0.5337971493739244</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.2053382286320416</v>
+        <v>0.2052021992149562</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.6488425481618487</v>
+        <v>0.6479169483322286</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>19.61800386689782</v>
+        <v>19.59201126814765</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -19623,19 +19623,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.09070611865218253</v>
+        <v>0.0893501555901878</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2046413727828948</v>
+        <v>0.2061564185697825</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.09547608999130985</v>
+        <v>0.09534434602050235</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3011745650817521</v>
+        <v>0.2989149638110943</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>8.358634635272269</v>
+        <v>8.409443166613039</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -20601,19 +20601,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.9092553636166536</v>
+        <v>0.9074818935780532</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.7099662940552917</v>
+        <v>0.7085691085256467</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.2865850907141627</v>
+        <v>0.2856576330085198</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.953548826026572</v>
+        <v>0.9526184407085836</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>38.39836760841316</v>
+        <v>38.19150897782207</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -20645,19 +20645,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.338185877778075</v>
+        <v>0.3386273023107487</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3391028143398095</v>
+        <v>0.3394847085724985</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2206244270357556</v>
+        <v>0.2207885755873598</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.5815375119268533</v>
+        <v>0.5819169204540702</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>13.82261766281033</v>
+        <v>13.83342059513773</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -21713,19 +21713,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.04348273438289393</v>
+        <v>0.04342002641529014</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1693361974100751</v>
+        <v>0.1692105581530109</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.3038418654835328</v>
+        <v>0.3037354418186021</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.2085251408892796</v>
+        <v>0.2083747259513258</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>27.64570232901825</v>
+        <v>27.61984732230854</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -21743,19 +21743,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.04506418858783496</v>
+        <v>0.04515137417213014</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.1733071452075152</v>
+        <v>0.1733676896772223</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.2966690653975481</v>
+        <v>0.2967178535056751</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.2122832743949343</v>
+        <v>0.2124885271541269</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>28.65551661849458</v>
+        <v>28.66921270763883</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -21775,19 +21775,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.08915429885523851</v>
+        <v>0.08771077265492526</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2287125422088791</v>
+        <v>0.2208667327940071</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.4577672053377765</v>
+        <v>0.4401245832720053</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2985871712837618</v>
+        <v>0.2961600456761939</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>37.87681244220084</v>
+        <v>37.07746429726948</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -21801,23 +21801,23 @@
       </c>
       <c r="K14" s="8" t="inlineStr">
         <is>
-          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
+          <t>{'final_estimator': RandomForestRegressor(random_state=42)}</t>
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.06275988806946858</v>
+        <v>0.08257555208507651</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.1981913316615816</v>
+        <v>0.2272642845422114</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.3925422397196305</v>
+        <v>0.4557373886495304</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.2505192369249687</v>
+        <v>0.2873596215286283</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>31.5335365782307</v>
+        <v>35.72684293802626</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -21837,7 +21837,7 @@
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.06152583666238644</v>
+        <v>0.06152583666238642</v>
       </c>
       <c r="E15" s="5" t="n">
         <v>0.2086178612640399</v>
@@ -23023,19 +23023,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.1037857765437653</v>
+        <v>0.1041642452493131</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.2653930222838351</v>
+        <v>0.2659574168281245</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.09562363556969126</v>
+        <v>0.09584639047830658</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.3221579993477817</v>
+        <v>0.3227448609185173</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>10.22178616454739</v>
+        <v>10.24738915309581</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -23053,19 +23053,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.08160030160926184</v>
+        <v>0.08191235507795144</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.2488984104349154</v>
+        <v>0.2493375983543724</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.08981864896252001</v>
+        <v>0.08999360993314458</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.2856576650630293</v>
+        <v>0.2862033456791717</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>9.446515317533219</v>
+        <v>9.467193015857967</v>
       </c>
     </row>
     <row r="14" ht="28.5" customHeight="1">
@@ -23085,19 +23085,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03297333959832891</v>
+        <v>0.03296691838530143</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1390371688369416</v>
+        <v>0.1392770695982854</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.04794267560251703</v>
+        <v>0.04802874784259688</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1815856260785223</v>
+        <v>0.1815679442668816</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>4.954406201677393</v>
+        <v>4.965076402267651</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -23115,19 +23115,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.03278953379859571</v>
+        <v>0.02693417214332165</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.1376312683811841</v>
+        <v>0.1346271188486461</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.04750657262365651</v>
+        <v>0.04706744736315777</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.181078805492514</v>
+        <v>0.1641163372224766</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>4.9051482470785</v>
+        <v>4.804754488016306</v>
       </c>
     </row>
     <row r="15" ht="42.75" customHeight="1">
@@ -24334,19 +24334,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.115844849218058</v>
+        <v>0.1157271872832068</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.2424718892526222</v>
+        <v>0.2423820495962562</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.1083478720971364</v>
+        <v>0.1082407155888634</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.3403598819162711</v>
+        <v>0.3401869887035758</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>10.46374423058977</v>
+        <v>10.45930186966613</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -24364,19 +24364,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.08627900193927911</v>
+        <v>0.08608096174788754</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.2275432346756592</v>
+        <v>0.2272896684998605</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.1142866781219151</v>
+        <v>0.1142210701301671</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.2937328751421589</v>
+        <v>0.2933955721340858</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>9.867944599791514</v>
+        <v>9.857944547103887</v>
       </c>
     </row>
     <row r="14" ht="28.5" customHeight="1">
@@ -24396,19 +24396,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2179275331892198</v>
+        <v>0.2154456520738136</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2940627821263538</v>
+        <v>0.2811915133210117</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1852782151283111</v>
+        <v>0.1813851158754017</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.466827091318852</v>
+        <v>0.4641612349968636</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>12.94232464070354</v>
+        <v>12.44228403856738</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -24426,19 +24426,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.1616580296161593</v>
+        <v>0.1621177199899597</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.2382372765661812</v>
+        <v>0.2398961188441529</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.1529583813499795</v>
+        <v>0.1533905650645039</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.4020671953991762</v>
+        <v>0.4026384482261471</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>10.83492525199932</v>
+        <v>10.89605705813731</v>
       </c>
     </row>
     <row r="15" ht="42.75" customHeight="1">
@@ -25645,19 +25645,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.08564161919719018</v>
+        <v>0.08558451926421469</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.2312168309081718</v>
+        <v>0.2310697065542486</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.08903296941549271</v>
+        <v>0.08898362004456295</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.2926458938669569</v>
+        <v>0.2925483195374991</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>9.255910984569903</v>
+        <v>9.250646813570185</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -25675,19 +25675,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.1238276389378373</v>
+        <v>0.123830362485665</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.2850577171425751</v>
+        <v>0.2850190447466868</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.1109004660681943</v>
+        <v>0.1108897376547803</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.3518915158650991</v>
+        <v>0.3518953857123804</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>11.73333043557653</v>
+        <v>11.73256613253004</v>
       </c>
     </row>
     <row r="14" ht="28.5" customHeight="1">
@@ -25707,19 +25707,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1087139400756869</v>
+        <v>0.1079685923469008</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1901645635819708</v>
+        <v>0.1816471359699827</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.09269587224406588</v>
+        <v>0.0902773080306703</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.329717970507655</v>
+        <v>0.3285857458060236</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>7.784886397842363</v>
+        <v>7.474418494127853</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -25737,19 +25737,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.07642959865466165</v>
+        <v>0.07069402219853119</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.1838331973264866</v>
+        <v>0.1671135885857023</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.08250148857264178</v>
+        <v>0.07754406857459034</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.2764590361240913</v>
+        <v>0.2658834748504149</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>7.473524502520023</v>
+        <v>6.866000162859599</v>
       </c>
     </row>
     <row r="15" ht="42.75" customHeight="1">
@@ -26958,19 +26958,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.04114734188520465</v>
+        <v>0.03978700636385561</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1650481995131477</v>
+        <v>0.1626314198112807</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.2198601471048602</v>
+        <v>0.216803298383898</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.2028480758725718</v>
+        <v>0.1994668051678163</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>25.8457865819936</v>
+        <v>25.40008920484428</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -26988,19 +26988,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.02599492098641048</v>
+        <v>0.02603934270601642</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.1414482675718835</v>
+        <v>0.1416246301382531</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.1861370292885272</v>
+        <v>0.1863987062481303</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.1612294048441862</v>
+        <v>0.1613671054026081</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>20.91638233408591</v>
+        <v>20.9482736127393</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -27020,19 +27020,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>7.731247647678252e-05</v>
+        <v>8.239616113454543e-05</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.00699199740404451</v>
+        <v>0.007391627651067741</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01084481228747961</v>
+        <v>0.01142359997245519</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.008792751359886308</v>
+        <v>0.009077233121086261</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>1.095235725030358</v>
+        <v>1.153655546383846</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -27046,23 +27046,23 @@
       </c>
       <c r="K14" s="8" t="inlineStr">
         <is>
-          <t>{'final_estimator': LinearRegression()}</t>
+          <t>{'final_estimator': RandomForestRegressor(random_state=42)}</t>
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.1217932438686728</v>
+        <v>0.00905676186402159</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.2898846006942802</v>
+        <v>0.07491899177980701</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.4033869890234055</v>
+        <v>0.1066907057188508</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.348988887887097</v>
+        <v>0.09516702088445131</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>44.86300911304873</v>
+        <v>10.90411977951956</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -27088,7 +27088,7 @@
         <v>0.1661350450604764</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2156247280370957</v>
+        <v>0.2156247280370958</v>
       </c>
       <c r="G15" s="5" t="n">
         <v>0.2041784690627873</v>
@@ -28268,23 +28268,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.02726005333597184</v>
+        <v>0.02608405731156693</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.135888526705773</v>
+        <v>0.1329825385585718</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.3338138650650103</v>
+        <v>0.3266802621428838</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.1651061880608108</v>
+        <v>0.1615055952949214</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>23.97500259396117</v>
+        <v>23.50330734667855</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -28302,19 +28302,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.0269179589725991</v>
+        <v>0.02619918312507086</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.1386560619771207</v>
+        <v>0.1367149716697301</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.2776586725148757</v>
+        <v>0.2672383669627773</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.1640669344279922</v>
+        <v>0.1618616172076347</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>23.80768836927193</v>
+        <v>23.43212443235251</v>
       </c>
     </row>
     <row r="14">
@@ -28330,23 +28330,23 @@
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
-          <t>{'final_estimator': GradientBoostingRegressor(random_state=42)}</t>
+          <t>{'final_estimator': RandomForestRegressor(random_state=42)}</t>
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1451097145912275</v>
+        <v>0.1156113939681911</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3201795385670908</v>
+        <v>0.2732077109046348</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.8707797430828076</v>
+        <v>0.7524998897236714</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3809326903682952</v>
+        <v>0.3400167554227161</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>50.93458052762546</v>
+        <v>43.41075777274973</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -28364,19 +28364,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.9648566435232955</v>
+        <v>0.9690584018269752</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.7684395253629711</v>
+        <v>0.7691971965754153</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>2.126461884496676</v>
+        <v>2.132679543562306</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.9822711659838619</v>
+        <v>0.9844076400693846</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>111.1439154439705</v>
+        <v>111.0139677192226</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -29584,19 +29584,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.02907658046295158</v>
+        <v>0.02917947609362845</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1353763726642368</v>
+        <v>0.1352146846443782</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.2406482521588157</v>
+        <v>0.2400851671672919</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.1705185633969263</v>
+        <v>0.1708200108114633</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>22.05803344418776</v>
+        <v>22.005296498443</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -29614,19 +29614,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.03407668467213694</v>
+        <v>0.03421657116108601</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.1535861411669295</v>
+        <v>0.1551732566152434</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.2601967095695819</v>
+        <v>0.2632673283671935</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.1845987125419268</v>
+        <v>0.1849772179515251</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>25.06312154682331</v>
+        <v>25.37041107687725</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -29642,23 +29642,23 @@
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
-          <t>{'final_estimator': RandomForestRegressor(random_state=42)}</t>
+          <t>{'final_estimator': GradientBoostingRegressor(random_state=42)}</t>
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.06108765055602396</v>
+        <v>0.06191774172549506</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2054615809783053</v>
+        <v>0.1967723189050246</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.4337785039824949</v>
+        <v>0.4495799069441493</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2471591603724692</v>
+        <v>0.2488327585457651</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>32.12271698165227</v>
+        <v>30.91366557556942</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -29676,19 +29676,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.07921902887936937</v>
+        <v>0.08198969191403706</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.2342453537560244</v>
+        <v>0.2389753818401977</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.5008661375874364</v>
+        <v>0.5100846463257691</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.2814587516482111</v>
+        <v>0.2863384220010249</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>35.96706132134748</v>
+        <v>36.63413392689571</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">

--- a/data/performance_sheets_option3/window2/BA11 Overall Model Peformance Results.xlsx
+++ b/data/performance_sheets_option3/window2/BA11 Overall Model Peformance Results.xlsx
@@ -3179,19 +3179,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.128341436386108</v>
+        <v>1.734377980232239</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.325620532035828</v>
+        <v>1.139716863632202</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.6515308022499084</v>
+        <v>0.6658967733383179</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.458883626745502</v>
+        <v>1.31695785059061</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>41.6856050491333</v>
+        <v>38.45059275627136</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -3209,19 +3209,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>1.262267708778381</v>
+        <v>0.7746689319610596</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.9447163939476013</v>
+        <v>0.6658671498298645</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.4775902032852173</v>
+        <v>0.4311692714691162</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>1.123506879720094</v>
+        <v>0.8801527889866961</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>32.00440406799316</v>
+        <v>25.66962242126465</v>
       </c>
     </row>
   </sheetData>
@@ -4491,19 +4491,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.4457042515277863</v>
+        <v>1.468275308609009</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.503180980682373</v>
+        <v>1.09308385848999</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2266048341989517</v>
+        <v>0.558099091053009</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.6676108533627851</v>
+        <v>1.211724105813287</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>19.03840154409409</v>
+        <v>36.33222579956055</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -4521,19 +4521,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.7081848978996277</v>
+        <v>0.7096688151359558</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.7552050948143005</v>
+        <v>0.6885280609130859</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.3201269507408142</v>
+        <v>0.3725322782993317</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.8415372231218461</v>
+        <v>0.8424184323339298</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>25.63884854316711</v>
+        <v>25.18053352832794</v>
       </c>
     </row>
   </sheetData>
@@ -5803,19 +5803,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.7653989195823669</v>
+        <v>0.2427431344985962</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.8189190626144409</v>
+        <v>0.3240805566310883</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2993795871734619</v>
+        <v>0.1636089980602264</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.8748708016515164</v>
+        <v>0.4926896939236665</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>25.56194663047791</v>
+        <v>12.67513036727905</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -5833,19 +5833,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.2763006687164307</v>
+        <v>0.4971365630626678</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.4604345858097076</v>
+        <v>0.5354706645011902</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.1755501627922058</v>
+        <v>0.2489186525344849</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.5256431001320484</v>
+        <v>0.7050791182999734</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>15.67378044128418</v>
+        <v>19.52041834592819</v>
       </c>
     </row>
   </sheetData>
@@ -7113,19 +7113,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1499541103839874</v>
+        <v>0.02597711235284805</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3304429054260254</v>
+        <v>0.1281299442052841</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.751888275146484</v>
+        <v>0.2534622550010681</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3872390868494391</v>
+        <v>0.1611741677591296</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>57.30572938919067</v>
+        <v>21.43474966287613</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -7143,19 +7143,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.2207126617431641</v>
+        <v>0.03330852463841438</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.378178209066391</v>
+        <v>0.1398261189460754</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>1.637555718421936</v>
+        <v>0.3253605663776398</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.4698006617100108</v>
+        <v>0.1825062317796693</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>81.45126104354858</v>
+        <v>23.54813367128372</v>
       </c>
     </row>
   </sheetData>
@@ -8423,19 +8423,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1373451203107834</v>
+        <v>0.0373058058321476</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2995595633983612</v>
+        <v>0.1434344202280045</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.037133812904358</v>
+        <v>0.4723204970359802</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3706010257821521</v>
+        <v>0.1931471093031102</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>69.31431293487549</v>
+        <v>25.88042318820953</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -8453,19 +8453,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.4019961655139923</v>
+        <v>0.4882715046405792</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.4909730851650238</v>
+        <v>0.5903236269950867</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>1.709623575210571</v>
+        <v>1.456581830978394</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.63403167548159</v>
+        <v>0.6987642697223286</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>102.9409527778625</v>
+        <v>95.98618745803833</v>
       </c>
     </row>
   </sheetData>
@@ -9733,19 +9733,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.211284339427948</v>
+        <v>0.07498874515295029</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3532521426677704</v>
+        <v>0.2264694273471832</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.900981426239014</v>
+        <v>0.7312770485877991</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.4596567626261447</v>
+        <v>0.2738407295362585</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>59.61050391197205</v>
+        <v>39.93274867534637</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -9763,19 +9763,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.147938996553421</v>
+        <v>1.162267684936523</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.3211243152618408</v>
+        <v>0.854371190071106</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>1.986990809440613</v>
+        <v>1.896551847457886</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.3846283876073385</v>
+        <v>1.078085193728456</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>74.2469847202301</v>
+        <v>96.47153615951538</v>
       </c>
     </row>
   </sheetData>
@@ -11043,19 +11043,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.364910125732422</v>
+        <v>0.1654601842164993</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.8449112772941589</v>
+        <v>0.2662162184715271</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.848641037940979</v>
+        <v>0.131292998790741</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.168293681285841</v>
+        <v>0.4067679734400182</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>33.27194154262543</v>
+        <v>10.73509603738785</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -11073,19 +11073,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>2.795578479766846</v>
+        <v>0.174430713057518</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>1.246936082839966</v>
+        <v>0.3062175214290619</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>1.160380601882935</v>
+        <v>0.1388030797243118</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>1.671998349211758</v>
+        <v>0.4176490309548413</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>42.36205518245697</v>
+        <v>12.3899981379509</v>
       </c>
     </row>
   </sheetData>
@@ -12353,19 +12353,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>18032.556640625</v>
+        <v>45.90182113647461</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>102.9871215820312</v>
+        <v>4.585239887237549</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>55.03953552246094</v>
+        <v>1.845409989356995</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>134.2853552723639</v>
+        <v>6.775088275179491</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>190.6471610069275</v>
+        <v>109.9648952484131</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -12383,19 +12383,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>1.185359835624695</v>
+        <v>69815.2578125</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.5942708849906921</v>
+        <v>225.1143646240234</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.8395446538925171</v>
+        <v>106.0896301269531</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>1.088742318285045</v>
+        <v>264.2257705306203</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>24.64695870876312</v>
+        <v>194.5417881011963</v>
       </c>
     </row>
   </sheetData>
@@ -13663,19 +13663,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.307309627532959</v>
+        <v>0.3593257069587708</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.669297456741333</v>
+        <v>0.4612239003181458</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.5270439982414246</v>
+        <v>0.2869165241718292</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.143376415504955</v>
+        <v>0.5994378257657509</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>26.53790712356567</v>
+        <v>20.68594694137573</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -13693,19 +13693,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>457.4133605957031</v>
+        <v>0.5002461671829224</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>20.65665054321289</v>
+        <v>0.5138739943504333</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>9.371065139770508</v>
+        <v>0.3329532742500305</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>21.38722423774771</v>
+        <v>0.707280826251442</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>199.4966626167297</v>
+        <v>22.20711261034012</v>
       </c>
     </row>
   </sheetData>
@@ -14703,19 +14703,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.02427484840154648</v>
+        <v>0.04563507437705994</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1275786757469177</v>
+        <v>0.1676891148090363</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.217550054192543</v>
+        <v>0.4320254623889923</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.15580387800548</v>
+        <v>0.2136236746642561</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>18.47050935029984</v>
+        <v>26.5464723110199</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -17035,19 +17035,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.06241292506456375</v>
+        <v>0.05463537201285362</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1845928281545639</v>
+        <v>0.1694003343582153</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3549875617027283</v>
+        <v>0.6280457377433777</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2498257894304824</v>
+        <v>0.2337421057765451</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>29.52780723571777</v>
+        <v>28.5798966884613</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -18057,19 +18057,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1050829589366913</v>
+        <v>0.0605219230055809</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2661109566688538</v>
+        <v>0.1801760494709015</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.7806707620620728</v>
+        <v>0.7340483665466309</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3241650180643977</v>
+        <v>0.2460120383346736</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>38.91502022743225</v>
+        <v>31.31685554981232</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -19079,19 +19079,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2717530727386475</v>
+        <v>0.1861597299575806</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.4614175260066986</v>
+        <v>0.340253084897995</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1755777299404144</v>
+        <v>0.1487765461206436</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.5212994079592336</v>
+        <v>0.4314623158024123</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>15.71516245603561</v>
+        <v>13.75270634889603</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -20101,19 +20101,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.462984561920166</v>
+        <v>0.3209352791309357</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.5554538369178772</v>
+        <v>0.4174624383449554</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2475636303424835</v>
+        <v>0.2384360879659653</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.680429689181892</v>
+        <v>0.5665114995575427</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>19.82118785381317</v>
+        <v>17.90029555559158</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -21123,19 +21123,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.897419810295105</v>
+        <v>0.368600070476532</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.180916666984558</v>
+        <v>0.4799096286296844</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.5936133861541748</v>
+        <v>0.2866077721118927</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.377468624069204</v>
+        <v>0.6071244275076831</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>37.42516934871674</v>
+        <v>21.36176824569702</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -27660,19 +27660,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.02376392856240273</v>
+        <v>0.04259264096617699</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1297431439161301</v>
+        <v>0.1540485173463821</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1893208920955658</v>
+        <v>0.4208289980888367</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1541555336742821</v>
+        <v>0.2063798463178442</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>18.57181787490845</v>
+        <v>24.80005770921707</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -27690,19 +27690,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.04227783158421516</v>
+        <v>0.05271419882774353</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.1664275825023651</v>
+        <v>0.1866953670978546</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.2328312247991562</v>
+        <v>0.4785051941871643</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.2056157376861391</v>
+        <v>0.2295957291147715</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>24.08504039049149</v>
+        <v>28.80351543426514</v>
       </c>
     </row>
   </sheetData>
@@ -28974,19 +28974,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.05404449999332428</v>
+        <v>0.1055203080177307</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1858496814966202</v>
+        <v>0.2390850931406021</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.5529400110244751</v>
+        <v>0.9375483393669128</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.232474729795142</v>
+        <v>0.3248388954816382</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>30.83342611789703</v>
+        <v>37.44885921478271</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -29004,19 +29004,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.04989935085177422</v>
+        <v>0.04788991436362267</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.1785750836133957</v>
+        <v>0.1725531965494156</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.4980261623859406</v>
+        <v>0.6341099739074707</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.2233816260388804</v>
+        <v>0.2188376438449808</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>30.10327219963074</v>
+        <v>30.90440332889557</v>
       </c>
     </row>
   </sheetData>
@@ -30286,19 +30286,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.03746729344129562</v>
+        <v>0.07117081433534622</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1533079892396927</v>
+        <v>0.2071028351783752</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3401889204978943</v>
+        <v>0.6900513768196106</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1935647009175372</v>
+        <v>0.2667785867256707</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>24.58840012550354</v>
+        <v>33.24263691902161</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -30316,19 +30316,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.04493201151490211</v>
+        <v>0.04928446933627129</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.1624083817005157</v>
+        <v>0.1750014126300812</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.3988806009292603</v>
+        <v>0.5765486359596252</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.2119717233852245</v>
+        <v>0.2220010570611574</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>25.63239932060242</v>
+        <v>29.79649603366852</v>
       </c>
     </row>
   </sheetData>

--- a/data/performance_sheets_option3/window2/BA11 Overall Model Peformance Results.xlsx
+++ b/data/performance_sheets_option3/window2/BA11 Overall Model Peformance Results.xlsx
@@ -1,35 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="805" firstSheet="16" activeTab="23" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Option 1 - LR1 - DN1 (80-20)" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Option 1 - LR1 - DN1 (60-40)" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Option 1 - LR1 - DN1 (70-30)" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Option 1 - LR1 - DN2 (80-20)" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Option 1 - LR1 - DN2 (60-40)" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Option 1 - LR1 - DN2 (70-30)" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Option 1 - LR2 - DN1 (80-20)" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Option 1 - LR2 - DN1 (60-40)" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Option 1 - LR2 - DN1 (70-30)" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Option 1 - LR2 - DN2 (60-40)" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Option 1 - LR2 - DN2 (70-30)" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Option 1 - LR2 - DN2 (80-20)" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Option 1 - NLR1 - DN1 (80-20)" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Option 1 - NLR1 - DN1 (70-30)" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Option 1 - NLR1 - DN1 (60-40)" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="Option 1 - NLR1 - DN2 (80-20)" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="Option 1 - NLR1 - DN2 (70-30)" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="Option 1 - NLR1 - DN2 (60-40)" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="Option 1 - NLR2 - DN1 (80-20)" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="Option 1 - NLR2 - DN1 (70-30)" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="Option 1 - NLR2 - DN1 (60-40)" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="Option 1 - NLR2 - DN2 (80-20)" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="Option 1 - NLR2 - DN2 (70-30)" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="Option 1 - NLR2 - DN2 (60-40)" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - LR1 - DN1 (80-20)" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - LR1 - DN1 (60-40)" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - LR1 - DN1 (70-30)" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - LR1 - DN2 (80-20)" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - LR1 - DN2 (60-40)" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - LR1 - DN2 (70-30)" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - LR2 - DN1 (80-20)" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - LR2 - DN1 (60-40)" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - LR2 - DN1 (70-30)" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - LR2 - DN2 (60-40)" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - LR2 - DN2 (70-30)" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - LR2 - DN2 (80-20)" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - NLR1 - DN1 (80-20)" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - NLR1 - DN1 (70-30)" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - NLR1 - DN1 (60-40)" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - NLR1 - DN2 (80-20)" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - NLR1 - DN2 (70-30)" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - NLR1 - DN2 (60-40)" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - NLR2 - DN1 (80-20)" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - NLR2 - DN1 (70-30)" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - NLR2 - DN1 (60-40)" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - NLR2 - DN2 (80-20)" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - NLR2 - DN2 (70-30)" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - NLR2 - DN2 (60-40)" sheetId="24" state="visible" r:id="rId24"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -894,19 +894,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03482935701157479</v>
+        <v>0.0548748226072627</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1492761775508428</v>
+        <v>0.1811024658773774</v>
       </c>
       <c r="F9" s="18" t="n">
-        <v>0.2009338563891563</v>
+        <v>0.6252691097656474</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1866262495244835</v>
+        <v>0.2342537568690474</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>21.40085768363254</v>
+        <v>31.77616228482158</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -924,19 +924,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.03482935701157479</v>
+        <v>0.0548748226072627</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.1492761775508428</v>
+        <v>0.1811024658773774</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.2009338563891563</v>
+        <v>0.6252691097656474</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.1866262495244835</v>
+        <v>0.2342537568690474</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>21.40085768363254</v>
+        <v>31.77616228482158</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -1014,23 +1014,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02318331095108384</v>
+        <v>0.0585582780044777</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.126011857003465</v>
+        <v>0.1900767357133461</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1700459852835665</v>
+        <v>0.6028780107899115</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1522606677743265</v>
+        <v>0.2419881774064132</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>18.87119865997597</v>
+        <v>33.46315548819099</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -1044,23 +1044,23 @@
       </c>
       <c r="K11" s="8" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.02249837693077362</v>
+        <v>0.0584159830275822</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.1245823260858609</v>
+        <v>0.1897733157133291</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.1685735607921824</v>
+        <v>0.6021938770648382</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.1499945896716732</v>
+        <v>0.2416939863289575</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>18.67385691817612</v>
+        <v>33.41497207041259</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -1596,19 +1596,19 @@
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.02725143300886463</v>
+        <v>0.0584631562255932</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1243487007791708</v>
+        <v>0.1899874978660923</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.155569476543128</v>
+        <v>0.6045655263539704</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1650800805938276</v>
+        <v>0.2417915553231609</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>17.37361433185083</v>
+        <v>33.43764979906006</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -1626,19 +1626,19 @@
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.02729919383240875</v>
+        <v>0.0345826607989226</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.1246947185145159</v>
+        <v>0.1436379959382014</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.1564297233484333</v>
+        <v>0.4927936964784578</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.1652246768264618</v>
+        <v>0.1859641384754669</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>17.44701164538177</v>
+        <v>26.64010183673737</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -1740,19 +1740,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.02560087293386459</v>
+        <v>0.05385886</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1340344101190567</v>
+        <v>0.17810053</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.1995363533496857</v>
+        <v>0.6435716</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.1600027278950724</v>
+        <v>0.232075120008956</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>19.156214594841</v>
+        <v>31.16891384124756</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -1766,23 +1766,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.02823320962488651</v>
+        <v>0.060331613</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1427037715911865</v>
+        <v>0.19595157</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.2109133452177048</v>
+        <v>0.6018845</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.1680274073622708</v>
+        <v>0.245624943410464</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>20.38903683423996</v>
+        <v>34.51878726482391</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -1798,23 +1798,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.01, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.01997424103319645</v>
+        <v>0.025201987</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1275647133588791</v>
+        <v>0.13568822</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1784268170595169</v>
+        <v>0.19532637</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1413302551939833</v>
+        <v>0.158751338498788</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>17.07337498664856</v>
+        <v>18.90861243009568</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -1828,23 +1828,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.01, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.02163079380989075</v>
+        <v>0.026039978</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1314417123794556</v>
+        <v>0.13460056</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.1868498176336288</v>
+        <v>0.19236094</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.1470741099238433</v>
+        <v>0.1613690753808788</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>17.58998185396194</v>
+        <v>18.74357163906097</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -2209,19 +2209,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2616953232759602</v>
+        <v>0.3437763968413672</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3308489167878408</v>
+        <v>0.3647612832729673</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2031787550172416</v>
+        <v>0.2720673726440656</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5115616514907663</v>
+        <v>0.586324480847736</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>14.2017972742216</v>
+        <v>16.53272817053076</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -2235,23 +2235,23 @@
       </c>
       <c r="K9" s="8" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.2616953232759602</v>
+        <v>0.3437763968413672</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.3308489167878408</v>
+        <v>0.3647612832729673</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.2031787550172416</v>
+        <v>0.2720673726440656</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.5115616514907663</v>
+        <v>0.586324480847736</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>14.2017972742216</v>
+        <v>16.53272817053076</v>
       </c>
     </row>
     <row r="10">
@@ -2333,19 +2333,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1166351266428194</v>
+        <v>0.9009646284138356</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.294273898863055</v>
+        <v>0.81225735528107</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1172543513233082</v>
+        <v>0.357589665594804</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3415188525437788</v>
+        <v>0.949191565709386</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>11.84145850273955</v>
+        <v>36.11101880238599</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -2363,19 +2363,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.3221512795485805</v>
+        <v>0.4734466815338031</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.4828767413201455</v>
+        <v>0.5754492618274814</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.1999495023996234</v>
+        <v>0.2606824608336291</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.567583720299112</v>
+        <v>0.6880746191611802</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>23.06696884657088</v>
+        <v>24.97521752021817</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -2907,23 +2907,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 200, 'min_child_weight': 1, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.3, 'colsample_bytree': 0.9}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.4918385339437786</v>
+        <v>0.8929924666045455</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.6072024786095941</v>
+        <v>0.8898164344494138</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2560156264504031</v>
+        <v>0.4073665204917887</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.7013120089830051</v>
+        <v>0.9449827864064748</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>26.17968208576268</v>
+        <v>41.23863236307198</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -2937,23 +2937,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 200, 'min_child_weight': 1, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.3, 'colsample_bytree': 0.9}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.4223242730392235</v>
+        <v>3.329366397506691</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.5440973911090728</v>
+        <v>1.598431672194476</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.2618009694039464</v>
+        <v>0.5985439131170454</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.6498648113563493</v>
+        <v>1.824655144816875</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>23.13544585237133</v>
+        <v>96.1396282111819</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -3055,19 +3055,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.2736490964889526</v>
+        <v>0.5403368</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.3488356471061707</v>
+        <v>0.5566511</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.2104970067739487</v>
+        <v>0.29227078</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.5231148023990074</v>
+        <v>0.7350760421212578</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>14.8612380027771</v>
+        <v>25.37831366062164</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -3081,23 +3081,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.2433565109968185</v>
+        <v>1.1137961</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.3125642538070679</v>
+        <v>0.8826404</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.1961694061756134</v>
+        <v>0.5321148</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.4933117786925613</v>
+        <v>1.055365394032593</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>13.5432630777359</v>
+        <v>31.93616569042205</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -3113,23 +3113,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1186034604907036</v>
+        <v>1.483414</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2895462214946747</v>
+        <v>1.1074444</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1101884916424751</v>
+        <v>0.40307385</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.3443885312996116</v>
+        <v>1.217954865303691</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>10.75297519564629</v>
+        <v>52.49494314193726</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -3143,23 +3143,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.1236900761723518</v>
+        <v>0.81247413</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.2628098130226135</v>
+        <v>0.79696935</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.09651543945074081</v>
+        <v>0.29264483</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.3516959996536097</v>
+        <v>0.9013734695364444</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>9.863892942667007</v>
+        <v>34.69252288341522</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -3179,19 +3179,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.734377980232239</v>
+        <v>1.7342325</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.139716863632202</v>
+        <v>1.1396523</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.6658967733383179</v>
+        <v>0.66586727</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.31695785059061</v>
+        <v>1.316902633036698</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>38.45059275627136</v>
+        <v>38.44895362854004</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -3209,19 +3209,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.7746689319610596</v>
+        <v>0.77405214</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.6658671498298645</v>
+        <v>0.66496336</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.4311692714691162</v>
+        <v>0.43104336</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.8801527889866961</v>
+        <v>0.8798023318319427</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>25.66962242126465</v>
+        <v>25.64206719398499</v>
       </c>
     </row>
   </sheetData>
@@ -3521,19 +3521,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1529578787043435</v>
+        <v>0.2606364332974145</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2777347546232478</v>
+        <v>0.3216560991222006</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1255895264380591</v>
+        <v>0.209556936213606</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3910982980074746</v>
+        <v>0.5105256441134123</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>11.02166239305382</v>
+        <v>14.00947691908368</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -3551,19 +3551,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.1529578787043435</v>
+        <v>0.2606364332974145</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.2777347546232478</v>
+        <v>0.3216560991222006</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.1255895264380591</v>
+        <v>0.209556936213606</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.3910982980074746</v>
+        <v>0.5105256441134123</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>11.02166239305382</v>
+        <v>14.00947691908368</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -3645,19 +3645,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.09577698601752702</v>
+        <v>0.3598096510868983</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2535640237679083</v>
+        <v>0.4953364709939961</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.09962893677961866</v>
+        <v>0.2175444742166214</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3094785711766277</v>
+        <v>0.5998413549322006</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>9.983106744119862</v>
+        <v>20.86146488742506</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -3675,19 +3675,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.3244698801213782</v>
+        <v>0.3699512422524675</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.5243664404787421</v>
+        <v>0.5049788715917333</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.2097728806926168</v>
+        <v>0.222493751148995</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.5696225769063039</v>
+        <v>0.6082361730877798</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>18.83568397962643</v>
+        <v>20.56252935361548</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -4219,23 +4219,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.7, 'reg_lambda': 0.1, 'reg_alpha': 0.1, 'n_estimators': 100, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.3, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 200, 'min_child_weight': 1, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.3, 'colsample_bytree': 0.9}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>3.448031133808566</v>
+        <v>3.662741225454</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1.762762464226574</v>
+        <v>1.771304622856314</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.6697102916457255</v>
+        <v>0.655254862203472</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>1.856887485500553</v>
+        <v>1.913828943624273</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>108.9417073176851</v>
+        <v>104.4059175798199</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -4249,23 +4249,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 1.0, 'n_estimators': 300, 'min_child_weight': 1, 'max_depth': 6, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.5351578309451028</v>
+        <v>0.5087740330762958</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.6086255203792399</v>
+        <v>0.6130303964682864</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.2239545785246477</v>
+        <v>0.3010638132284216</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.7315448249732226</v>
+        <v>0.713283977863162</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>25.92465214837999</v>
+        <v>26.65433656002647</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -4363,23 +4363,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.05}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.1584402918815613</v>
+        <v>0.3422935</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2872012555599213</v>
+        <v>0.4362772</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.1307718753814697</v>
+        <v>0.24434513</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.3980455902048926</v>
+        <v>0.5850585448485207</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>11.35638952255249</v>
+        <v>18.95276755094528</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -4393,23 +4393,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.1549153923988342</v>
+        <v>0.5438401</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.2736420631408691</v>
+        <v>0.5130489499999999</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.1252449154853821</v>
+        <v>0.3153929</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.3935929272723714</v>
+        <v>0.7374551581635126</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>10.88819950819016</v>
+        <v>19.9653223156929</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -4425,23 +4425,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.09143923223018646</v>
+        <v>0.5322171</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2608467638492584</v>
+        <v>0.6361058000000001</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.09782345592975616</v>
+        <v>0.23285492</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.3023892065371819</v>
+        <v>0.7295321002954432</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>9.353099763393402</v>
+        <v>22.61791378259659</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -4459,19 +4459,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.07501263171434402</v>
+        <v>0.84855044</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.2312817871570587</v>
+        <v>0.7793291</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.08305084705352783</v>
+        <v>0.2764615</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.273884340031233</v>
+        <v>0.9211679753882678</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>8.377616852521896</v>
+        <v>33.89537036418915</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -4491,19 +4491,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.468275308609009</v>
+        <v>1.463386</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.09308385848999</v>
+        <v>1.0910916</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.558099091053009</v>
+        <v>0.5571729</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.211724105813287</v>
+        <v>1.209704947004588</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>36.33222579956055</v>
+        <v>36.28181517124176</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -4521,19 +4521,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.7096688151359558</v>
+        <v>0.7095252</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.6885280609130859</v>
+        <v>0.6884322</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.3725322782993317</v>
+        <v>0.37249407</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.8424184323339298</v>
+        <v>0.8423332045851523</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>25.18053352832794</v>
+        <v>25.17779767513275</v>
       </c>
     </row>
   </sheetData>
@@ -4833,19 +4833,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.06726084144585461</v>
+        <v>0.1605467903509526</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2155105058152709</v>
+        <v>0.2635298869288247</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.0765684654293943</v>
+        <v>0.1283875925345773</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2593469518730741</v>
+        <v>0.4006829049896596</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>7.834417109646166</v>
+        <v>10.7104634776949</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -4863,19 +4863,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.06726084144585461</v>
+        <v>0.1605467903509526</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.2155105058152709</v>
+        <v>0.2635298869288247</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.0765684654293943</v>
+        <v>0.1283875925345773</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.2593469518730741</v>
+        <v>0.4006829049896596</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>7.834417109646166</v>
+        <v>10.7104634776949</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -4957,19 +4957,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1398609966205653</v>
+        <v>0.8248757505715043</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3309292676638445</v>
+        <v>0.7902035741033779</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1206694606400988</v>
+        <v>0.2984325808162995</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3739799414682093</v>
+        <v>0.9082267065945068</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>12.05976936983561</v>
+        <v>34.84343282925737</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -4987,19 +4987,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.4211746373077975</v>
+        <v>0.1821784424335316</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.5511626155500322</v>
+        <v>0.3614132843619654</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.2020045767401579</v>
+        <v>0.1482820109250382</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.6489796894416631</v>
+        <v>0.4268236666745785</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>21.02238310973943</v>
+        <v>13.74364032571378</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -5531,23 +5531,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 1.0, 'n_estimators': 300, 'min_child_weight': 1, 'max_depth': 6, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>1.051507692166143</v>
+        <v>2.856309977320956</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.9430657860965671</v>
+        <v>1.480776087680251</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.337396102404538</v>
+        <v>0.5423847947053835</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>1.02543049114318</v>
+        <v>1.690062122325968</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>42.26774941869939</v>
+        <v>85.66500082492924</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -5561,23 +5561,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.5795407135326099</v>
+        <v>2.1060412742039</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.6607600196164908</v>
+        <v>1.192406544184619</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.2319212772378637</v>
+        <v>0.4508857789639127</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.7612757145296374</v>
+        <v>1.451220615276637</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>27.32094146922273</v>
+        <v>69.59223165761449</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -5675,23 +5675,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.05908412486314774</v>
+        <v>0.7274068</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1979682296514511</v>
+        <v>0.74195683</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.07296625524759293</v>
+        <v>0.33015352</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2430722626363357</v>
+        <v>0.8528814687828804</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>7.185422629117966</v>
+        <v>25.48158764839172</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -5705,23 +5705,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.05}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.06254935264587402</v>
+        <v>0.13669054</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.2209117561578751</v>
+        <v>0.2505153</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.08064696192741394</v>
+        <v>0.11985135</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2500986858139683</v>
+        <v>0.3697168404358396</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>8.02217572927475</v>
+        <v>10.22124513983726</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -5737,23 +5737,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.05566629394888878</v>
+        <v>0.5270616</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.200692743062973</v>
+        <v>0.6116151</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.07059188187122345</v>
+        <v>0.21551119</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2359370550568282</v>
+        <v>0.7259900699125528</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>7.104390114545822</v>
+        <v>24.55447763204574</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -5767,23 +5767,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.05509833618998528</v>
+        <v>1.2325767</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.209350049495697</v>
+        <v>0.9685541</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.07434586435556412</v>
+        <v>0.34269142</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.2347303478248718</v>
+        <v>1.110214721514323</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>7.393669337034225</v>
+        <v>43.85711252689362</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -5803,19 +5803,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2427431344985962</v>
+        <v>0.24256317</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3240805566310883</v>
+        <v>0.32387227</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1636089980602264</v>
+        <v>0.16352381</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.4926896939236665</v>
+        <v>0.492507028553764</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>12.67513036727905</v>
+        <v>12.66829520463944</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -5833,19 +5833,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.4971365630626678</v>
+        <v>0.50173444</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.5354706645011902</v>
+        <v>0.538874</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.2489186525344849</v>
+        <v>0.25030488</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.7050791182999734</v>
+        <v>0.7083321505891986</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>19.52041834592819</v>
+        <v>19.60682570934296</v>
       </c>
     </row>
   </sheetData>
@@ -6139,53 +6139,53 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.0391078983929872</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.1542815605192919</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.3453942811802127</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.1977571702694677</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>25.21479245558708</v>
+      </c>
+      <c r="I9" s="9" t="inlineStr">
+        <is>
+          <t>Decision Tree Regressor</t>
+        </is>
+      </c>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
           <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
         </is>
       </c>
-      <c r="D9" s="5" t="n">
-        <v>0.05474586346482115</v>
-      </c>
-      <c r="E9" s="5" t="n">
-        <v>0.1561035865899559</v>
-      </c>
-      <c r="F9" s="5" t="n">
-        <v>1.463725255094422</v>
-      </c>
-      <c r="G9" s="5" t="n">
-        <v>0.2339783397343035</v>
-      </c>
-      <c r="H9" s="5" t="n">
-        <v>31.84971423703507</v>
-      </c>
-      <c r="I9" s="9" t="inlineStr">
-        <is>
-          <t>Decision Tree Regressor</t>
-        </is>
-      </c>
-      <c r="J9" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K9" s="8" t="inlineStr">
-        <is>
-          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
-        </is>
-      </c>
       <c r="L9" s="8" t="n">
-        <v>0.05474586346482117</v>
+        <v>0.0076788937537327</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.1561035865899559</v>
+        <v>0.0755629349713236</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>1.463725255094422</v>
+        <v>0.1267544092355839</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.2339783397343035</v>
+        <v>0.0876292973481627</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>31.84971423703508</v>
+        <v>12.37369547623131</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -6263,23 +6263,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.75, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'huber', 'learning_rate': 'optimal', 'l1_ratio': 1, 'fit_intercept': False, 'eta0': 0.001, 'alpha': 0.01}</t>
+          <t>{'tol': 0.001, 'power_t': 0.25, 'penalty': 'none', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'adaptive', 'l1_ratio': 0.7, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.4193856260152439</v>
+        <v>0.1785041812352009</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.5973340539100465</v>
+        <v>0.3493564042395678</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1</v>
+        <v>0.5341282048808731</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.647599896552836</v>
+        <v>0.4224975517505409</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>200</v>
+        <v>85.69329368190611</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -6293,23 +6293,23 @@
       </c>
       <c r="K11" s="8" t="inlineStr">
         <is>
-          <t>{'tol': 0.0001, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'adaptive', 'l1_ratio': 0.15, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.001}</t>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.1073574393420992</v>
+        <v>0.019892226136248</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.3062505288213078</v>
+        <v>0.1168678161884401</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>1.141868221620253</v>
+        <v>0.1979408436477961</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.3276544511251133</v>
+        <v>0.1410398033756713</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>68.24577305780217</v>
+        <v>19.86289725235382</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -6841,23 +6841,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.07484681951638376</v>
+        <v>0.0175362961501164</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2134170232314372</v>
+        <v>0.1131253525765857</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1.644640430905179</v>
+        <v>0.1984574750510696</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2735814677868071</v>
+        <v>0.1324246810459305</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>39.618228844836</v>
+        <v>18.70294703660026</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -6871,23 +6871,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.07484681951638376</v>
+        <v>0.008922272179337099</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.2134170232314372</v>
+        <v>0.0768988760707201</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>1.644640430905179</v>
+        <v>0.1639568154076857</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.2735814677868071</v>
+        <v>0.0944577798772402</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>39.618228844836</v>
+        <v>13.58158684820111</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -6985,23 +6985,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.1001380607485771</v>
+        <v>0.035117052</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2388554960489273</v>
+        <v>0.15315159</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1.817062616348267</v>
+        <v>0.3202391</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.3164459839349792</v>
+        <v>0.1873954441694877</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>41.66390299797058</v>
+        <v>24.75224286317825</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -7015,23 +7015,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.01}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.2549079358577728</v>
+        <v>0.030906932</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.4139675796031952</v>
+        <v>0.1425122</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>2.06303882598877</v>
+        <v>0.28251377</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.5048840816046519</v>
+        <v>0.175803675810488</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>60.62313914299011</v>
+        <v>23.83699119091034</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -7047,23 +7047,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 20, 'lr': 0.01, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.0760728120803833</v>
+        <v>0.06862124</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1792284697294235</v>
+        <v>0.18282372</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.8630043864250183</v>
+        <v>0.2378115</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2758130020147406</v>
+        <v>0.2619565623462029</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>30.5320531129837</v>
+        <v>28.57971489429474</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -7077,23 +7077,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.06591489166021347</v>
+        <v>0.015749283</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1781501173973083</v>
+        <v>0.09649523</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.7815937995910645</v>
+        <v>0.12914</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.2567389562575447</v>
+        <v>0.1254961478888387</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>32.10572302341461</v>
+        <v>13.27460408210754</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -7113,19 +7113,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.02597711235284805</v>
+        <v>0.025999036</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1281299442052841</v>
+        <v>0.12816036</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2534622550010681</v>
+        <v>0.25355527</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1611741677591296</v>
+        <v>0.1612421647282574</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>21.43474966287613</v>
+        <v>21.43985629081726</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -7143,19 +7143,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.03330852463841438</v>
+        <v>0.033307243</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.1398261189460754</v>
+        <v>0.13982233</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.3253605663776398</v>
+        <v>0.32535276</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.1825062317796693</v>
+        <v>0.1825027209072558</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>23.54813367128372</v>
+        <v>23.54786694049835</v>
       </c>
     </row>
   </sheetData>
@@ -7449,53 +7449,53 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
+          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.0156854339390706</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.094929228332923</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.1558993376288879</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.1252415024625249</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>16.77452376017399</v>
+      </c>
+      <c r="I9" s="9" t="inlineStr">
+        <is>
+          <t>Decision Tree Regressor</t>
+        </is>
+      </c>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
           <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
         </is>
       </c>
-      <c r="D9" s="5" t="n">
-        <v>0.06834122026298313</v>
-      </c>
-      <c r="E9" s="5" t="n">
-        <v>0.2053780216200532</v>
-      </c>
-      <c r="F9" s="5" t="n">
-        <v>1.630610378209952</v>
-      </c>
-      <c r="G9" s="5" t="n">
-        <v>0.2614215374887523</v>
-      </c>
-      <c r="H9" s="5" t="n">
-        <v>39.10374295068142</v>
-      </c>
-      <c r="I9" s="9" t="inlineStr">
-        <is>
-          <t>Decision Tree Regressor</t>
-        </is>
-      </c>
-      <c r="J9" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K9" s="8" t="inlineStr">
-        <is>
-          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
-        </is>
-      </c>
       <c r="L9" s="8" t="n">
-        <v>0.06834122026298313</v>
+        <v>0.0482758310538254</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.2053780216200532</v>
+        <v>0.1728952840782994</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>1.630610378209952</v>
+        <v>0.5133696785912291</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.2614215374887523</v>
+        <v>0.2197176166214839</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>39.10374295068142</v>
+        <v>29.91327163270417</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -7573,23 +7573,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.75, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'invscaling', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.01, 'alpha': 0.01}</t>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3695468301054595</v>
+        <v>0.0206255943404745</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.5390761035744012</v>
+        <v>0.09959195563657861</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.9662536122922788</v>
+        <v>0.1804265164314414</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.6079036355422293</v>
+        <v>0.143616135376477</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>148.1846251715514</v>
+        <v>17.27326140976361</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -7603,23 +7603,23 @@
       </c>
       <c r="K11" s="8" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.75, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'invscaling', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.01, 'alpha': 0.01}</t>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': False, 'eta0': 0.1, 'alpha': 1}</t>
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.3668478790984426</v>
+        <v>0.4123473579498197</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.5350891956954033</v>
+        <v>0.6196792062705748</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.9252062080302907</v>
+        <v>1.035513486492413</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.6056796835774192</v>
+        <v>0.6421427862631641</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>145.5814372590731</v>
+        <v>173.3028257596486</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -8151,23 +8151,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.06928202500348928</v>
+        <v>0.0179972740417809</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2066823920894507</v>
+        <v>0.1023223979557182</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1.647302078191616</v>
+        <v>0.2548274294633566</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2632147887248915</v>
+        <v>0.134153919218862</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>39.22953113949018</v>
+        <v>18.6892133928064</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -8181,23 +8181,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.06928202500348928</v>
+        <v>0.0348002786136809</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.2066823920894507</v>
+        <v>0.1364331062577261</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>1.647302078191616</v>
+        <v>0.3585586011518272</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.2632147887248915</v>
+        <v>0.1865483278233308</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>39.22953113949018</v>
+        <v>24.63804517172096</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -8295,23 +8295,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.0889023169875145</v>
+        <v>0.04201661</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2334314733743668</v>
+        <v>0.13152513</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1.88642942905426</v>
+        <v>0.5353347000000001</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2981649157555504</v>
+        <v>0.2049795367913507</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>41.9963926076889</v>
+        <v>23.38411808013916</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -8325,23 +8325,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.09734447300434113</v>
+        <v>0.036870252</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.2494940608739853</v>
+        <v>0.13573079</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>1.829852938652039</v>
+        <v>0.49347702</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.3120007580188566</v>
+        <v>0.1920162814477773</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>44.43391859531403</v>
+        <v>24.16697591543198</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -8361,19 +8361,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.07425031065940857</v>
+        <v>0.032109123</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2183295041322708</v>
+        <v>0.12992942</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.7939708232879639</v>
+        <v>0.18633331</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2724891019094315</v>
+        <v>0.1791901859012959</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>37.73702383041382</v>
+        <v>18.98687928915024</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -8387,23 +8387,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.001, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.09585510939359665</v>
+        <v>0.08118723</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.2435127794742584</v>
+        <v>0.22859372</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.8518258333206177</v>
+        <v>0.30525017</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.3096047631959118</v>
+        <v>0.2849337349785372</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>41.21223986148834</v>
+        <v>35.74093580245972</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -8423,19 +8423,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.0373058058321476</v>
+        <v>0.037373114</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1434344202280045</v>
+        <v>0.14343098</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.4723204970359802</v>
+        <v>0.47295326</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1931471093031102</v>
+        <v>0.1933212724385503</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>25.88042318820953</v>
+        <v>25.88136792182922</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -8453,19 +8453,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.4882715046405792</v>
+        <v>0.48789358</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.5903236269950867</v>
+        <v>0.5900860999999999</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>1.456581830978394</v>
+        <v>1.4559207</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.6987642697223286</v>
+        <v>0.6984937948116511</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>95.98618745803833</v>
+        <v>95.97674608230592</v>
       </c>
     </row>
   </sheetData>
@@ -8759,53 +8759,53 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
+          <t>{'splitter': 'best', 'min_samples_split': 2, 'min_samples_leaf': 1, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': 7, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.0235037525951126</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.1174786862595787</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.3384862158196379</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.1533093362946715</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>23.2669492009118</v>
+      </c>
+      <c r="I9" s="9" t="inlineStr">
+        <is>
+          <t>Decision Tree Regressor</t>
+        </is>
+      </c>
+      <c r="J9" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K9" s="8" t="inlineStr">
+        <is>
           <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
         </is>
       </c>
-      <c r="D9" s="5" t="n">
-        <v>0.06725661757062271</v>
-      </c>
-      <c r="E9" s="5" t="n">
-        <v>0.2043817523455964</v>
-      </c>
-      <c r="F9" s="5" t="n">
-        <v>1.63073141865021</v>
-      </c>
-      <c r="G9" s="5" t="n">
-        <v>0.2593388084545441</v>
-      </c>
-      <c r="H9" s="5" t="n">
-        <v>38.48364041756974</v>
-      </c>
-      <c r="I9" s="9" t="inlineStr">
-        <is>
-          <t>Decision Tree Regressor</t>
-        </is>
-      </c>
-      <c r="J9" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K9" s="8" t="inlineStr">
-        <is>
-          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
-        </is>
-      </c>
       <c r="L9" s="8" t="n">
-        <v>0.06725661757062271</v>
+        <v>0.0574563238505272</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.2043817523455964</v>
+        <v>0.1883404668773241</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>1.63073141865021</v>
+        <v>0.642976757374811</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.2593388084545441</v>
+        <v>0.2397004877978501</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>38.48364041756974</v>
+        <v>33.28195026169174</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -8883,23 +8883,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.75, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'invscaling', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.01, 'alpha': 0.01}</t>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3636460835014859</v>
+        <v>0.0284545691774916</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.5433862837107105</v>
+        <v>0.1299529021314917</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.153687256827076</v>
+        <v>0.3384833374046019</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.6030307483880784</v>
+        <v>0.1686848220128048</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>145.3117323786315</v>
+        <v>24.20603371299362</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -8913,23 +8913,23 @@
       </c>
       <c r="K11" s="8" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.75, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'invscaling', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.01, 'alpha': 0.01}</t>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': False, 'eta0': 0.1, 'alpha': 1}</t>
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.3811066101387294</v>
+        <v>0.4108332574207106</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.5654800677733564</v>
+        <v>0.6195546537052803</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.9194424797842633</v>
+        <v>1.11333059227601</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.617338327126001</v>
+        <v>0.6409627582166616</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>169.9676409235431</v>
+        <v>167.2860245385848</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -9461,23 +9461,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.0519997465116185</v>
+        <v>0.0219223366505302</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1765658199330702</v>
+        <v>0.107811227534989</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1.565787712229261</v>
+        <v>0.3052695653513533</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2280345292091057</v>
+        <v>0.1480619351843352</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>34.93645250746249</v>
+        <v>20.76839463862959</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -9491,23 +9491,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.05076459136673969</v>
+        <v>0.0292485292502833</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.165781046382461</v>
+        <v>0.1267731608491104</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>1.609008414117752</v>
+        <v>0.3585480243860544</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.2253099894961155</v>
+        <v>0.1710220139347076</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>33.02909247010019</v>
+        <v>24.42694055417235</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -9605,23 +9605,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.0685180202126503</v>
+        <v>0.056170654</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.18748939037323</v>
+        <v>0.14910893</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1.800038695335388</v>
+        <v>0.67725956</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2617594701489333</v>
+        <v>0.2370034884802688</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>37.52506971359253</v>
+        <v>26.35618150234222</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -9639,19 +9639,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.07101105898618698</v>
+        <v>0.041141525</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.21351657807827</v>
+        <v>0.15169936</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>1.269214034080505</v>
+        <v>0.57978547</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.266479002899266</v>
+        <v>0.2028337371122635</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>47.6929783821106</v>
+        <v>28.35405170917511</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -9667,23 +9667,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.04238777980208397</v>
+        <v>0.025790943</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1435152590274811</v>
+        <v>0.13364936</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.5089753866195679</v>
+        <v>0.23808913</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2058829274177049</v>
+        <v>0.1605955878373611</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>27.83540487289429</v>
+        <v>22.17188030481339</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -9697,23 +9697,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.04447593167424202</v>
+        <v>0.026207445</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1361175328493118</v>
+        <v>0.13027482</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.5239936709403992</v>
+        <v>0.22918604</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.2108931759783659</v>
+        <v>0.1618871371955066</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>25.39217472076416</v>
+        <v>21.18821740150452</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -9733,19 +9733,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.07498874515295029</v>
+        <v>0.07498704</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2264694273471832</v>
+        <v>0.22646822</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.7312770485877991</v>
+        <v>0.7312563</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2738407295362585</v>
+        <v>0.2738376142351404</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>39.93274867534637</v>
+        <v>39.93300497531891</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -9763,19 +9763,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>1.162267684936523</v>
+        <v>1.1622667</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.854371190071106</v>
+        <v>0.8543709</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>1.896551847457886</v>
+        <v>1.8965502</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>1.078085193728456</v>
+        <v>1.078084751428294</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>96.47153615951538</v>
+        <v>96.47146463394164</v>
       </c>
     </row>
   </sheetData>
@@ -10069,23 +10069,23 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.6257662666205206</v>
+        <v>0.1605467903509526</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4011180826469165</v>
+        <v>0.2635298869288247</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6062875802904727</v>
+        <v>0.1283875925345773</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.7910538961540614</v>
+        <v>0.4006829049896596</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>19.94247866720976</v>
+        <v>10.7104634776949</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -10099,23 +10099,23 @@
       </c>
       <c r="K9" s="8" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.6257662666205206</v>
+        <v>0.1605467903509526</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.4011180826469165</v>
+        <v>0.2635298869288247</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.6062875802904727</v>
+        <v>0.1283875925345773</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.7910538961540614</v>
+        <v>0.4006829049896596</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>19.94247866720976</v>
+        <v>10.7104634776949</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -10193,23 +10193,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.75, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'invscaling', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.01, 'alpha': 0.01}</t>
+          <t>{'tol': 0.0001, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'adaptive', 'l1_ratio': 0.15, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.001}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>6.295713890119815</v>
+        <v>0.2371689397217842</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.431295883350943</v>
+        <v>0.3863888762406156</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.992299362089084</v>
+        <v>0.1591235932660396</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>2.509126120807764</v>
+        <v>0.4869999381127109</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>178.1484440362642</v>
+        <v>15.88547567240787</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -10223,23 +10223,23 @@
       </c>
       <c r="K11" s="8" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.75, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'invscaling', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.01, 'alpha': 0.01}</t>
+          <t>{'tol': 0.0001, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'adaptive', 'l1_ratio': 0.15, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.001}</t>
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>6.285490447960541</v>
+        <v>0.2373196361535782</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>2.38178129814785</v>
+        <v>0.3869365659234321</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>1.023485959863586</v>
+        <v>0.1592525215229622</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>2.507088041525575</v>
+        <v>0.4871546326923087</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>157.9175449834099</v>
+        <v>15.92311084500813</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -10771,23 +10771,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 1.0, 'n_estimators': 300, 'min_child_weight': 1, 'max_depth': 6, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.6095355198610305</v>
+        <v>0.118875406681418</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.3980523559641109</v>
+        <v>0.2453817475725901</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.6010302407195709</v>
+        <v>0.1119550240077254</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.780727558025865</v>
+        <v>0.344783129925781</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>19.82705586314702</v>
+        <v>10.22949351681945</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -10801,23 +10801,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 1.0, 'n_estimators': 300, 'min_child_weight': 1, 'max_depth': 6, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.6095355198610305</v>
+        <v>0.1233291253800812</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.3980523559641109</v>
+        <v>0.2742248819012971</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.6010302407195709</v>
+        <v>0.1232374809009458</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.780727558025865</v>
+        <v>0.3511824673586101</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>19.82705586314702</v>
+        <v>11.48117138952194</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -10915,23 +10915,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.5497907400131226</v>
+        <v>0.17765419</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.4125489890575409</v>
+        <v>0.26745147</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.5649086833000183</v>
+        <v>0.1318113</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.7414787522330782</v>
+        <v>0.4214904409967276</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>20.58187276124954</v>
+        <v>10.77579632401466</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -10945,23 +10945,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.6825843453407288</v>
+        <v>0.5038652</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.4643343985080719</v>
+        <v>0.5119239</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.6161564588546753</v>
+        <v>0.22116406</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.8261866286383052</v>
+        <v>0.7098346162309568</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>22.15951830148697</v>
+        <v>17.74041950702667</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -10977,23 +10977,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.3978931307792664</v>
+        <v>0.6644923</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.4303617179393768</v>
+        <v>0.54363436</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.4551495611667633</v>
+        <v>0.18605016</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.6307877065853982</v>
+        <v>0.8151639768129326</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>20.19952833652496</v>
+        <v>23.26479703187943</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -11007,23 +11007,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.4250817000865936</v>
+        <v>0.6794753</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.4095300734043121</v>
+        <v>0.55201733</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.5574740171432495</v>
+        <v>0.18930244</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.6519828986151351</v>
+        <v>0.8243029221497395</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>18.27426552772522</v>
+        <v>23.76734465360641</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -11043,19 +11043,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1654601842164993</v>
+        <v>0.16542819</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2662162184715271</v>
+        <v>0.26624316</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.131292998790741</v>
+        <v>0.13129894</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.4067679734400182</v>
+        <v>0.4067286459341364</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>10.73509603738785</v>
+        <v>10.73610410094261</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -11073,19 +11073,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.174430713057518</v>
+        <v>0.17542426</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.3062175214290619</v>
+        <v>0.30662858</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.1388030797243118</v>
+        <v>0.13899244</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.4176490309548413</v>
+        <v>0.418836797429833</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>12.3899981379509</v>
+        <v>12.40786835551262</v>
       </c>
     </row>
   </sheetData>
@@ -11379,23 +11379,23 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 2, 'min_samples_leaf': 1, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': 7, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.5440884572019422</v>
+        <v>0.2606364332974145</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3692349391290017</v>
+        <v>0.3216560991222006</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.5433468036089538</v>
+        <v>0.209556936213606</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.7376235199625498</v>
+        <v>0.5105256441134123</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>19.04856062020076</v>
+        <v>14.00947691908368</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -11409,23 +11409,23 @@
       </c>
       <c r="K9" s="8" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 2, 'min_samples_leaf': 1, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': 7, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.6116727752708141</v>
+        <v>0.2606364332974145</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.3656294005741575</v>
+        <v>0.3216560991222006</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.6331239977022973</v>
+        <v>0.209556936213606</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.7820951190685275</v>
+        <v>0.5105256441134123</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>18.07711154836788</v>
+        <v>14.00947691908368</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -11507,19 +11507,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>14.92498321868537</v>
+        <v>6.760132364605655</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3.458798460102136</v>
+        <v>2.484177766534358</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.875973305701093</v>
+        <v>1.001870601936005</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>3.863286582520817</v>
+        <v>2.600025454607253</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>168.0941857611412</v>
+        <v>155.0145679682372</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -11533,23 +11533,23 @@
       </c>
       <c r="K11" s="8" t="inlineStr">
         <is>
-          <t>{'tol': 0.0001, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'adaptive', 'l1_ratio': 0.15, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.001}</t>
+          <t>{'tol': 0.001, 'power_t': 0.25, 'penalty': 'none', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'adaptive', 'l1_ratio': 0.7, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.4908834688505802</v>
+        <v>322.7516216974966</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.3175909028417379</v>
+        <v>15.94960557296569</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.5572312294355426</v>
+        <v>6.832038632010455</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.7006307649900768</v>
+        <v>17.96528935746643</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>16.89848048975398</v>
+        <v>166.3245995287158</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -12081,23 +12081,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0.5, 'reg_alpha': 0.5, 'n_estimators': 1000, 'min_child_weight': 1, 'max_depth': 8, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.5574278639508986</v>
+        <v>0.218072947323658</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.3712980419430403</v>
+        <v>0.3252573937959744</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.5870638477573765</v>
+        <v>0.1579294620340878</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.7466109187193143</v>
+        <v>0.466982812664083</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>18.94271014353479</v>
+        <v>14.64459098165413</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -12111,23 +12111,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0.5, 'reg_alpha': 0.5, 'n_estimators': 1000, 'min_child_weight': 1, 'max_depth': 8, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 0.8, 'reg_lambda': 0.5, 'reg_alpha': 1.0, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 8, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.5449610828260236</v>
+        <v>0.4412102722698192</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.3717322086586705</v>
+        <v>0.3910952444583689</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.5884222293653868</v>
+        <v>0.1923866276556803</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.7382147945049757</v>
+        <v>0.6642366086492216</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>18.99667420468428</v>
+        <v>19.03906310066638</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -12229,19 +12229,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.6687113642692566</v>
+        <v>0.44107643</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.4256868958473206</v>
+        <v>0.43044916</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.6586707830429077</v>
+        <v>0.27338842</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.8177477387735514</v>
+        <v>0.6641358503334505</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>20.70137858390808</v>
+        <v>17.31473803520203</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -12255,23 +12255,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.8182780146598816</v>
+        <v>0.26593542</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.5030049681663513</v>
+        <v>0.38339767</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.7401229739189148</v>
+        <v>0.19241661</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.9045872067743836</v>
+        <v>0.5156892678638855</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>22.8481337428093</v>
+        <v>15.84600657224655</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -12287,23 +12287,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>531.2828369140625</v>
+        <v>0.44353032</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>14.89285087585449</v>
+        <v>0.4602617</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>6.415177345275879</v>
+        <v>0.16658364</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>23.04957346490521</v>
+        <v>0.6659807212834437</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>180.7121634483337</v>
+        <v>18.80440413951873</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -12317,23 +12317,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.3776726722717285</v>
+        <v>0.17596944</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.3096204698085785</v>
+        <v>0.31112546</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.5147974491119385</v>
+        <v>0.112178355</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.6145507890091172</v>
+        <v>0.4194871115597201</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>14.29843157529831</v>
+        <v>11.86006590723991</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -12353,19 +12353,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>45.90182113647461</v>
+        <v>45.878872</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.585239887237549</v>
+        <v>4.583742</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.845409989356995</v>
+        <v>1.8446536</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>6.775088275179491</v>
+        <v>6.773394416223272</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>109.9648952484131</v>
+        <v>109.9241852760315</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -12383,19 +12383,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>69815.2578125</v>
+        <v>68698.66</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>225.1143646240234</v>
+        <v>223.54198</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>106.0896301269531</v>
+        <v>105.35477</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>264.2257705306203</v>
+        <v>262.1042850660782</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>194.5417881011963</v>
+        <v>193.9570069313049</v>
       </c>
     </row>
   </sheetData>
@@ -12693,19 +12693,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.672366185836622</v>
+        <v>0.3437763968413672</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4596657211954301</v>
+        <v>0.3647612832729673</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3795317704553525</v>
+        <v>0.2720673726440656</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.8199793813484715</v>
+        <v>0.586324480847736</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>21.56715269209275</v>
+        <v>16.53272817053076</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -12719,23 +12719,23 @@
       </c>
       <c r="K9" s="8" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 2, 'min_samples_leaf': 1, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': 7, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.5168298178044743</v>
+        <v>0.3437763968413672</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.3040068211799011</v>
+        <v>0.3647612832729673</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.27068719169026</v>
+        <v>0.2720673726440656</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.7189087687630986</v>
+        <v>0.586324480847736</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>15.07905309422617</v>
+        <v>16.53272817053076</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -12813,23 +12813,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+          <t>{'tol': 1e-05, 'power_t': 0.75, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'invscaling', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.01, 'alpha': 0.01}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.4279686905369617</v>
+        <v>7.982475135187887</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3296554870268785</v>
+        <v>2.606856016966494</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2793522747435711</v>
+        <v>1.013461651682643</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.6541931599588624</v>
+        <v>2.825327438579091</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>17.06941590666621</v>
+        <v>156.9028567918051</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -12843,23 +12843,23 @@
       </c>
       <c r="K11" s="8" t="inlineStr">
         <is>
-          <t>{'tol': 0.001, 'power_t': 0.25, 'penalty': 'none', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'adaptive', 'l1_ratio': 0.7, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+          <t>{'tol': 1e-05, 'power_t': 0.75, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'invscaling', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.01, 'alpha': 0.01}</t>
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>7.970073025314451</v>
+        <v>7.870427753243576</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>2.493961793300526</v>
+        <v>2.610819090107064</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>1.12517321792414</v>
+        <v>1.014133828146112</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>2.823131776115747</v>
+        <v>2.805428265567234</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>143.1482387871324</v>
+        <v>159.266956860329</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -13391,23 +13391,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.4786908779573188</v>
+        <v>0.3592394505130383</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2795385896733029</v>
+        <v>0.3423209386484989</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2668195377649311</v>
+        <v>0.2161638412390623</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.6918749005111536</v>
+        <v>0.5993658736640236</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>14.27741534493625</v>
+        <v>17.1131931048302</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -13421,23 +13421,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.4762061613332538</v>
+        <v>0.2520188367083872</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.2754554591345393</v>
+        <v>0.3136187779152846</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.2646774928451864</v>
+        <v>0.1958565290620946</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.6900769242144341</v>
+        <v>0.5020147773804943</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>14.11667554390949</v>
+        <v>15.35515954178778</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -13535,23 +13535,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.6056213974952698</v>
+        <v>0.6823486</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.3557443916797638</v>
+        <v>0.5472531</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.3340782523155212</v>
+        <v>0.3661162</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.7782168062277182</v>
+        <v>0.8260439509921019</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>17.64209121465683</v>
+        <v>21.63701951503754</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -13569,19 +13569,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.5039163827896118</v>
+        <v>0.4396961</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.3495173156261444</v>
+        <v>0.4197437</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.3093168139457703</v>
+        <v>0.3131994</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.7098706803281931</v>
+        <v>0.6630958477734775</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>17.92156398296356</v>
+        <v>18.28864365816116</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -13597,23 +13597,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 20, 'lr': 0.01, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2404628098011017</v>
+        <v>0.2815655</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2426860928535461</v>
+        <v>0.4204085</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1705424785614014</v>
+        <v>0.1682621</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.4903700743327448</v>
+        <v>0.5306274468822699</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>11.14168837666512</v>
+        <v>16.69476926326752</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -13627,23 +13627,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 20, 'lr': 0.01, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.25334632396698</v>
+        <v>0.14776516</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.3606849908828735</v>
+        <v>0.27793017</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.1907774060964584</v>
+        <v>0.11326704</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.5033352004052369</v>
+        <v>0.3844023407927345</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>15.84290117025375</v>
+        <v>11.09014376997948</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -13663,19 +13663,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3593257069587708</v>
+        <v>0.35925946</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.4612239003181458</v>
+        <v>0.46118453</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2869165241718292</v>
+        <v>0.286884</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.5994378257657509</v>
+        <v>0.5993825626393404</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>20.68594694137573</v>
+        <v>20.6849217414856</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -13693,19 +13693,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.5002461671829224</v>
+        <v>0.49880928</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.5138739943504333</v>
+        <v>0.5139633</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.3329532742500305</v>
+        <v>0.33269766</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.707280826251442</v>
+        <v>0.7062643117214136</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>22.20711261034012</v>
+        <v>22.21027463674545</v>
       </c>
     </row>
   </sheetData>
@@ -13967,19 +13967,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03482935701157479</v>
+        <v>0.0391078983929872</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1492761775508428</v>
+        <v>0.1542815605192919</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2009338563891563</v>
+        <v>0.3453942811802127</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1866262495244835</v>
+        <v>0.1977571702694677</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>21.40085768363254</v>
+        <v>25.21479245558708</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -14051,23 +14051,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02038857403987366</v>
+        <v>0.0435620002279079</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1112476956031913</v>
+        <v>0.1622281145528993</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1472504280743567</v>
+        <v>0.3392531778053113</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1427885641074721</v>
+        <v>0.2087151173918841</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>15.73993630831041</v>
+        <v>26.58086551813058</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -14485,23 +14485,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.03637772233756317</v>
+        <v>0.0272636578973382</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1414468720063614</v>
+        <v>0.1224255344863193</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1854988636491001</v>
+        <v>0.2677039798722685</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1907294480083324</v>
+        <v>0.1651171035881452</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>20.95490596653418</v>
+        <v>20.56220092308983</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -14611,23 +14611,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 100, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.02334370836615562</v>
+        <v>0.044204883</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1209671273827553</v>
+        <v>0.16109064</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.189068466424942</v>
+        <v>0.4198115</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.1527864796575784</v>
+        <v>0.2102495737865269</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>17.13345050811768</v>
+        <v>25.70953071117401</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -14655,23 +14655,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.01, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.0170481912791729</v>
+        <v>0.023806937</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1146156117320061</v>
+        <v>0.12647131</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1547948718070984</v>
+        <v>0.1725327</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1305687224383118</v>
+        <v>0.1542949676395781</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>15.32871574163437</v>
+        <v>17.69544631242752</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -14703,19 +14703,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.04563507437705994</v>
+        <v>0.04562746</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1676891148090363</v>
+        <v>0.16767423</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.4320254623889923</v>
+        <v>0.43197423</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2136236746642561</v>
+        <v>0.2136058517075079</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>26.5464723110199</v>
+        <v>26.54476165771484</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -15021,23 +15021,23 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04377285395872856</v>
+        <v>0.0643201539003513</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1627441219951585</v>
+        <v>0.1995994810239763</v>
       </c>
       <c r="F9" s="18" t="n">
-        <v>0.4327899107172457</v>
+        <v>0.7862153435217103</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2092196309114624</v>
+        <v>0.2536141831608622</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>31.17291429381028</v>
+        <v>36.07352887796457</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -15051,23 +15051,23 @@
       </c>
       <c r="K9" s="8" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.04448949684801774</v>
+        <v>0.0643201539003513</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.1618196904100054</v>
+        <v>0.1995994810239763</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.4334278238972956</v>
+        <v>0.7862153435217103</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.2109253347704295</v>
+        <v>0.2536141831608622</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>30.58235742064967</v>
+        <v>36.07352887796457</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -15145,23 +15145,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03276839407877064</v>
+        <v>0.0677290390473982</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1369327250871655</v>
+        <v>0.2091385868044314</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3537244566174633</v>
+        <v>0.7527665614719842</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1810204244795892</v>
+        <v>0.2602480337051527</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>24.05781496995306</v>
+        <v>37.93907008774959</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -15175,23 +15175,23 @@
       </c>
       <c r="K11" s="8" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.03247456093675517</v>
+        <v>0.0675905448250288</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.1363984822108544</v>
+        <v>0.2088549057753801</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.3527569988919325</v>
+        <v>0.7522514996766227</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.1802069946943103</v>
+        <v>0.2599818163353522</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>23.97285563833515</v>
+        <v>37.89307768676532</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -15723,23 +15723,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.03000538776448996</v>
+        <v>0.0674329008815691</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1268096081058513</v>
+        <v>0.2088630177250339</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.3784154479694666</v>
+        <v>0.7530095819601339</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1732206331950382</v>
+        <v>0.2596784567143935</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>22.68708325465058</v>
+        <v>37.89204818517277</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -15753,23 +15753,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0, 'reg_alpha': 0.1, 'n_estimators': 400, 'min_child_weight': 5, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.2, 'colsample_bytree': 0.9}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.02907409505069043</v>
+        <v>0.050085174970881</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.12620542137573</v>
+        <v>0.1779699485945135</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.3792767129468217</v>
+        <v>0.6757412602615579</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.1705112754356451</v>
+        <v>0.2237971737330055</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>21.92473990054418</v>
+        <v>33.39239437757563</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -15867,23 +15867,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.05284873396158218</v>
+        <v>0.087170444</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1800126880407333</v>
+        <v>0.2250438</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.5547915101051331</v>
+        <v>1.0417124</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2298885250759206</v>
+        <v>0.295246413066985</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>29.93873059749603</v>
+        <v>37.82036006450653</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -15897,23 +15897,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.01}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.05288932099938393</v>
+        <v>0.0808524</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1796399354934692</v>
+        <v>0.2158438</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.5557022094726562</v>
+        <v>1.004243</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2299767836095286</v>
+        <v>0.2843455587594308</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>29.86891865730286</v>
+        <v>36.86963319778442</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -15929,23 +15929,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.01, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.03226504102349281</v>
+        <v>0.04767829</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1525837033987045</v>
+        <v>0.17398916</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2672915160655975</v>
+        <v>0.40335035</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1796247227513318</v>
+        <v>0.2183535935074986</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>22.44773507118225</v>
+        <v>27.75790989398956</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -15959,23 +15959,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.01, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.03417089581489563</v>
+        <v>0.045895983</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.157896026968956</v>
+        <v>0.16848356</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.273131400346756</v>
+        <v>0.4183276</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.1848537146364542</v>
+        <v>0.214233476687686</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>23.16350340843201</v>
+        <v>26.8490195274353</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -16299,19 +16299,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04391648603357255</v>
+        <v>0.0482758310538254</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1679726000896552</v>
+        <v>0.1728952840782994</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3390046768527005</v>
+        <v>0.5133696785912291</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2095626064773307</v>
+        <v>0.2197176166214839</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>26.8385981240602</v>
+        <v>29.91327163270417</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -16387,19 +16387,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.07706938012820704</v>
+        <v>0.0511267240263116</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2376623906410265</v>
+        <v>0.1795246533905039</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.4190958201555056</v>
+        <v>0.4918040980446434</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2776137246755049</v>
+        <v>0.2261121934489859</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>41.16945627450897</v>
+        <v>31.18429017578915</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -16817,23 +16817,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.04857253880210374</v>
+        <v>0.0357983267544152</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1759669053103863</v>
+        <v>0.1502948357055921</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.3354370410745176</v>
+        <v>0.3672876975396808</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2203917847881444</v>
+        <v>0.1892044575437249</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>28.18623365217133</v>
+        <v>26.94282576842535</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -16943,23 +16943,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.01}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.03785674646496773</v>
+        <v>0.06014702</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1544671356678009</v>
+        <v>0.18665054</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.3333182334899902</v>
+        <v>0.6499793</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.1945681023831186</v>
+        <v>0.2452488959522847</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>24.63697344064713</v>
+        <v>30.95144033432007</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -16987,23 +16987,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.049577496945858</v>
+        <v>0.041873228</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1800204664468765</v>
+        <v>0.17447051</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2685602009296417</v>
+        <v>0.25811577</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2226600479337459</v>
+        <v>0.2046294890891809</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>26.00626647472382</v>
+        <v>29.66504991054535</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -17035,19 +17035,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.05463537201285362</v>
+        <v>0.05456058</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1694003343582153</v>
+        <v>0.16902536</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.6280457377433777</v>
+        <v>0.627121</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2337421057765451</v>
+        <v>0.2335820612965203</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>28.5798966884613</v>
+        <v>28.5215675830841</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -17317,23 +17317,23 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.05396811629456583</v>
+        <v>0.0433399881560287</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1842442790310237</v>
+        <v>0.156098476807086</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.5103780368010534</v>
+        <v>0.4653228462565583</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2323103878318097</v>
+        <v>0.208182583700051</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>30.89228775050308</v>
+        <v>29.53754920822108</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -17409,19 +17409,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.05416642155735302</v>
+        <v>0.0603110759997363</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1825288370776698</v>
+        <v>0.1951674369496464</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.4705924783213175</v>
+        <v>0.6153267174216174</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2327368074829442</v>
+        <v>0.2455831345995411</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>30.95162101447211</v>
+        <v>34.62984305811877</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -17839,23 +17839,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.03929444588778564</v>
+        <v>0.0413628529454249</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1523308860440497</v>
+        <v>0.1541271944209822</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.4647336214802634</v>
+        <v>0.538537731752714</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1982282671260223</v>
+        <v>0.2033785951014141</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>26.0928436266239</v>
+        <v>28.27100909486689</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -17969,19 +17969,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.05020279437303543</v>
+        <v>0.098913774</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1754578948020935</v>
+        <v>0.243263</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.5461426377296448</v>
+        <v>0.95572305</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.224059800885914</v>
+        <v>0.3145056023257932</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>29.29931879043579</v>
+        <v>38.40925693511963</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -18013,19 +18013,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.03516076877713203</v>
+        <v>0.038047582</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1622574329376221</v>
+        <v>0.15789224</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2605380117893219</v>
+        <v>0.2523314</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1875120496851657</v>
+        <v>0.1950578937420555</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>23.59862923622131</v>
+        <v>26.64948999881744</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -18057,19 +18057,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.0605219230055809</v>
+        <v>0.060524553</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1801760494709015</v>
+        <v>0.1801789</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.7340483665466309</v>
+        <v>0.73406935</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2460120383346736</v>
+        <v>0.2460173836551629</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>31.31685554981232</v>
+        <v>31.31712675094604</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -18343,19 +18343,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.06726084144585461</v>
+        <v>0.1605467903509526</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2155105058152709</v>
+        <v>0.2635298869288247</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.0765684654293943</v>
+        <v>0.1283875925345773</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2593469518730741</v>
+        <v>0.4006829049896596</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>7.834417109646166</v>
+        <v>10.7104634776949</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -18431,19 +18431,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1751885660158428</v>
+        <v>0.2486587661092244</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3463950500272504</v>
+        <v>0.4018060480113001</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1190325399000632</v>
+        <v>0.1686243771803335</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.4185553320838749</v>
+        <v>0.4986569623591196</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>12.99439137621602</v>
+        <v>16.25424412558797</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -18861,23 +18861,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.5, 'reg_alpha': 0.5, 'n_estimators': 1000, 'min_child_weight': 1, 'max_depth': 8, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.5322012600901121</v>
+        <v>0.2653542840685126</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.495291168116549</v>
+        <v>0.4149840030545778</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1812055603391162</v>
+        <v>0.1672159588645301</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.7295212540359</v>
+        <v>0.5151255032208293</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>23.67131647433326</v>
+        <v>17.25317379809243</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -18987,23 +18987,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.05862651020288467</v>
+        <v>0.23540081</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2024001628160477</v>
+        <v>0.39978582</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.07363590598106384</v>
+        <v>0.16774407</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2421291188661221</v>
+        <v>0.4851812144320364</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>7.348831743001938</v>
+        <v>16.16775095462799</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -19035,19 +19035,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.06588702648878098</v>
+        <v>0.09043922</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2245190888643265</v>
+        <v>0.21846674</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.07803742587566376</v>
+        <v>0.07416341</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2566846830038383</v>
+        <v>0.3007311469619466</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>7.948312908411026</v>
+        <v>7.935108244419098</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -19079,19 +19079,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1861597299575806</v>
+        <v>0.1861624</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.340253084897995</v>
+        <v>0.34025827</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1487765461206436</v>
+        <v>0.14877817</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.4314623158024123</v>
+        <v>0.4314654068003995</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>13.75270634889603</v>
+        <v>13.75291645526886</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -19365,19 +19365,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1529578787043435</v>
+        <v>0.2606364332974145</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2777347546232478</v>
+        <v>0.3216560991222006</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1255895264380591</v>
+        <v>0.209556936213606</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3910982980074746</v>
+        <v>0.5105256441134123</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>11.02166239305382</v>
+        <v>14.00947691908368</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -19453,19 +19453,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2309588002972173</v>
+        <v>0.312334540408451</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3931306295245982</v>
+        <v>0.4420770159678112</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1572899000354111</v>
+        <v>0.2306507408964726</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.4805817311313626</v>
+        <v>0.5588689832227685</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>15.64433005854967</v>
+        <v>18.98965643890219</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -19883,23 +19883,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.19740052038159</v>
+        <v>0.5839749223308641</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.3095634707177017</v>
+        <v>0.552664036760683</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1275721064097398</v>
+        <v>0.219460558704328</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.4442977834533839</v>
+        <v>0.7641825189906297</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>12.71144712028139</v>
+        <v>25.18938943679325</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -20009,23 +20009,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.1678353250026703</v>
+        <v>0.36724338</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2712681293487549</v>
+        <v>0.5157974</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.1282829940319061</v>
+        <v>0.2556895</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.4096770984600803</v>
+        <v>0.6060060885457149</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>10.75261682271957</v>
+        <v>22.11880832910538</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -20053,23 +20053,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.05428285896778107</v>
+        <v>0.08789304000000001</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1978787034749985</v>
+        <v>0.24157383</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.07361196726560593</v>
+        <v>0.08473314999999999</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2329868214465811</v>
+        <v>0.2964676019198614</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>7.176338136196136</v>
+        <v>8.893128484487534</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -20101,19 +20101,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3209352791309357</v>
+        <v>0.32093182</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.4174624383449554</v>
+        <v>0.41744387</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2384360879659653</v>
+        <v>0.23843391</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.5665114995575427</v>
+        <v>0.5665084483584854</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>17.90029555559158</v>
+        <v>17.89949238300323</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -20387,19 +20387,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2616953232759602</v>
+        <v>0.3437763968413672</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3308489167878408</v>
+        <v>0.3647612832729673</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2031787550172416</v>
+        <v>0.2720673726440656</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5115616514907663</v>
+        <v>0.586324480847736</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>14.2017972742216</v>
+        <v>16.53272817053076</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -20471,23 +20471,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2944677060769736</v>
+        <v>0.41679432615546</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4241657950751955</v>
+        <v>0.4935242493952591</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2180843184261853</v>
+        <v>0.2926763546048481</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.5426487870409126</v>
+        <v>0.6455961014097437</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>18.02626723375442</v>
+        <v>21.99382629752845</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -20909,19 +20909,19 @@
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.5782381896765529</v>
+        <v>0.7634906419006537</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.4536291520444006</v>
+        <v>0.6429327607130314</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1818892323184358</v>
+        <v>0.3270972620200957</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.7604197457171618</v>
+        <v>0.8737795156105765</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>22.50211539043995</v>
+        <v>31.12687474775534</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -21031,23 +21031,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.2605650126934052</v>
+        <v>0.57484066</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.3128326237201691</v>
+        <v>0.49601805</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.2004737854003906</v>
+        <v>0.36051393</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.5104556912146295</v>
+        <v>0.7581824746481459</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>13.51592242717743</v>
+        <v>20.57816833257675</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -21075,23 +21075,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.08464360237121582</v>
+        <v>0.31889105</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2263454347848892</v>
+        <v>0.4920224</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.08918438106775284</v>
+        <v>0.18532169</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2909357358098448</v>
+        <v>0.5647043903064651</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>8.456171303987503</v>
+        <v>19.72701698541641</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -21123,19 +21123,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.368600070476532</v>
+        <v>0.3684039</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.4799096286296844</v>
+        <v>0.4797438</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2866077721118927</v>
+        <v>0.28653926</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.6071244275076831</v>
+        <v>0.60696285849348</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>21.36176824569702</v>
+        <v>21.3549867272377</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -21445,19 +21445,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04391648603357255</v>
+        <v>0.0574484426410399</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1679726000896552</v>
+        <v>0.1882816998517704</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3390046768527005</v>
+        <v>0.6841986774185758</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2095626064773307</v>
+        <v>0.2396840475314116</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>26.8385981240602</v>
+        <v>33.70231028308675</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -21475,19 +21475,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.04391648603357255</v>
+        <v>0.0574484426410399</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.1679726000896552</v>
+        <v>0.1882816998517704</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.3390046768527005</v>
+        <v>0.6841986774185758</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.2095626064773307</v>
+        <v>0.2396840475314116</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>26.8385981240602</v>
+        <v>33.70231028308675</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -21569,19 +21569,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.04619804345421116</v>
+        <v>0.060833822766724</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1715089432531207</v>
+        <v>0.1972598035198204</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3238217884906093</v>
+        <v>0.65669034787747</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2149373012164505</v>
+        <v>0.2466451352991256</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>27.54603370766135</v>
+        <v>35.43478619013263</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -21599,19 +21599,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.04609618785696456</v>
+        <v>0.0607011894670931</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.1714818523700614</v>
+        <v>0.196967326827684</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.3223886288484603</v>
+        <v>0.6560856503131398</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.2147002278922045</v>
+        <v>0.246376113832273</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>27.56010209213641</v>
+        <v>35.38738384498456</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -22143,23 +22143,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.8, 'reg_lambda': 0.5, 'reg_alpha': 1.0, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 8, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.04387523153841396</v>
+        <v>0.0605482152374781</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1724603259434599</v>
+        <v>0.196802842292038</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.3000942229919964</v>
+        <v>0.6577627075443189</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2094641533494788</v>
+        <v>0.2460654694130775</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>28.09666716501996</v>
+        <v>35.34839670695711</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -22173,23 +22173,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.0472843860773027</v>
+        <v>0.0404751779404388</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.1818993507458713</v>
+        <v>0.1588863566985226</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.3322440771122023</v>
+        <v>0.5531921608082764</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.2174497322999104</v>
+        <v>0.2011844376199084</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>29.78480364067566</v>
+        <v>29.8056395054002</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -22287,23 +22287,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.04214794188737869</v>
+        <v>0.059869517</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1648400127887726</v>
+        <v>0.19432586</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.3703151047229767</v>
+        <v>0.6601514000000001</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2052996392772737</v>
+        <v>0.2446824812709352</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>26.16528570652008</v>
+        <v>34.89370346069336</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -22317,23 +22317,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.04460851475596428</v>
+        <v>0.058520347</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1691661179065704</v>
+        <v>0.19002613</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.3804062902927399</v>
+        <v>0.66869444</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2112072791263698</v>
+        <v>0.2419097907897882</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>26.72876715660095</v>
+        <v>34.08961594104767</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -22349,23 +22349,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.01, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.03743215277791023</v>
+        <v>0.03645567</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1663001477718353</v>
+        <v>0.15704656</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2631760537624359</v>
+        <v>0.2956589</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1934739072275903</v>
+        <v>0.190933675680867</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>23.27722162008286</v>
+        <v>23.49193543195724</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -22379,23 +22379,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.01, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.02993064187467098</v>
+        <v>0.036246084</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1532144397497177</v>
+        <v>0.16058439</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.2456365972757339</v>
+        <v>0.29570064</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.1730047452374384</v>
+        <v>0.1903840426002532</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>21.66588306427002</v>
+        <v>23.9919438958168</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -22755,19 +22755,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.06726084144585461</v>
+        <v>0.3358593909766639</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2155105058152709</v>
+        <v>0.3497250304654388</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.0765684654293943</v>
+        <v>0.262176175531061</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2593469518730741</v>
+        <v>0.5795337703504981</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>7.834417109646166</v>
+        <v>15.8342721855699</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -22785,19 +22785,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.06726084144585461</v>
+        <v>0.3358593909766639</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.2155105058152709</v>
+        <v>0.3497250304654388</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.0765684654293943</v>
+        <v>0.262176175531061</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.2593469518730741</v>
+        <v>0.5795337703504981</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>7.834417109646166</v>
+        <v>15.8342721855699</v>
       </c>
     </row>
     <row r="10" ht="30.75" customHeight="1">
@@ -22879,19 +22879,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.160509145848194</v>
+        <v>0.3823919863571255</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3348745707319975</v>
+        <v>0.4864719792116769</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1150879177305153</v>
+        <v>0.285681086761691</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.4006359268066133</v>
+        <v>0.6183785138223397</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>12.48990898356738</v>
+        <v>21.50714049571043</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -22909,19 +22909,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.1606501950079543</v>
+        <v>0.3823919863571255</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.3349886415953258</v>
+        <v>0.4864719792116769</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.115124928707643</v>
+        <v>0.285681086761691</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.4008119197428568</v>
+        <v>0.6183785138223397</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>12.49452809079979</v>
+        <v>21.50714049571043</v>
       </c>
     </row>
     <row r="12" ht="30.75" customHeight="1">
@@ -23453,23 +23453,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.8, 'reg_lambda': 0.5, 'reg_alpha': 1.0, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 8, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.3186605641361788</v>
+        <v>0.6163167991028398</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.4090326955428265</v>
+        <v>0.581714675136385</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1517426230707524</v>
+        <v>0.3256962888562115</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.5645002782427824</v>
+        <v>0.7850584685887031</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>17.6966677078583</v>
+        <v>26.40446585853952</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -23487,19 +23487,19 @@
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.1124350077656455</v>
+        <v>0.6163167991028398</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.2671712818916681</v>
+        <v>0.581714675136385</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.09416030860282913</v>
+        <v>0.3256962888562115</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.3353132979254558</v>
+        <v>0.7850584685887031</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>10.08582053450142</v>
+        <v>26.40446585853952</v>
       </c>
     </row>
     <row r="21" ht="128.25" customHeight="1">
@@ -23597,23 +23597,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.03310940787196159</v>
+        <v>0.4394309</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1478424370288849</v>
+        <v>0.3965218</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.05517856776714325</v>
+        <v>0.3044516</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.181959907320161</v>
+        <v>0.662895838324166</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>5.409407615661621</v>
+        <v>17.2176793217659</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -23627,23 +23627,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.05464796349406242</v>
+        <v>0.6813966</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1847440004348755</v>
+        <v>0.59194183</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.06822469085454941</v>
+        <v>0.3974604</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2337690387841436</v>
+        <v>0.8254675060741576</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>6.713789701461792</v>
+        <v>23.27919155359268</v>
       </c>
     </row>
     <row r="23" ht="57" customHeight="1">
@@ -23659,23 +23659,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.03751705586910248</v>
+        <v>0.20117125</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1710387915372849</v>
+        <v>0.31144214</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.06049731746315956</v>
+        <v>0.10485818</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1936932003687855</v>
+        <v>0.448521180270486</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>6.044291704893112</v>
+        <v>11.73230037093162</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -23689,23 +23689,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.03722192719578743</v>
+        <v>0.14995137</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1686329692602158</v>
+        <v>0.29604656</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.05990629643201828</v>
+        <v>0.100054644</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.1929298504529235</v>
+        <v>0.3872355466254715</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>5.959617346525192</v>
+        <v>10.91159582138062</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -24066,19 +24066,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2616953232759602</v>
+        <v>0.4298435413725182</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3308489167878408</v>
+        <v>0.4031887841926556</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2031787550172416</v>
+        <v>0.358509749287132</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5115616514907663</v>
+        <v>0.6556245429912749</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>14.2017972742216</v>
+        <v>18.98306486779321</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -24096,19 +24096,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.2616953232759602</v>
+        <v>0.4298435413725182</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.3308489167878408</v>
+        <v>0.4031887841926556</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.2031787550172416</v>
+        <v>0.358509749287132</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.5115616514907663</v>
+        <v>0.6556245429912749</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>14.2017972742216</v>
+        <v>18.98306486779321</v>
       </c>
     </row>
     <row r="10" ht="30.75" customHeight="1">
@@ -24190,19 +24190,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2928382017919841</v>
+        <v>0.4579098528463206</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4207793667483262</v>
+        <v>0.5310872819461315</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2183144020605171</v>
+        <v>0.3668608311418908</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.5411452686589656</v>
+        <v>0.6766903670411754</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>17.85517622793126</v>
+        <v>24.45060673776825</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -24220,19 +24220,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.2926112817361877</v>
+        <v>0.4579098528463206</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.420691824321363</v>
+        <v>0.5310872819461315</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.2182230586478696</v>
+        <v>0.3668608311418908</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.5409355615377748</v>
+        <v>0.6766903670411754</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>17.85208857633551</v>
+        <v>24.45060673776825</v>
       </c>
     </row>
     <row r="12" ht="30.75" customHeight="1">
@@ -24764,23 +24764,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.8, 'reg_lambda': 0.5, 'reg_alpha': 1.0, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 8, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.2348382144694545</v>
+        <v>0.5451106374953132</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.3320368954250486</v>
+        <v>0.5343684074216896</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1378258751700163</v>
+        <v>0.376002727556102</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.484601087977993</v>
+        <v>0.7383160823761821</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>14.52819954531807</v>
+        <v>24.96578790184595</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -24798,19 +24798,19 @@
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.09239490537452606</v>
+        <v>0.5451106374953132</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.2053374182081956</v>
+        <v>0.5343684074216896</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.1213766016836443</v>
+        <v>0.376002727556102</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.3039653029122338</v>
+        <v>0.7383160823761821</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>9.472087660808329</v>
+        <v>24.96578790184595</v>
       </c>
     </row>
     <row r="21" ht="128.25" customHeight="1">
@@ -24908,23 +24908,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.2773611545562744</v>
+        <v>0.6213778</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.3356100618839264</v>
+        <v>0.7201271</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.2092296630144119</v>
+        <v>0.4072713</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.5266508848908111</v>
+        <v>0.788275222074752</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>14.34251815080643</v>
+        <v>33.1174224615097</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -24942,19 +24942,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.2765039503574371</v>
+        <v>0.43216246</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.3111501932144165</v>
+        <v>0.4856547</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.2041652500629425</v>
+        <v>0.3596805</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.5258364292795215</v>
+        <v>0.6573906476859924</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>13.41318339109421</v>
+        <v>22.48140722513199</v>
       </c>
     </row>
     <row r="23" ht="57" customHeight="1">
@@ -24970,23 +24970,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.08711761981248856</v>
+        <v>0.4044582</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2347029149532318</v>
+        <v>0.5670967</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.09199409186840057</v>
+        <v>0.22142328</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2951569409864667</v>
+        <v>0.6359702783708406</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>8.757185935974121</v>
+        <v>23.30191880464554</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -25000,23 +25000,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.08796011656522751</v>
+        <v>0.45447445</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.2321853041648865</v>
+        <v>0.60243386</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.09153851121664047</v>
+        <v>0.23267968</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.2965807083497298</v>
+        <v>0.6741472014016782</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>8.66498202085495</v>
+        <v>24.94384050369263</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -25377,19 +25377,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1529578787043435</v>
+        <v>0.3667775124604558</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2777347546232478</v>
+        <v>0.3721706215985295</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1255895264380591</v>
+        <v>0.2960864416258728</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3910982980074746</v>
+        <v>0.6056215918050278</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>11.02166239305382</v>
+        <v>17.07852875592023</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -25407,19 +25407,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.1529578787043435</v>
+        <v>0.3667775124604558</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.2777347546232478</v>
+        <v>0.3721706215985295</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.1255895264380591</v>
+        <v>0.2960864416258728</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.3910982980074746</v>
+        <v>0.6056215918050278</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>11.02166239305382</v>
+        <v>17.07852875592023</v>
       </c>
     </row>
     <row r="10" ht="30.75" customHeight="1">
@@ -25501,19 +25501,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2157629917290099</v>
+        <v>0.4070907941835557</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3801237274004825</v>
+        <v>0.5024702277237331</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1530360154757276</v>
+        <v>0.3124093913499045</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.4645029512597417</v>
+        <v>0.6380366715037277</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>15.07446127817528</v>
+        <v>22.56327425644376</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -25531,19 +25531,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.2156698420281371</v>
+        <v>0.4070907941835557</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.3799722444292625</v>
+        <v>0.5024702277237331</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.1529694628003872</v>
+        <v>0.3124093913499045</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.4644026722878941</v>
+        <v>0.6380366715037277</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>15.06829461468616</v>
+        <v>22.56327425644376</v>
       </c>
     </row>
     <row r="12" ht="30.75" customHeight="1">
@@ -26075,23 +26075,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0.5, 'reg_alpha': 0.5, 'n_estimators': 1000, 'min_child_weight': 1, 'max_depth': 8, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1298915258340236</v>
+        <v>0.5631349561412093</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2721829094486415</v>
+        <v>0.5267485061071299</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1080886636538588</v>
+        <v>0.3313345844789916</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.3604046695508031</v>
+        <v>0.7504231847039438</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>11.16135612882968</v>
+        <v>24.24468323435756</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -26105,23 +26105,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.8, 'reg_lambda': 0.5, 'reg_alpha': 1.0, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 8, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.1927025606490088</v>
+        <v>0.5631349561412093</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.3407909673480084</v>
+        <v>0.5267485061071299</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.1339241211713496</v>
+        <v>0.3313345844789916</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.4389789979589101</v>
+        <v>0.7504231847039438</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>14.62322872628163</v>
+        <v>24.24468323435756</v>
       </c>
     </row>
     <row r="21" ht="128.25" customHeight="1">
@@ -26219,23 +26219,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.1561637222766876</v>
+        <v>0.6528668399999999</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2712725400924683</v>
+        <v>0.54432255</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.1261898726224899</v>
+        <v>0.4067751</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.3951755588048022</v>
+        <v>0.8080017576481804</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>10.76577454805374</v>
+        <v>22.34893888235092</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -26249,23 +26249,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 100, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.1559211164712906</v>
+        <v>0.49286872</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.2517024278640747</v>
+        <v>0.424369</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.1207747608423233</v>
+        <v>0.3455466</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.3948684799667993</v>
+        <v>0.7020460964104408</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>10.05422323942184</v>
+        <v>18.60297024250031</v>
       </c>
     </row>
     <row r="23" ht="57" customHeight="1">
@@ -26285,19 +26285,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.05945241823792458</v>
+        <v>0.21166204</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.20913927257061</v>
+        <v>0.35726613</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.07747793197631836</v>
+        <v>0.12912549</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2438286657428215</v>
+        <v>0.4600674289283348</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>7.575899362564087</v>
+        <v>13.75923603773117</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -26311,23 +26311,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.0562649592757225</v>
+        <v>0.18124148</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.2027804255485535</v>
+        <v>0.32641035</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.07521405816078186</v>
+        <v>0.11890135</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.2372023593384402</v>
+        <v>0.4257246557298057</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>7.349696010351181</v>
+        <v>12.44083121418953</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -26690,19 +26690,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03482935701157479</v>
+        <v>0.0391078983929872</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1492761775508428</v>
+        <v>0.1542815605192919</v>
       </c>
       <c r="F9" s="18" t="n">
-        <v>0.2009338563891563</v>
+        <v>0.3453942811802127</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1866262495244835</v>
+        <v>0.1977571702694677</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>21.40085768363254</v>
+        <v>25.21479245558708</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -26720,19 +26720,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.03482935701157479</v>
+        <v>0.0391078983929872</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.1492761775508428</v>
+        <v>0.1542815605192919</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.2009338563891563</v>
+        <v>0.3453942811802127</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.1866262495244835</v>
+        <v>0.1977571702694677</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>21.40085768363254</v>
+        <v>25.21479245558708</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -26814,19 +26814,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.0394029245394985</v>
+        <v>0.0430481543403476</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1553672034602652</v>
+        <v>0.1628922676557124</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2025301968251367</v>
+        <v>0.3399467013637681</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.198501699084664</v>
+        <v>0.2074804914693129</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>22.35446255634172</v>
+        <v>26.7072365688491</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -26844,19 +26844,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.0394128379638916</v>
+        <v>0.0430056882343737</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.1554027336487668</v>
+        <v>0.1628051656580121</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.202575806150061</v>
+        <v>0.3398259876381746</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.1985266681428256</v>
+        <v>0.2073781286307062</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>22.36032204438795</v>
+        <v>26.69310965786571</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -27392,19 +27392,19 @@
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.05638819324270751</v>
+        <v>0.1314077387374772</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1856548707940683</v>
+        <v>0.3097491621187108</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2375059150275168</v>
+        <v>0.4542648721014418</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2374619827313575</v>
+        <v>0.3625020534251871</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>28.60793417389799</v>
+        <v>57.12540685496409</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -27418,23 +27418,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 200, 'min_child_weight': 1, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.3, 'colsample_bytree': 0.9}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.04373629355561719</v>
+        <v>0.1190607680761851</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.1743710838840376</v>
+        <v>0.2711381114876302</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.2241161587233222</v>
+        <v>0.4158345926090043</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.2091322393979876</v>
+        <v>0.3450518338977278</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>25.98459741655872</v>
+        <v>48.84190717553059</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -27532,23 +27532,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.05}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.02820780500769615</v>
+        <v>0.042233486</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1404275596141815</v>
+        <v>0.16420361</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.2084714770317078</v>
+        <v>0.37383598</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.1679517937019315</v>
+        <v>0.20550787266794</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>20.05009204149246</v>
+        <v>26.65114998817444</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -27566,19 +27566,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.02800553478300571</v>
+        <v>0.0462571</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1386025696992874</v>
+        <v>0.15783861</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.2076441198587418</v>
+        <v>0.41936302</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.1673485428170969</v>
+        <v>0.2150746405305733</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>19.80292648077011</v>
+        <v>25.09627938270569</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -27594,23 +27594,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.01, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.01448011584579945</v>
+        <v>0.03802516</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1117385253310204</v>
+        <v>0.15432729</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1627785563468933</v>
+        <v>0.19939461</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.120333353006552</v>
+        <v>0.1950004086887527</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>15.10408520698547</v>
+        <v>21.97339832782745</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -27624,23 +27624,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.01, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.02096231281757355</v>
+        <v>0.016266108</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.120079904794693</v>
+        <v>0.10611271</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.1776959449052811</v>
+        <v>0.16390944</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.1447836759361135</v>
+        <v>0.1275386512364157</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>16.08323603868484</v>
+        <v>14.9262011051178</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -27660,19 +27660,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.04259264096617699</v>
+        <v>0.048768383</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1540485173463821</v>
+        <v>0.1642266</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.4208289980888367</v>
+        <v>0.4504307</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2063798463178442</v>
+        <v>0.2208356459439543</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>24.80005770921707</v>
+        <v>25.94894170761108</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -27690,19 +27690,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.05271419882774353</v>
+        <v>0.05271054</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.1866953670978546</v>
+        <v>0.18674769</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.4785051941871643</v>
+        <v>0.4784135</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.2295957291147715</v>
+        <v>0.2295877622885646</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>28.80351543426514</v>
+        <v>28.81003320217133</v>
       </c>
     </row>
   </sheetData>
@@ -28004,19 +28004,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.05396811629456583</v>
+        <v>0.0574563238505272</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1842442790310237</v>
+        <v>0.1883404668773241</v>
       </c>
       <c r="F9" s="18" t="n">
-        <v>0.5103780368010534</v>
+        <v>0.642976757374811</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2323103878318097</v>
+        <v>0.2397004877978501</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>30.89228775050308</v>
+        <v>33.28195026169174</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -28034,19 +28034,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.05396811629456583</v>
+        <v>0.0574563238505272</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.1842442790310237</v>
+        <v>0.1883404668773241</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.5103780368010534</v>
+        <v>0.642976757374811</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.2323103878318097</v>
+        <v>0.2397004877978501</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>30.89228775050308</v>
+        <v>33.28195026169174</v>
       </c>
     </row>
     <row r="10">
@@ -28128,19 +28128,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.05626324212185002</v>
+        <v>0.0600286358067162</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1884870638701841</v>
+        <v>0.1960106413991417</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.4888207441301031</v>
+        <v>0.6153162638951044</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2371987397138737</v>
+        <v>0.2450074199013496</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>31.72864779380419</v>
+        <v>34.78562390354742</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -28158,19 +28158,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.05626095339637213</v>
+        <v>0.0600459504377004</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.1884903352075292</v>
+        <v>0.1961192736933621</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.4888339704692396</v>
+        <v>0.6153224118247449</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.2371939151756894</v>
+        <v>0.2450427522651924</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>31.72922097135746</v>
+        <v>34.80535315605511</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -28706,19 +28706,19 @@
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.05747767375307843</v>
+        <v>0.0606451335986931</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1905682672574251</v>
+        <v>0.197158183597521</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.4941894224957669</v>
+        <v>0.6198237358195611</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2397450182028366</v>
+        <v>0.2462623267954177</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>32.04034218100848</v>
+        <v>34.95067633616998</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -28732,23 +28732,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 200, 'min_child_weight': 1, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.3, 'colsample_bytree': 0.9}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.05736143367135827</v>
+        <v>0.0623840004916087</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.197073069506045</v>
+        <v>0.2054862303232418</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.4807838088990477</v>
+        <v>0.5398992436359955</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.239502471117436</v>
+        <v>0.2497678932361178</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>33.66008423986911</v>
+        <v>37.00802312669553</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -28846,23 +28846,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.05216126516461372</v>
+        <v>0.08563614999999999</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1798149794340134</v>
+        <v>0.25615183</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.5510806441307068</v>
+        <v>0.69780225</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2283884085600968</v>
+        <v>0.2926365431155108</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>29.93515133857727</v>
+        <v>46.40324711799622</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -28880,19 +28880,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.05403232574462891</v>
+        <v>0.06770587</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1814347058534622</v>
+        <v>0.22124112</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.559013843536377</v>
+        <v>0.62222016</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2324485442944931</v>
+        <v>0.2602035158768663</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>30.09811341762543</v>
+        <v>40.04546701908112</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -28908,23 +28908,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.01, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.03308797627687454</v>
+        <v>0.059937295</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1552262902259827</v>
+        <v>0.20090395</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2735105454921722</v>
+        <v>0.32820505</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1819010068055549</v>
+        <v>0.244820943901031</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>22.80937731266022</v>
+        <v>30.90384304523468</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -28938,23 +28938,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.01, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.0351092740893364</v>
+        <v>0.07127929500000001</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1585556864738464</v>
+        <v>0.22896506</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.2819537818431854</v>
+        <v>0.42224628</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.1873746890306596</v>
+        <v>0.2669818248286528</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>23.21616858243942</v>
+        <v>37.02666759490967</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -28974,19 +28974,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1055203080177307</v>
+        <v>0.08314000000000001</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2390850931406021</v>
+        <v>0.21895671</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.9375483393669128</v>
+        <v>0.84056294</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3248388954816382</v>
+        <v>0.288340078207922</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>37.44885921478271</v>
+        <v>35.63767373561859</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -29004,19 +29004,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.04788991436362267</v>
+        <v>0.047799796</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.1725531965494156</v>
+        <v>0.17212263</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.6341099739074707</v>
+        <v>0.6325989400000001</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.2188376438449808</v>
+        <v>0.2186316442466931</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>30.90440332889557</v>
+        <v>30.84474205970764</v>
       </c>
     </row>
   </sheetData>
@@ -29316,19 +29316,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04391648603357255</v>
+        <v>0.0482758310538254</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1679726000896552</v>
+        <v>0.1728952840782994</v>
       </c>
       <c r="F9" s="18" t="n">
-        <v>0.3390046768527005</v>
+        <v>0.5133696785912291</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2095626064773307</v>
+        <v>0.2197176166214839</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>26.8385981240602</v>
+        <v>29.91327163270417</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -29346,19 +29346,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.04391648603357255</v>
+        <v>0.0482758310538254</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.1679726000896552</v>
+        <v>0.1728952840782994</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.3390046768527005</v>
+        <v>0.5133696785912291</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.2095626064773307</v>
+        <v>0.2197176166214839</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>26.8385981240602</v>
+        <v>29.91327163270417</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -29440,19 +29440,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.04713234420459114</v>
+        <v>0.0512081210965276</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1729975236222779</v>
+        <v>0.180480564254052</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3304899975288136</v>
+        <v>0.4952278967188312</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2170998484674532</v>
+        <v>0.2262921145257334</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>27.70830762497317</v>
+        <v>31.33264016363749</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -29470,19 +29470,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.04711803653268334</v>
+        <v>0.0512212269667362</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.1729564404713406</v>
+        <v>0.1805082999232166</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.330463864485848</v>
+        <v>0.4952015718414854</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.2170668941425277</v>
+        <v>0.2263210705319684</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>27.70121266654575</v>
+        <v>31.33758251477002</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -30018,19 +30018,19 @@
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.04782404615145833</v>
+        <v>0.0515710226236025</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1742824912945103</v>
+        <v>0.1811416658195834</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.3331198320609985</v>
+        <v>0.4979663072645176</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2186870964448025</v>
+        <v>0.2270925419814631</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>27.90827569288556</v>
+        <v>31.42641266804087</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -30048,19 +30048,19 @@
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.04782404615145833</v>
+        <v>0.0515710226236025</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.1742824912945103</v>
+        <v>0.1811416658195834</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.3331198320609985</v>
+        <v>0.4979663072645176</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.2186870964448025</v>
+        <v>0.2270925419814631</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>27.90827569288556</v>
+        <v>31.42641266804087</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -30158,23 +30158,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.01}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.04150478169322014</v>
+        <v>0.23116483</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1641702651977539</v>
+        <v>0.44153857</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.3699603080749512</v>
+        <v>0.6752865300000001</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2037272237410115</v>
+        <v>0.4807960356979331</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>26.05748772621155</v>
+        <v>96.32431864738464</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -30192,19 +30192,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.04205326735973358</v>
+        <v>0.06867058600000001</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1648367494344711</v>
+        <v>0.20330228</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.3695317506790161</v>
+        <v>0.6995927</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2050689331901192</v>
+        <v>0.2620507312554832</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>26.16690397262573</v>
+        <v>32.87262916564941</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -30220,23 +30220,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.01, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.0279746986925602</v>
+        <v>0.08024745</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1438409239053726</v>
+        <v>0.225331</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2305315434932709</v>
+        <v>0.3685028</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1672563861039697</v>
+        <v>0.2832798031887301</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>20.42447775602341</v>
+        <v>31.17817938327789</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -30250,23 +30250,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.01, 'batch_size': 32}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.02914202399551868</v>
+        <v>0.022291325</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1438574492931366</v>
+        <v>0.12161235</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.2290571331977844</v>
+        <v>0.18679796</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.1707103511668777</v>
+        <v>0.1493027964664796</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>20.41173726320267</v>
+        <v>17.79306977987289</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -30286,19 +30286,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.07117081433534622</v>
+        <v>0.07144037</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2071028351783752</v>
+        <v>0.206404</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.6900513768196106</v>
+        <v>0.69123036</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2667785867256707</v>
+        <v>0.267283312031938</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>33.24263691902161</v>
+        <v>33.15246403217316</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -30316,19 +30316,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.04928446933627129</v>
+        <v>0.04929151</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.1750014126300812</v>
+        <v>0.17500834</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.5765486359596252</v>
+        <v>0.57654953</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.2220010570611574</v>
+        <v>0.2220169140739853</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>29.79649603366852</v>
+        <v>29.79752123355865</v>
       </c>
     </row>
   </sheetData>
